--- a/src/test/resources/io.dingodb.test/testdata/cases/negative/sql_negative_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/cases/negative/sql_negative_cases.xlsx
@@ -4181,8 +4181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B304" workbookViewId="0">
-      <selection activeCell="I337" sqref="I337"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F332" sqref="F332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/src/test/resources/io.dingodb.test/testdata/cases/negative/sql_negative_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/cases/negative/sql_negative_cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2874" uniqueCount="1039">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2881" uniqueCount="1043">
   <si>
     <t>TestID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3790,14 +3790,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>drop table negative_331_00_schema1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>truncate table negative_332_00_schema1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Error:  (state=90001,code=90001)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3854,6 +3846,29 @@
   </si>
   <si>
     <t>negative_316</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_333</t>
+  </si>
+  <si>
+    <t>drop table negative_332_00_schema1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>truncate table negative_333_00_schema1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建表，指定不允许为null的字段的默认值为null，应创建失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table negative_331(id int,name varchar(32) not null default null,age int,primary key(id))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error: Invalid default value for 'name'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4212,10 +4227,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K333"/>
+  <dimension ref="A1:K334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A291" workbookViewId="0">
-      <selection activeCell="E301" sqref="E301"/>
+    <sheetView tabSelected="1" topLeftCell="A309" workbookViewId="0">
+      <selection activeCell="J332" sqref="J332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4257,7 +4272,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>7</v>
@@ -4271,7 +4286,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>20</v>
@@ -4324,7 +4339,7 @@
         <v>15</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>27</v>
@@ -4385,7 +4400,7 @@
         <v>15</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>37</v>
@@ -4420,7 +4435,7 @@
         <v>15</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>40</v>
@@ -6683,7 +6698,7 @@
         <v>15</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="I95" s="1" t="s">
         <v>289</v>
@@ -10045,7 +10060,7 @@
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A225" s="1" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>25</v>
@@ -10086,7 +10101,7 @@
         <v>14</v>
       </c>
       <c r="H226" s="1" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="I226" s="1" t="s">
         <v>670</v>
@@ -10115,7 +10130,7 @@
         <v>14</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="I227" s="1" t="s">
         <v>671</v>
@@ -10144,7 +10159,7 @@
         <v>14</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="I228" s="1" t="s">
         <v>672</v>
@@ -10173,7 +10188,7 @@
         <v>14</v>
       </c>
       <c r="H229" s="1" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="I229" s="1" t="s">
         <v>673</v>
@@ -10202,7 +10217,7 @@
         <v>14</v>
       </c>
       <c r="H230" s="1" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="I230" s="1" t="s">
         <v>674</v>
@@ -10231,7 +10246,7 @@
         <v>14</v>
       </c>
       <c r="H231" s="1" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="I231" s="1" t="s">
         <v>676</v>
@@ -10260,7 +10275,7 @@
         <v>14</v>
       </c>
       <c r="H232" s="1" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="I232" s="1" t="s">
         <v>675</v>
@@ -10289,7 +10304,7 @@
         <v>14</v>
       </c>
       <c r="H233" s="1" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="I233" s="1" t="s">
         <v>677</v>
@@ -10318,7 +10333,7 @@
         <v>14</v>
       </c>
       <c r="H234" s="1" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="I234" s="1" t="s">
         <v>679</v>
@@ -10347,7 +10362,7 @@
         <v>14</v>
       </c>
       <c r="H235" s="1" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="I235" s="1" t="s">
         <v>678</v>
@@ -10376,7 +10391,7 @@
         <v>14</v>
       </c>
       <c r="H236" s="1" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="I236" s="1" t="s">
         <v>680</v>
@@ -10405,7 +10420,7 @@
         <v>14</v>
       </c>
       <c r="H237" s="1" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="I237" s="1" t="s">
         <v>681</v>
@@ -10463,7 +10478,7 @@
         <v>15</v>
       </c>
       <c r="H239" s="1" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="I239" s="1" t="s">
         <v>724</v>
@@ -10498,7 +10513,7 @@
         <v>15</v>
       </c>
       <c r="H240" s="1" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="I240" s="1" t="s">
         <v>725</v>
@@ -10533,7 +10548,7 @@
         <v>15</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="I241" s="1" t="s">
         <v>726</v>
@@ -10568,7 +10583,7 @@
         <v>15</v>
       </c>
       <c r="H242" s="1" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="I242" s="1" t="s">
         <v>727</v>
@@ -10603,7 +10618,7 @@
         <v>15</v>
       </c>
       <c r="H243" s="1" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="I243" s="1" t="s">
         <v>728</v>
@@ -10638,7 +10653,7 @@
         <v>15</v>
       </c>
       <c r="H244" s="1" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="I244" s="1" t="s">
         <v>729</v>
@@ -10673,7 +10688,7 @@
         <v>15</v>
       </c>
       <c r="H245" s="1" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="I245" s="1" t="s">
         <v>730</v>
@@ -10708,7 +10723,7 @@
         <v>15</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="I246" s="1" t="s">
         <v>731</v>
@@ -10743,7 +10758,7 @@
         <v>15</v>
       </c>
       <c r="H247" s="1" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="I247" s="1" t="s">
         <v>737</v>
@@ -10778,7 +10793,7 @@
         <v>15</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="I248" s="1" t="s">
         <v>738</v>
@@ -10813,7 +10828,7 @@
         <v>15</v>
       </c>
       <c r="H249" s="1" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="I249" s="1" t="s">
         <v>739</v>
@@ -10848,7 +10863,7 @@
         <v>15</v>
       </c>
       <c r="H250" s="1" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="I250" s="1" t="s">
         <v>740</v>
@@ -10883,7 +10898,7 @@
         <v>15</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="I251" s="1" t="s">
         <v>741</v>
@@ -10918,7 +10933,7 @@
         <v>15</v>
       </c>
       <c r="H252" s="1" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="I252" s="1" t="s">
         <v>742</v>
@@ -10953,7 +10968,7 @@
         <v>15</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="I253" s="1" t="s">
         <v>743</v>
@@ -10988,7 +11003,7 @@
         <v>15</v>
       </c>
       <c r="H254" s="1" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="I254" s="1" t="s">
         <v>744</v>
@@ -11023,7 +11038,7 @@
         <v>15</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="I255" s="1" t="s">
         <v>745</v>
@@ -11058,7 +11073,7 @@
         <v>15</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="I256" s="1" t="s">
         <v>746</v>
@@ -11093,7 +11108,7 @@
         <v>15</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="I257" s="1" t="s">
         <v>747</v>
@@ -11128,7 +11143,7 @@
         <v>15</v>
       </c>
       <c r="H258" s="1" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="I258" s="1" t="s">
         <v>748</v>
@@ -11163,7 +11178,7 @@
         <v>15</v>
       </c>
       <c r="H259" s="1" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="I259" s="1" t="s">
         <v>750</v>
@@ -11198,7 +11213,7 @@
         <v>15</v>
       </c>
       <c r="H260" s="1" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="I260" s="1" t="s">
         <v>752</v>
@@ -11233,7 +11248,7 @@
         <v>15</v>
       </c>
       <c r="H261" s="1" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="I261" s="1" t="s">
         <v>755</v>
@@ -11268,7 +11283,7 @@
         <v>15</v>
       </c>
       <c r="H262" s="1" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="I262" s="1" t="s">
         <v>756</v>
@@ -11303,7 +11318,7 @@
         <v>15</v>
       </c>
       <c r="H263" s="1" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="I263" s="1" t="s">
         <v>753</v>
@@ -11338,7 +11353,7 @@
         <v>15</v>
       </c>
       <c r="H264" s="1" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="I264" s="1" t="s">
         <v>754</v>
@@ -11373,7 +11388,7 @@
         <v>15</v>
       </c>
       <c r="H265" s="1" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="I265" s="1" t="s">
         <v>757</v>
@@ -11405,7 +11420,7 @@
         <v>15</v>
       </c>
       <c r="H266" s="1" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="I266" s="1" t="s">
         <v>769</v>
@@ -11437,7 +11452,7 @@
         <v>15</v>
       </c>
       <c r="H267" s="1" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="I267" s="1" t="s">
         <v>770</v>
@@ -11469,7 +11484,7 @@
         <v>15</v>
       </c>
       <c r="H268" s="1" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="I268" s="1" t="s">
         <v>772</v>
@@ -11501,7 +11516,7 @@
         <v>15</v>
       </c>
       <c r="H269" s="1" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="I269" s="1" t="s">
         <v>775</v>
@@ -11533,7 +11548,7 @@
         <v>15</v>
       </c>
       <c r="H270" s="1" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="I270" s="1" t="s">
         <v>776</v>
@@ -11565,7 +11580,7 @@
         <v>15</v>
       </c>
       <c r="H271" s="1" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="I271" s="1" t="s">
         <v>777</v>
@@ -11597,7 +11612,7 @@
         <v>15</v>
       </c>
       <c r="H272" s="1" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="I272" s="1" t="s">
         <v>778</v>
@@ -11611,7 +11626,7 @@
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A273" s="1" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>25</v>
@@ -11643,7 +11658,7 @@
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A274" s="1" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>25</v>
@@ -11664,7 +11679,7 @@
         <v>786</v>
       </c>
       <c r="H274" s="1" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="I274" s="1" t="s">
         <v>794</v>
@@ -11699,7 +11714,7 @@
         <v>786</v>
       </c>
       <c r="H275" s="1" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="I275" s="1" t="s">
         <v>797</v>
@@ -11734,7 +11749,7 @@
         <v>786</v>
       </c>
       <c r="H276" s="1" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="I276" s="1" t="s">
         <v>801</v>
@@ -11801,7 +11816,7 @@
         <v>786</v>
       </c>
       <c r="H278" s="1" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="I278" s="1" t="s">
         <v>816</v>
@@ -11836,7 +11851,7 @@
         <v>786</v>
       </c>
       <c r="H279" s="1" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="I279" s="1" t="s">
         <v>817</v>
@@ -11871,7 +11886,7 @@
         <v>786</v>
       </c>
       <c r="H280" s="1" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="I280" s="1" t="s">
         <v>827</v>
@@ -11885,7 +11900,7 @@
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A281" s="1" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>25</v>
@@ -11938,7 +11953,7 @@
         <v>826</v>
       </c>
       <c r="H282" s="1" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="I282" s="1" t="s">
         <v>833</v>
@@ -11973,7 +11988,7 @@
         <v>786</v>
       </c>
       <c r="H283" s="1" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="I283" s="1" t="s">
         <v>836</v>
@@ -12008,7 +12023,7 @@
         <v>786</v>
       </c>
       <c r="H284" s="1" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="I284" s="1" t="s">
         <v>849</v>
@@ -12043,7 +12058,7 @@
         <v>786</v>
       </c>
       <c r="H285" s="1" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="I285" s="1" t="s">
         <v>850</v>
@@ -12078,7 +12093,7 @@
         <v>786</v>
       </c>
       <c r="H286" s="1" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="I286" s="1" t="s">
         <v>851</v>
@@ -12113,7 +12128,7 @@
         <v>786</v>
       </c>
       <c r="H287" s="1" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="I287" s="1" t="s">
         <v>852</v>
@@ -12148,7 +12163,7 @@
         <v>15</v>
       </c>
       <c r="H288" s="1" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="I288" s="1" t="s">
         <v>900</v>
@@ -12183,7 +12198,7 @@
         <v>15</v>
       </c>
       <c r="H289" s="1" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="I289" s="1" t="s">
         <v>901</v>
@@ -12218,7 +12233,7 @@
         <v>15</v>
       </c>
       <c r="H290" s="1" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="I290" s="1" t="s">
         <v>902</v>
@@ -12253,7 +12268,7 @@
         <v>15</v>
       </c>
       <c r="H291" s="1" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="I291" s="1" t="s">
         <v>903</v>
@@ -12288,7 +12303,7 @@
         <v>15</v>
       </c>
       <c r="H292" s="1" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="I292" s="1" t="s">
         <v>904</v>
@@ -12323,7 +12338,7 @@
         <v>15</v>
       </c>
       <c r="H293" s="1" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="I293" s="1" t="s">
         <v>905</v>
@@ -12358,7 +12373,7 @@
         <v>15</v>
       </c>
       <c r="H294" s="1" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="I294" s="1" t="s">
         <v>906</v>
@@ -12393,7 +12408,7 @@
         <v>15</v>
       </c>
       <c r="H295" s="1" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="I295" s="1" t="s">
         <v>907</v>
@@ -12428,7 +12443,7 @@
         <v>15</v>
       </c>
       <c r="H296" s="1" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="I296" s="1" t="s">
         <v>908</v>
@@ -12463,7 +12478,7 @@
         <v>15</v>
       </c>
       <c r="H297" s="1" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="I297" s="1" t="s">
         <v>909</v>
@@ -12498,7 +12513,7 @@
         <v>15</v>
       </c>
       <c r="H298" s="1" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="I298" s="1" t="s">
         <v>910</v>
@@ -12533,7 +12548,7 @@
         <v>15</v>
       </c>
       <c r="H299" s="1" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="I299" s="1" t="s">
         <v>911</v>
@@ -12568,7 +12583,7 @@
         <v>15</v>
       </c>
       <c r="H300" s="1" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="I300" s="1" t="s">
         <v>912</v>
@@ -12603,7 +12618,7 @@
         <v>15</v>
       </c>
       <c r="H301" s="1" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="I301" s="1" t="s">
         <v>913</v>
@@ -12638,7 +12653,7 @@
         <v>15</v>
       </c>
       <c r="H302" s="1" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="I302" s="1" t="s">
         <v>914</v>
@@ -12673,7 +12688,7 @@
         <v>15</v>
       </c>
       <c r="H303" s="1" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="I303" s="1" t="s">
         <v>915</v>
@@ -12708,7 +12723,7 @@
         <v>15</v>
       </c>
       <c r="H304" s="1" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="I304" s="1" t="s">
         <v>916</v>
@@ -12743,7 +12758,7 @@
         <v>15</v>
       </c>
       <c r="H305" s="1" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="I305" s="1" t="s">
         <v>917</v>
@@ -12778,7 +12793,7 @@
         <v>15</v>
       </c>
       <c r="H306" s="1" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="I306" s="1" t="s">
         <v>920</v>
@@ -12813,7 +12828,7 @@
         <v>15</v>
       </c>
       <c r="H307" s="1" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="I307" s="1" t="s">
         <v>922</v>
@@ -12874,7 +12889,7 @@
         <v>15</v>
       </c>
       <c r="H309" s="1" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="I309" s="1" t="s">
         <v>928</v>
@@ -12909,7 +12924,7 @@
         <v>15</v>
       </c>
       <c r="H310" s="1" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="I310" s="1" t="s">
         <v>930</v>
@@ -12938,7 +12953,7 @@
         <v>14</v>
       </c>
       <c r="H311" s="1" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="I311" s="1" t="s">
         <v>941</v>
@@ -12967,7 +12982,7 @@
         <v>14</v>
       </c>
       <c r="H312" s="1" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="I312" s="1" t="s">
         <v>943</v>
@@ -12996,7 +13011,7 @@
         <v>14</v>
       </c>
       <c r="H313" s="1" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="I313" s="1" t="s">
         <v>946</v>
@@ -13025,7 +13040,7 @@
         <v>14</v>
       </c>
       <c r="H314" s="1" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="I314" s="1" t="s">
         <v>949</v>
@@ -13039,7 +13054,7 @@
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A315" s="1" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>25</v>
@@ -13080,7 +13095,7 @@
         <v>955</v>
       </c>
       <c r="H316" s="1" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="I316" s="1" t="s">
         <v>974</v>
@@ -13094,7 +13109,7 @@
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A317" s="1" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="B317" s="1" t="s">
         <v>25</v>
@@ -13135,7 +13150,7 @@
         <v>959</v>
       </c>
       <c r="H318" s="1" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="I318" s="1" t="s">
         <v>962</v>
@@ -13164,7 +13179,7 @@
         <v>959</v>
       </c>
       <c r="H319" s="1" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="I319" s="1" t="s">
         <v>965</v>
@@ -13193,7 +13208,7 @@
         <v>14</v>
       </c>
       <c r="H320" s="1" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="I320" s="1" t="s">
         <v>977</v>
@@ -13225,7 +13240,7 @@
         <v>15</v>
       </c>
       <c r="H321" s="1" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="I321" s="1" t="s">
         <v>985</v>
@@ -13257,7 +13272,7 @@
         <v>15</v>
       </c>
       <c r="H322" s="1" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="I322" s="1" t="s">
         <v>988</v>
@@ -13484,16 +13499,16 @@
         <v>25</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>951</v>
+        <v>1040</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>952</v>
+        <v>981</v>
       </c>
       <c r="I332" s="1" t="s">
-        <v>1022</v>
+        <v>1041</v>
       </c>
       <c r="J332" s="1" t="s">
-        <v>953</v>
+        <v>1042</v>
       </c>
       <c r="K332" s="1" t="s">
         <v>29</v>
@@ -13507,18 +13522,41 @@
         <v>25</v>
       </c>
       <c r="C333" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="D333" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="I333" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="J333" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="K333" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="334" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A334" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C334" s="1" t="s">
         <v>1020</v>
       </c>
-      <c r="D333" s="1" t="s">
+      <c r="D334" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="I333" s="1" t="s">
-        <v>1023</v>
-      </c>
-      <c r="J333" s="1" t="s">
-        <v>1024</v>
-      </c>
-      <c r="K333" s="1" t="s">
+      <c r="I334" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="J334" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="K334" s="1" t="s">
         <v>29</v>
       </c>
     </row>

--- a/src/test/resources/io.dingodb.test/testdata/cases/negative/sql_negative_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/cases/negative/sql_negative_cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2881" uniqueCount="1043">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3951" uniqueCount="1351">
   <si>
     <t>TestID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3869,6 +3869,1128 @@
   </si>
   <si>
     <t>Error: Invalid default value for 'name'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_334</t>
+  </si>
+  <si>
+    <t>ComplexDataType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array3</t>
+  </si>
+  <si>
+    <t>array1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_336</t>
+  </si>
+  <si>
+    <t>negative_337</t>
+  </si>
+  <si>
+    <t>negative_338</t>
+  </si>
+  <si>
+    <t>negative_339</t>
+  </si>
+  <si>
+    <t>negative_340</t>
+  </si>
+  <si>
+    <t>negative_341</t>
+  </si>
+  <si>
+    <t>negative_342</t>
+  </si>
+  <si>
+    <t>negative_343</t>
+  </si>
+  <si>
+    <t>negative_344</t>
+  </si>
+  <si>
+    <t>negative_345</t>
+  </si>
+  <si>
+    <t>negative_346</t>
+  </si>
+  <si>
+    <t>negative_347</t>
+  </si>
+  <si>
+    <t>negative_348</t>
+  </si>
+  <si>
+    <t>insert into $array3 values(334,'zhangsan',18,23.5,array['test1','test2',null])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_335</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error: Null values are not allowed in "LIST". (state=90001,code=90001)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parameters must be of the same type (state=90001,code=90001)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array8</t>
+  </si>
+  <si>
+    <t>array9</t>
+  </si>
+  <si>
+    <t>negative_340</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array1 values(335,'zhangsan',18,23.5,array[3002,'a'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array1 values(336,'zhangsan',18,23.5,array[3003,'2022-08-30'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array1 values(337,'zhangsan',18,23.5,array[3004,'10:33:32'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array1 values(338,'zhangsan',18,23.5,array[3005,'2021-08-31 10:33:32'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array1 values(339,'zhangsan',18,23.5,array[3006,true])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array7 values(340,'zhangsan',18,23.5,array['2022-08-18',20220818])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array7 values(341,'zhangsan',18,23.5,array['2022-08-18',11.17])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array7 values(342,'zhangsan',18,23.5,array['2022-08-18',true])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_349</t>
+  </si>
+  <si>
+    <t>negative_350</t>
+  </si>
+  <si>
+    <t>negative_351</t>
+  </si>
+  <si>
+    <t>negative_352</t>
+  </si>
+  <si>
+    <t>negative_353</t>
+  </si>
+  <si>
+    <t>negative_354</t>
+  </si>
+  <si>
+    <t>negative_355</t>
+  </si>
+  <si>
+    <t>negative_356</t>
+  </si>
+  <si>
+    <t>negative_357</t>
+  </si>
+  <si>
+    <t>negative_358</t>
+  </si>
+  <si>
+    <t>negative_359</t>
+  </si>
+  <si>
+    <t>negative_360</t>
+  </si>
+  <si>
+    <t>negative_361</t>
+  </si>
+  <si>
+    <t>insert into $array8 values(343,'zhangsan',18,23.5,array['11:20:30',22])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_343</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array8 values(344,'zhangsan',18,23.5,array['11:20:30',180910])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array8 values(345,'zhangsan',18,23.5,array['11:20:30',11.17])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array8 values(346,'zhangsan',18,23.5,array['11:20:30',true])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array9 values(347,'zhangsan',18,23.5,array['2022-08-18 11:20:30',2022])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_347</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array9 values(348,'zhangsan',18,23.5,array['2022-08-18 11:20:30',19970101101015])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array9 values(349,'zhangsan',18,23.5,array['2022-08-18 11:20:30',11.17])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array9 values(350,'zhangsan',18,23.5,array['2022-08-18 11:20:30',true])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_351</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array3 values(351,'zhangsan',18,23.5,array['male','BJ',18])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array3 values(352,'zhangsan',18,23.5,array['male','BJ',23.45])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array3 values(353,'zhangsan',18,23.5,array['male','BJ',false])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_354</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array5 values(354,'zhangsan',18,23.5,array[30.02,'a'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array5 values(355,'zhangsan',18,23.5,array[30.03,'2022-08-30'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array5 values(356,'zhangsan',18,23.5,array[30.04,'10:33:32'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array5 values(357,'zhangsan',18,23.5,array[30.05,'2021-08-31 10:33:32'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array5 values(358,'zhangsan',18,23.5,array[30.06,true])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_362</t>
+  </si>
+  <si>
+    <t>negative_363</t>
+  </si>
+  <si>
+    <t>negative_364</t>
+  </si>
+  <si>
+    <t>negative_365</t>
+  </si>
+  <si>
+    <t>negative_366</t>
+  </si>
+  <si>
+    <t>negative_367</t>
+  </si>
+  <si>
+    <t>negative_368</t>
+  </si>
+  <si>
+    <t>negative_369</t>
+  </si>
+  <si>
+    <t>negative_370</t>
+  </si>
+  <si>
+    <t>negative_371</t>
+  </si>
+  <si>
+    <t>negative_372</t>
+  </si>
+  <si>
+    <t>negative_373</t>
+  </si>
+  <si>
+    <t>negative_374</t>
+  </si>
+  <si>
+    <t>array10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_359</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array10 values(359,'zhangsan',18,23.5,array[true,1])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array10 values(360,'zhangsan',18,23.5,array[false,'a'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array10 values(361,'zhangsan',18,23.5,array[true,'2022-08-30'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array10 values(362,'zhangsan',18,23.5,array[false,'10:33:32'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array10 values(363,'zhangsan',18,23.5,array[true,'2021-08-31 10:33:32'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array10 values(364,'zhangsan',18,23.5,array[false,2.5])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array10 values(365,'zhangsan',18,23.5,array[false,0])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间日期类型数组元素的时间日期无效，插入失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组元素类型不一致，插入失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入Array类型数组元素Null值失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array7 values(366,'zhangsan',18,23.5,array['2022'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannot parse date string "2022", supported formats are xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array7 values(367,'zhangsan',18,23.5,array['2022-08'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannot parse date string "2022-08", supported formats are xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array7 values(368,'zhangsan',18,23.5,array['2022year'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannot parse date string "2022year", supported formats are xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array7 values(369,'zhangsan',18,23.5,array['20:08:22'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannot parse date string "20:08:22", supported formats are xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array7 values(370,'zhangsan',18,23.5,array['2019-12-11 10:10:10'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannot parse date string "2019-12-11 10:10:10", supported formats are xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array7 values(371,'zhangsan',18,23.5,array['20191211101010'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannot parse date string "20191211101010", supported formats are xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array7 values(374,'zhangsan',18,23.5,array['2022-02-29'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array7 values(372,'zhangsan',18,23.5,array['1969-13-01'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannot parse date string "1969-13-01", supported formats are xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array7 values(373,'zhangsan',18,23.5,array['2022-04-31'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannot parse date string "2022-04-31", supported formats are xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannot parse date string "2022-02-29", supported formats are xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_375</t>
+  </si>
+  <si>
+    <t>negative_376</t>
+  </si>
+  <si>
+    <t>negative_377</t>
+  </si>
+  <si>
+    <t>negative_378</t>
+  </si>
+  <si>
+    <t>negative_379</t>
+  </si>
+  <si>
+    <t>negative_380</t>
+  </si>
+  <si>
+    <t>negative_381</t>
+  </si>
+  <si>
+    <t>negative_382</t>
+  </si>
+  <si>
+    <t>negative_383</t>
+  </si>
+  <si>
+    <t>negative_384</t>
+  </si>
+  <si>
+    <t>negative_385</t>
+  </si>
+  <si>
+    <t>negative_386</t>
+  </si>
+  <si>
+    <t>negative_387</t>
+  </si>
+  <si>
+    <t>array8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array8 values(375,'zhangsan',18,23.5,array['20'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannot parse time string "20", supported formats are xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array8 values(376,'zhangsan',18,23.5,array['14:40'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannot parse time string "14:40", supported formats are xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array8 values(377,'zhangsan',18,23.5,array['2022-08-18'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannot parse time string "2022-08-18", supported formats are xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array8 values(378,'zhangsan',18,23.5,array['20.08.22'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannot parse time string "20.08.22", supported formats are xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array8 values(379,'zhangsan',18,23.5,array['2019-12-11 10:10:10'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannot parse time string "2019-12-11 10:10:10", supported formats are xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array8 values(380,'zhangsan',18,23.5,array['PM 19:00:00'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannot parse time string "PM 19:00:00", supported formats are xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array8 values(381,'zhangsan',18,23.5,array['24:00:00'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannot parse time string "24:00:00", supported formats are xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array8 values(382,'zhangsan',18,23.5,array['14:40:60'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannot parse time string "14:40:60", supported formats are xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array8 values(383,'zhangsan',18,23.5,array['01:60:01'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannot parse time string "01:60:01", supported formats are xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_388</t>
+  </si>
+  <si>
+    <t>negative_389</t>
+  </si>
+  <si>
+    <t>negative_390</t>
+  </si>
+  <si>
+    <t>negative_391</t>
+  </si>
+  <si>
+    <t>negative_392</t>
+  </si>
+  <si>
+    <t>negative_393</t>
+  </si>
+  <si>
+    <t>negative_394</t>
+  </si>
+  <si>
+    <t>negative_395</t>
+  </si>
+  <si>
+    <t>negative_396</t>
+  </si>
+  <si>
+    <t>negative_397</t>
+  </si>
+  <si>
+    <t>negative_398</t>
+  </si>
+  <si>
+    <t>negative_399</t>
+  </si>
+  <si>
+    <t>negative_400</t>
+  </si>
+  <si>
+    <t>insert into $array9 values(384,'zhangsan',18,23.5,array['2022'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannot parse timestamp string "2022", supported formats are xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array9 values(385,'zhangsan',18,23.5,array['2022-08-18'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannot parse timestamp string "2022-08-18", supported formats are xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array9 values(386,'zhangsan',18,23.5,array['2022year'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannot parse timestamp string "2022year", supported formats are xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array9 values(387,'zhangsan',18,23.5,array['20:08:22'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannot parse timestamp string "20:08:22", supported formats are xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array9 values(388,'zhangsan',18,23.5,array['2019.12.11 10.10.10'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannot parse timestamp string "2019.12.11 10.10.10", supported formats are xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array9 values(389,'zhangsan',18,23.5,array['2019-12-11 101010'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannot parse timestamp string "2019-12-11 101010", supported formats are xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array9 values(390,'zhangsan',18,23.5,array['2019-12-11T10:10:10'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannot parse timestamp string "2019-12-11T10:10:10", supported formats are xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array9 values(391,'zhangsan',18,23.5,array['22-03-11 14:20:33'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannot parse timestamp string "22-03-11 14:20:33", supported formats are xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array9 values(392,'zhangsan',18,23.5,array['2021-13-01 01:02:03'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannot parse timestamp string "2021-13-01 01:02:03", supported formats are xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array9 values(393,'zhangsan',18,23.5,array['2022-08-32 10:10:10'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannot parse timestamp string "2022-08-32 10:10:10", supported formats are xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array9 values(394,'zhangsan',18,23.5,array['1997-07-12 24:00:00'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannot parse timestamp string "1997-07-12 24:00:00", supported formats are xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array9 values(395,'zhangsan',18,23.5,array['2011-11-11 11:60:30'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannot parse timestamp string "2011-11-11 11:60:30", supported formats are xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannot parse timestamp string "2019-12-11 10:10:60", supported formats are xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_401</t>
+  </si>
+  <si>
+    <t>negative_402</t>
+  </si>
+  <si>
+    <t>negative_403</t>
+  </si>
+  <si>
+    <t>negative_404</t>
+  </si>
+  <si>
+    <t>negative_405</t>
+  </si>
+  <si>
+    <t>negative_406</t>
+  </si>
+  <si>
+    <t>negative_407</t>
+  </si>
+  <si>
+    <t>negative_408</t>
+  </si>
+  <si>
+    <t>negative_409</t>
+  </si>
+  <si>
+    <t>negative_410</t>
+  </si>
+  <si>
+    <t>negative_411</t>
+  </si>
+  <si>
+    <t>negative_412</t>
+  </si>
+  <si>
+    <t>negative_413</t>
+  </si>
+  <si>
+    <t>negative_414</t>
+  </si>
+  <si>
+    <t>negative_415</t>
+  </si>
+  <si>
+    <t>negative_416</t>
+  </si>
+  <si>
+    <t>negative_417</t>
+  </si>
+  <si>
+    <t>negative_418</t>
+  </si>
+  <si>
+    <t>negative_419</t>
+  </si>
+  <si>
+    <t>negative_420</t>
+  </si>
+  <si>
+    <t>negative_421</t>
+  </si>
+  <si>
+    <t>negative_422</t>
+  </si>
+  <si>
+    <t>negative_423</t>
+  </si>
+  <si>
+    <t>negative_424</t>
+  </si>
+  <si>
+    <t>negative_425</t>
+  </si>
+  <si>
+    <t>negative_426</t>
+  </si>
+  <si>
+    <t>negative_427</t>
+  </si>
+  <si>
+    <t>negative_428</t>
+  </si>
+  <si>
+    <t>negative_429</t>
+  </si>
+  <si>
+    <t>negative_430</t>
+  </si>
+  <si>
+    <t>negative_431</t>
+  </si>
+  <si>
+    <t>negative_432</t>
+  </si>
+  <si>
+    <t>negative_433</t>
+  </si>
+  <si>
+    <t>negative_434</t>
+  </si>
+  <si>
+    <t>negative_435</t>
+  </si>
+  <si>
+    <t>插入单一元素和数组类型不符，插入失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array9 values(396,'zhangsan',18,23.5,array['2019-12-11 10:10:60'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array1 values(397,'zhangsan',18,23.5,array['a'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error: For input string: "a" (state=53004,code=53004)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array1 values(398,'zhangsan',18,23.5,array['2022-08-18'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error: For input string: "2022-08-18" (state=53004,code=53005)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array1 values(399,'zhangsan',18,23.5,array['04:55:30'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error: For input string: "04:55:30" (state=53004,code=53006)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array1 values(400,'zhangsan',18,23.5,array['2021-08-24 09:57:29'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error: For input string: "2021-08-24 09:57:29" (state=53004,code=53007)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array5 values(401,'zhangsan',18,23.5,array['a'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array5 values(402,'zhangsan',18,23.5,array['2022-08-18'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array5 values(403,'zhangsan',18,23.5,array['04:55:30'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array5 values(404,'zhangsan',18,23.5,array['2021-08-24 09:57:29'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error: Cannot find evaluator in "BooleanCastEvaluatorsFactory" of parameter types (STRING). (state=90001,code=90001)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array10 values(405,'zhangsan',18,23.5,array['a'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array10 values(406,'zhangsan',18,23.5,array[1.0])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array10 values(407,'zhangsan',18,23.5,array[2.5])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error: Cannot find evaluator in "BooleanCastEvaluatorsFactory" of parameter types (DECIMAL). (state=90001,code=90001)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array10 values(408,'zhangsan',18,23.5,array['1'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array10 values(409,'zhangsan',18,23.5,array['0'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array10 values(410,'zhangsan',18,23.5,array['2022-08-18'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array10 values(411,'zhangsan',18,23.5,array['04:55:30'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array10 values(412,'zhangsan',18,23.5,array['2021-08-24 09:57:29'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array7 values(413,'zhangsan',18,23.5,array[19980920])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array7 values(414,'zhangsan',18,23.5,array[123.5])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array7 values(415,'zhangsan',18,23.5,array[true])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannot assign to target field 'RUN_INTER' of type DATE ARRAY from source field 'EXPR$4' of type INTEGER ARRAY (state=90001,code=90001)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannot assign to target field 'RUN_INTER' of type DATE ARRAY from source field 'EXPR$4' of type DECIMAL(4, 1) ARRAY (state=90001,code=90001)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannot assign to target field 'RUN_INTER' of type DATE ARRAY from source field 'EXPR$4' of type BOOLEAN ARRAY (state=90001,code=90001)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array8 values(417,'zhangsan',18,23.5,array[123.5])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array8 values(418,'zhangsan',18,23.5,array[true])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array8 values(416,'zhangsan',18,23.5,array[101010])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannot assign to target field 'TEST_TIME' of type TIME(0) ARRAY from source field 'EXPR$4' of type INTEGER ARRAY (state=90001,code=90001)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannot assign to target field 'TEST_TIME' of type TIME(0) ARRAY from source field 'EXPR$4' of type DECIMAL(4, 1) ARRAY (state=90001,code=90001)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannot assign to target field 'TEST_TIME' of type TIME(0) ARRAY from source field 'EXPR$4' of type BOOLEAN ARRAY (state=90001,code=90001)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannot assign to target field 'SEND_TIME' of type TIMESTAMP(0) ARRAY from source field 'EXPR$4' of type BOOLEAN ARRAY (state=90001,code=90001)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array9 values(419,'zhangsan',18,23.5,array[true])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入数组为空，插入失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array1 values(420,'zhangsan',18,23.5,array[])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array3 values(421,'zhangsan',18,23.5,array[])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array5 values(422,'zhangsan',18,23.5,array[])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array7 values(423,'zhangsan',18,23.5,array[])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array8 values(424,'zhangsan',18,23.5,array[])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array9 values(425,'zhangsan',18,23.5,array[])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Require at least 1 argument (state=90001,code=90001)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非字符型数组插入空字符串，插入失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array10 values(426,'zhangsan',18,23.5,array[''])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array1 values(427,'zhangsan',18,23.5,array[''])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array5 values(428,'zhangsan',18,23.5,array[''])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array7 values(429,'zhangsan',18,23.5,array[''])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array8 values(430,'zhangsan',18,23.5,array[''])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array9 values(431,'zhangsan',18,23.5,array[''])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array10 values(432,'zhangsan',18,23.5,array[''])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error: For input string: "" (state=53004,code=53004)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error: empty String (state=53004,code=53004)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error: Null values are not allowed in collection types. (state=90001,code=90001)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int型数组元素值超限，插入失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_436</t>
+  </si>
+  <si>
+    <t>negative_437</t>
+  </si>
+  <si>
+    <t>negative_438</t>
+  </si>
+  <si>
+    <t>negative_439</t>
+  </si>
+  <si>
+    <t>insert into $array1 values(433,'zhangsan',18,23.5,array[2147483648])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array1 values(435,'zhangsan',18,23.5,array[13897654321])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array1 values(436,'zhangsan',18,23.5,array[9223372036854775807])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error: Value 2147483648 exceeds limits of integers, which is from -2147483648 to 2147483647. (state=90001,code=90001)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array1 values(437,'zhangsan',18,23.5,array[-2147483649])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error: Value -2147483649 exceeds limits of integers, which is from -2147483648 to 2147483647. (state=90001,code=90001)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error: Value 9223372036854775807 exceeds limits of integers, which is from -2147483648 to 2147483647. (state=90001,code=90001)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error: Value 13897654321 exceeds limits of integers, which is from -2147483648 to 2147483647. (state=90001,code=90001)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array1 values(434,'zhangsan',18,23.5,array[2147483649])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error: Value 2147483649 exceeds limits of integers, which is from -2147483648 to 2147483647. (state=90001,code=90001)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigint型数组元素值超限，插入失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_438</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array2 values(438,'zhangsan',18,23.5,array[9223372036854775808])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Numeric literal '9223372036854775808' out of range (state=90001,code=90001)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Numeric literal '-9223372036854775809' out of range (state=90001,code=90001)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array2 values(439,'zhangsan',18,23.5,array[-9223372036854775809])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_440</t>
+  </si>
+  <si>
+    <t>验证array型字段不支持作为查询条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array18_value52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error: io.dingodb.expr.core.exception.FailGetEvaluator: Cannot find evaluator in "EqEvaluatorsFactory" of parameter types (LIST, LIST). (state=60000,code=60000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_441</t>
+  </si>
+  <si>
+    <t>array字段不允许为Null，插入数据不指定array字段，预期失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array21(id,name,age) values(1,'zhangsan',55)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error: From line 1, column 13 to line 1, column 19: Column 'USER_INFO' has no default value and does not allow NULLs (state=53003,code=53003)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $array18 where class_no=array[10, 200, 3000]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4227,10 +5349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K334"/>
+  <dimension ref="A1:K442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A309" workbookViewId="0">
-      <selection activeCell="J332" sqref="J332"/>
+    <sheetView tabSelected="1" topLeftCell="A415" workbookViewId="0">
+      <selection activeCell="G447" sqref="G447"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4240,10 +5362,10 @@
     <col min="3" max="3" width="41.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="24.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="58.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="88.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="24" style="1" customWidth="1"/>
     <col min="11" max="11" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
@@ -13557,6 +14679,3432 @@
         <v>1022</v>
       </c>
       <c r="K334" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="335" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A335" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D335" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E335" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F335" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="I335" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="J335" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="K335" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="336" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A336" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D336" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E336" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F336" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="I336" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="J336" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="K336" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="337" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A337" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D337" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E337" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F337" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H337" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="I337" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="J337" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="K337" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="338" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A338" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D338" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E338" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F338" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H338" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="I338" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="J338" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="K338" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="339" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A339" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D339" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E339" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F339" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H339" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="I339" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="J339" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="K339" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="340" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A340" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D340" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E340" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F340" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H340" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="I340" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="J340" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="K340" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A341" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D341" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E341" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F341" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="I341" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="J341" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="K341" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="342" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A342" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D342" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E342" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F342" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="H342" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I342" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="J342" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="K342" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="343" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A343" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D343" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E343" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F343" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="H343" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I343" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="J343" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="K343" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="344" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A344" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D344" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E344" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F344" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="I344" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="J344" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="K344" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="345" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A345" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D345" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E345" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F345" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H345" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="I345" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="J345" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="K345" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A346" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D346" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E346" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F346" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H346" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="I346" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="J346" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="K346" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="347" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A347" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E347" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F347" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H347" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="I347" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="J347" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="K347" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="348" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A348" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D348" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E348" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F348" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="I348" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="J348" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="K348" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="349" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A349" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D349" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E349" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F349" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H349" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="I349" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="J349" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="K349" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A350" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D350" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E350" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F350" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H350" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="I350" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="J350" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="K350" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="351" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A351" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D351" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E351" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F351" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H351" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="I351" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="J351" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="K351" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="352" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A352" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D352" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E352" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F352" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="I352" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="J352" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="K352" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="353" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A353" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D353" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E353" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F353" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="H353" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="I353" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="J353" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="K353" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="354" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A354" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D354" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E354" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F354" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="H354" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="I354" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="J354" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="K354" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A355" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D355" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E355" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F355" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="I355" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="J355" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="K355" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="356" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A356" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D356" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E356" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F356" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="H356" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="I356" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="J356" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="K356" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="357" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A357" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D357" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E357" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F357" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="H357" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="I357" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="J357" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="K357" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="358" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A358" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D358" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E358" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F358" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="H358" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="I358" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="J358" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="K358" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A359" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D359" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E359" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F359" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="H359" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="I359" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="J359" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="K359" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A360" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D360" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E360" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F360" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="I360" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="J360" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="K360" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A361" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D361" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E361" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F361" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="H361" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="I361" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="J361" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="K361" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A362" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D362" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E362" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F362" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="H362" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="I362" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="J362" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="K362" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A363" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D363" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E363" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F363" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="H363" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="I363" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="J363" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="K363" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="364" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A364" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D364" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E364" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F364" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="H364" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="I364" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="J364" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="K364" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A365" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D365" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E365" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F365" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="H365" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="I365" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="J365" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="K365" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="366" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A366" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D366" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E366" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F366" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="H366" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="I366" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="J366" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="K366" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A367" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D367" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E367" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F367" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="H367" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I367" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="J367" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="K367" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="368" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A368" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D368" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E368" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F368" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="H368" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I368" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="J368" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="K368" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A369" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D369" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E369" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F369" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="H369" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I369" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="J369" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="K369" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A370" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D370" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E370" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F370" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="H370" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I370" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="J370" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="K370" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="371" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A371" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D371" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E371" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F371" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="H371" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I371" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="J371" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="K371" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="372" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A372" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D372" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E372" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F372" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="H372" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I372" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="J372" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="K372" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="373" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A373" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D373" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E373" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F373" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="H373" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I373" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="J373" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="K373" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="374" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A374" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D374" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E374" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F374" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="H374" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I374" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="J374" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="K374" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="375" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A375" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D375" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E375" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F375" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="H375" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I375" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="J375" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="K375" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="376" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A376" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D376" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E376" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F376" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="H376" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="I376" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="J376" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="K376" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="377" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A377" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C377" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D377" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E377" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F377" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="H377" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="I377" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="J377" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="K377" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="378" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A378" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D378" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E378" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F378" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="H378" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="I378" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="J378" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="K378" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="379" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A379" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D379" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E379" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F379" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="H379" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="I379" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="J379" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="K379" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="380" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A380" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D380" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E380" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F380" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="H380" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="I380" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="J380" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="K380" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="381" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A381" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D381" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E381" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F381" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="H381" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="I381" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="J381" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="K381" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="382" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A382" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D382" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E382" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F382" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="H382" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="I382" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="J382" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="K382" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="383" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A383" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D383" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E383" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F383" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="H383" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="I383" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="J383" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="K383" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="384" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A384" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D384" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E384" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F384" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="H384" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="I384" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="J384" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="K384" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="385" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A385" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D385" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E385" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F385" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H385" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="I385" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="J385" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="K385" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="386" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A386" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D386" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E386" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F386" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H386" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="I386" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="J386" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="K386" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="387" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A387" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D387" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E387" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F387" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H387" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="I387" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J387" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="K387" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="388" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A388" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D388" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E388" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F388" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H388" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="I388" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="J388" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="K388" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="389" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A389" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D389" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E389" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F389" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H389" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="I389" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="J389" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="K389" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="390" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A390" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D390" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E390" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F390" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H390" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="I390" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="J390" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="K390" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="391" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A391" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D391" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E391" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F391" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H391" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="I391" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="J391" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="K391" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="392" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A392" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D392" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E392" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F392" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H392" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="I392" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="J392" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="K392" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="393" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A393" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D393" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E393" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F393" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H393" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="I393" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="J393" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="K393" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="394" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A394" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D394" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E394" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F394" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H394" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="I394" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="J394" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="K394" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="395" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A395" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D395" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E395" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F395" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H395" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="I395" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="J395" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="K395" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="396" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A396" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D396" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E396" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F396" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H396" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="I396" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="J396" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="K396" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="397" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A397" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D397" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E397" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F397" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H397" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="I397" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="J397" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="K397" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="398" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A398" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D398" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E398" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F398" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H398" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="I398" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="J398" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="K398" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="399" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A399" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D399" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E399" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F399" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H399" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="I399" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="J399" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="K399" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="400" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A400" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D400" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E400" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F400" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H400" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="I400" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="J400" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="K400" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="401" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A401" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D401" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E401" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F401" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H401" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="I401" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="J401" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="K401" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="402" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A402" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D402" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E402" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F402" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="H402" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="I402" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="J402" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="K402" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="403" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A403" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C403" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D403" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E403" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F403" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="H403" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="I403" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="J403" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="K403" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="404" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A404" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D404" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E404" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F404" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="H404" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="I404" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="J404" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="K404" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="405" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A405" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C405" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D405" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E405" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F405" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="H405" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="I405" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="J405" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="K405" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="406" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A406" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D406" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E406" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F406" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="H406" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="I406" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="J406" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="K406" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="407" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A407" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D407" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E407" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F407" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="H407" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="I407" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="J407" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="K407" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="408" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A408" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D408" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E408" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F408" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="H408" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="I408" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="J408" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="K408" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="409" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A409" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D409" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E409" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F409" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="H409" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="I409" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="J409" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="K409" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="410" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A410" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D410" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E410" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F410" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="H410" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="I410" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="J410" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="K410" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="411" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A411" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D411" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E411" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F411" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="H411" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="I411" s="1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="J411" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="K411" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="412" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A412" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D412" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E412" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F412" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="H412" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="I412" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="J412" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="K412" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="413" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A413" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D413" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E413" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F413" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="H413" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="I413" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="J413" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="K413" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="414" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A414" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D414" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E414" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F414" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="H414" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I414" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="J414" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="K414" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="415" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A415" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D415" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E415" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F415" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="H415" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I415" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="J415" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="K415" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="416" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A416" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D416" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E416" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F416" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="H416" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I416" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="J416" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="K416" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="417" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A417" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D417" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E417" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F417" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="H417" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="I417" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="J417" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="K417" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="418" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A418" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D418" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E418" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F418" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="H418" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="I418" s="1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="J418" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="K418" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="419" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A419" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D419" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E419" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F419" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="H419" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="I419" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="J419" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="K419" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="420" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A420" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D420" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E420" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F420" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H420" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="I420" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="J420" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="K420" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="421" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A421" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C421" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D421" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E421" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F421" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H421" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="I421" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="J421" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="K421" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="422" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A422" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D422" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E422" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F422" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="H422" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="I422" s="1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="J422" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="K422" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="423" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A423" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C423" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D423" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E423" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F423" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="H423" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="I423" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="J423" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="K423" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="424" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A424" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C424" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D424" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E424" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F424" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="H424" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I424" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="J424" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="K424" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="425" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A425" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C425" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D425" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E425" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F425" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="H425" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="I425" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="J425" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="K425" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="426" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A426" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C426" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D426" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E426" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F426" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H426" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="I426" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="J426" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="K426" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="427" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A427" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C427" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D427" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E427" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F427" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="H427" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="I427" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="J427" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="K427" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="428" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A428" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C428" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D428" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E428" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F428" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H428" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="I428" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="J428" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="K428" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="429" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A429" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C429" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D429" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E429" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F429" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="H429" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="I429" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="J429" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="K429" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="430" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A430" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C430" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D430" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E430" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F430" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="H430" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I430" s="1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="J430" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="K430" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="431" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A431" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C431" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D431" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E431" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F431" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="H431" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="I431" s="1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="J431" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="K431" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="432" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A432" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C432" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D432" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E432" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F432" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H432" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="I432" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="J432" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="K432" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="433" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A433" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C433" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D433" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E433" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F433" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="H433" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="I433" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="J433" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="K433" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="434" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A434" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C434" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D434" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E434" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F434" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H434" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="I434" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="J434" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="K434" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="435" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A435" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C435" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D435" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E435" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F435" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H435" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="I435" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="J435" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="K435" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="436" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A436" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C436" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D436" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E436" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F436" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H436" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="I436" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J436" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="K436" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="437" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A437" s="1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C437" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D437" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E437" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F437" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H437" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="I437" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J437" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="K437" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="438" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A438" s="1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C438" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D438" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E438" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F438" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H438" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="I438" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="J438" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="K438" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="439" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A439" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C439" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D439" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E439" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F439" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="I439" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="J439" s="1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="K439" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="440" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A440" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C440" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D440" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E440" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F440" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="H440" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="I440" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="J440" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="K440" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="441" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A441" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C441" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D441" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E441" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F441" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="G441" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="I441" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="J441" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="K441" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="442" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A442" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C442" s="1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D442" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E442" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F442" s="1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I442" s="1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="J442" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="K442" s="1" t="s">
         <v>29</v>
       </c>
     </row>

--- a/src/test/resources/io.dingodb.test/testdata/cases/negative/sql_negative_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/cases/negative/sql_negative_cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3951" uniqueCount="1351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5011" uniqueCount="1648">
   <si>
     <t>TestID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4992,6 +4992,1079 @@
   <si>
     <t>select * from $array18 where class_no=array[10, 200, 3000]</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_443</t>
+  </si>
+  <si>
+    <t>negative_444</t>
+  </si>
+  <si>
+    <t>negative_445</t>
+  </si>
+  <si>
+    <t>negative_446</t>
+  </si>
+  <si>
+    <t>negative_447</t>
+  </si>
+  <si>
+    <t>negative_448</t>
+  </si>
+  <si>
+    <t>Map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_442</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_442</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map字段插入不同类型混合键值，插入失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map字段插入键值为null，插入失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map字段插入空元素，插入失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $map1 values(443, 'lisi', 35, 0.96, map['address','tianjin','price',10.08])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $map1 values(444, 'zhangsan', 20, 34.56, map['in_use',true,'is_delete',0])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $map1 values(445, 'wangwu', 100, 1000.0, map[300,'dingo',301,'baidu.com','create_time','19:00:00'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $map1 values(446, 'Nike', 30, 1.1, map[true,1,'false',0])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $map1 values(447, 'lisi', 35, 0.96, map['address',null,'price',null])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $map1 values(448, 'LaLa', 27, 132.50, map[])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR 24465 (90001): Null values are not allowed in "MAP".</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR 24465 (90001): From line 1, column 51 to line 1, column 55: Map requires at least 2 arguments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR 24465 (90001): From line 1, column 50 to line 1, column 70: Parameters must be of the same type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR 24465 (90001): From line 1, column 56 to line 1, column 112: Parameters must be of the same type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR 24465 (90001): From line 1, column 56 to line 1, column 87: Parameters must be of the same type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR 24465 (90001): From line 1, column 51 to line 1, column 88: Parameters must be of the same type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $map1 values(442, 'zhangsan', 20, 34.56, map['address','beijing','class_no',1024])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR 24465 (90001): From line 1, column 56 to line 1, column 95: Parameters must be of the same type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_450</t>
+  </si>
+  <si>
+    <t>验证Map字段整型不支持范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map2</t>
+  </si>
+  <si>
+    <t>negative_449</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_449</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $map2 values(449, 'lolo', 66, 66.66, map['birthday',0], map['tno',9223372036854775808], map['price',-9])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR 24465 (90001): From line 1, column 82 to line 1, column 100: Numeric literal '9223372036854775808' out of range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $map2 values(450, 'lolo', 66, 66.66, map['birthday',0], map['tno',9], map['price',-9223372036854775809])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR 24465 (90001): From line 1, column 98 to line 1, column 117: Numeric literal '-9223372036854775809' out of range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_451</t>
+  </si>
+  <si>
+    <t>map类型不允许为null，插入数据不指定map字段，插入失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $map6(id,name,age,amount) values(1, 'zhangsan', 55, 22.33)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR 53003 (53003): From line 1, column 13 to line 1, column 16: Column 'USER_INFO' has no default value and does not allow NULLs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_454</t>
+  </si>
+  <si>
+    <t>negative_455</t>
+  </si>
+  <si>
+    <t>negative_456</t>
+  </si>
+  <si>
+    <t>negative_457</t>
+  </si>
+  <si>
+    <t>negative_458</t>
+  </si>
+  <si>
+    <t>negative_459</t>
+  </si>
+  <si>
+    <t>negative_461</t>
+  </si>
+  <si>
+    <t>negative_462</t>
+  </si>
+  <si>
+    <t>negative_463</t>
+  </si>
+  <si>
+    <t>negative_464</t>
+  </si>
+  <si>
+    <t>negative_465</t>
+  </si>
+  <si>
+    <t>negative_466</t>
+  </si>
+  <si>
+    <t>negative_468</t>
+  </si>
+  <si>
+    <t>negative_469</t>
+  </si>
+  <si>
+    <t>negative_470</t>
+  </si>
+  <si>
+    <t>negative_471</t>
+  </si>
+  <si>
+    <t>negative_472</t>
+  </si>
+  <si>
+    <t>negative_473</t>
+  </si>
+  <si>
+    <t>negative_474</t>
+  </si>
+  <si>
+    <t>negative_475</t>
+  </si>
+  <si>
+    <t>negative_476</t>
+  </si>
+  <si>
+    <t>negative_477</t>
+  </si>
+  <si>
+    <t>negative_478</t>
+  </si>
+  <si>
+    <t>negative_480</t>
+  </si>
+  <si>
+    <t>negative_481</t>
+  </si>
+  <si>
+    <t>negative_482</t>
+  </si>
+  <si>
+    <t>negative_483</t>
+  </si>
+  <si>
+    <t>negative_484</t>
+  </si>
+  <si>
+    <t>negative_485</t>
+  </si>
+  <si>
+    <t>negative_486</t>
+  </si>
+  <si>
+    <t>negative_487</t>
+  </si>
+  <si>
+    <t>negative_488</t>
+  </si>
+  <si>
+    <t>negative_489</t>
+  </si>
+  <si>
+    <t>negative_490</t>
+  </si>
+  <si>
+    <t>negative_491</t>
+  </si>
+  <si>
+    <t>negative_493</t>
+  </si>
+  <si>
+    <t>negative_494</t>
+  </si>
+  <si>
+    <t>negative_495</t>
+  </si>
+  <si>
+    <t>negative_496</t>
+  </si>
+  <si>
+    <t>negative_497</t>
+  </si>
+  <si>
+    <t>negative_498</t>
+  </si>
+  <si>
+    <t>negative_499</t>
+  </si>
+  <si>
+    <t>Multiset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入multiset元素为null，插入失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multiset1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multiset3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset1 values(452,'zhangsan',18,23.5,[101,102,null])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_452</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset3 values(453,'zhangsan',18,23.5,['test1',null])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset1 values(454,'zhangsan',18,23.5,[4002,'a'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset1 values(455,'zhangsan',18,23.5,[4003,'2022-08-30'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset1 values(456,'zhangsan',18,23.5,[4004,'10:33:32'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset1 values(457,'zhangsan',18,23.5,[4005,'2021-08-31 10:33:32'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset1 values(458,'zhangsan',18,23.5,[4006,true])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multiset5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_460</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_459</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset5 values(459,'zhangsan',18,23.5,[4007.22,'a'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset5 values(460,'zhangsan',18,23.5,[4008.33,'2022-08-30'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset5 values(461,'zhangsan',18,23.5,[4009.9,'10:33:32'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset5 values(462,'zhangsan',18,23.5,[4010.0,'2021-08-31 10:33:32'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset5 values(463,'zhangsan',18,23.5,[4011.111,true])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_453</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset3 values(464,'zhangsan',18,23.5,['male','BJ',18])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset3 values(465,'zhangsan',18,23.5,['beijing',1234.5])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset3 values(466,'zhangsan',18,23.5,['male',true])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multiset7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multiset8</t>
+  </si>
+  <si>
+    <t>multiset9</t>
+  </si>
+  <si>
+    <t>multiset10</t>
+  </si>
+  <si>
+    <t>negative_467</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_467</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset7 values(467,'zhangsan',18,23.5,['2022-08-18',2022])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset7 values(468,'zhangsan',18,23.5,['2022-08-18',1234.5])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset7 values(469,'zhangsan',18,23.5,['2022-08-18',true])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset7 values(470,'zhangsan',18,23.5,['2022'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date类型multiset元素日期格式无效，插入失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset7 values(471,'zhangsan',18,23.5,['2022-08'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset7 values(472,'zhangsan',18,23.5,['2022year'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset7 values(473,'zhangsan',18,23.5,['20:08:12'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset7 values(474,'zhangsan',18,23.5,['2019-12-11 10:10:10'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset7 values(475,'zhangsan',18,23.5,['20191211101010'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset7 values(476,'zhangsan',18,23.5,['1969-13-01'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset7 values(477,'zhangsan',18,23.5,['2022-04-31'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset7 values(478,'zhangsan',18,23.5,['2022-02-29'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_479</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_479</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset8 values(479,'zhangsan',18,23.5,['15:39:38',18])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset8 values(480,'zhangsan',18,23.5,['15:39:38',180910])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset8 values(481,'zhangsan',18,23.5,['15:39:38',1234.56])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset8 values(482,'zhangsan',18,23.5,['15:39:38',true])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset8 values(483,'zhangsan',18,23.5,['20'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset8 values(484,'zhangsan',18,23.5,['14:40'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset8 values(485,'zhangsan',18,23.5,['2022-08-18'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset8 values(486,'zhangsan',18,23.5,['20.08.12'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset8 values(487,'zhangsan',18,23.5,['2019-12-11 10:10:10'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset8 values(488,'zhangsan',18,23.5,['PM 19:00:00'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset8 values(489,'zhangsan',18,23.5,['24:00:00'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset8 values(490,'zhangsan',18,23.5,['14:40:60'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset8 values(491,'zhangsan',18,23.5,['01:60:01'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_500</t>
+  </si>
+  <si>
+    <t>negative_501</t>
+  </si>
+  <si>
+    <t>negative_502</t>
+  </si>
+  <si>
+    <t>negative_503</t>
+  </si>
+  <si>
+    <t>negative_504</t>
+  </si>
+  <si>
+    <t>negative_505</t>
+  </si>
+  <si>
+    <t>negative_506</t>
+  </si>
+  <si>
+    <t>negative_507</t>
+  </si>
+  <si>
+    <t>negative_492</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_492</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date类型multiset元素date和其他元素混合，插入失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time类型multiset元素time和其他元素混合，插入失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time类型multiset元素日期格式无效，插入失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timestamp类型multiset元素timestamp和其他元素混合，插入失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timestamp类型multiset元素日期格式无效，插入失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset9 values(492,'zhangsan',18,23.5,['2022-08-18 15:39:38',22])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset9 values(493,'zhangsan',18,23.5,['2022-08-18 15:39:38',19970101101015])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset9 values(494,'zhangsan',18,23.5,['2022-08-18 15:39:38',234.56])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset9 values(495,'zhangsan',18,23.5,['2022-08-18 15:39:38',true])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset9 values(496,'zhangsan',18,23.5,['2022'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset9 values(497,'zhangsan',18,23.5,['2022-08-18'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset9 values(498,'zhangsan',18,23.5,['2022year'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset9 values(499,'zhangsan',18,23.5,['20:08:12'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset9 values(500,'zhangsan',18,23.5,['2019.12.11 10.10.10'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset9 values(501,'zhangsan',18,23.5,['2019-12-11 101010'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset9 values(502,'zhangsan',18,23.5,['2019-12-11T12:15:10'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset9 values(503,'zhangsan',18,23.5,['22-03-11 14:20:33'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset9 values(504,'zhangsan',18,23.5,['2021-13-01 01:02:03'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset9 values(505,'zhangsan',18,23.5,['2022-08-32 10:10:10'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset9 values(506,'zhangsan',18,23.5,['1997-07-12 24:00:00'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset9 values(507,'zhangsan',18,23.5,['2011-11-11 11:60:30'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset9 values(508,'zhangsan',18,23.5,['2019-12-11 10:10:60'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_508</t>
+  </si>
+  <si>
+    <t>negative_510</t>
+  </si>
+  <si>
+    <t>negative_511</t>
+  </si>
+  <si>
+    <t>negative_512</t>
+  </si>
+  <si>
+    <t>negative_513</t>
+  </si>
+  <si>
+    <t>negative_514</t>
+  </si>
+  <si>
+    <t>negative_515</t>
+  </si>
+  <si>
+    <t>Boolean类型multiset元素boolean值和其他元素混合，插入失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int类型multiset元素int值和其他元素混合，插入失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Double类型multiset元素double值和其他元素混合，插入失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Varchar类型multiset元素varchar值和其他元素混合，插入失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_509</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset10 values(509,'zhangsan',18,23.5,[true,1])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset10 values(510,'zhangsan',18,23.5,[false,0])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset10 values(511,'zhangsan',18,23.5,[true,12.56])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset10 values(512,'zhangsan',18,23.5,[false,'a'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset10 values(513,'zhangsan',18,23.5,[true,'2022-10-05'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset10 values(514,'zhangsan',18,23.5,[false,'00:03:30'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset10 values(515,'zhangsan',18,23.5,[true,'2022-10-05 10:03:30'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_516</t>
+  </si>
+  <si>
+    <t>negative_517</t>
+  </si>
+  <si>
+    <t>negative_518</t>
+  </si>
+  <si>
+    <t>negative_519</t>
+  </si>
+  <si>
+    <t>negative_520</t>
+  </si>
+  <si>
+    <t>negative_521</t>
+  </si>
+  <si>
+    <t>negative_522</t>
+  </si>
+  <si>
+    <t>negative_523</t>
+  </si>
+  <si>
+    <t>negative_524</t>
+  </si>
+  <si>
+    <t>negative_525</t>
+  </si>
+  <si>
+    <t>negative_526</t>
+  </si>
+  <si>
+    <t>negative_527</t>
+  </si>
+  <si>
+    <t>Int类型multiset插入单一其他类型元素，插入失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset1 values(516,'zhangsan',18,23.5,['a'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset1 values(517,'zhangsan',18,23.5,['2022-10-11'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset1 values(518,'zhangsan',18,23.5,['12:12:00'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset1 values(519,'zhangsan',18,23.5,['2021-08-24 09:57:29'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Double类型multiset插入单一其他类型元素，插入失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset5 values(520,'zhangsan',18,23.5,['a'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset5 values(521,'zhangsan',18,23.5,['2022-08-18'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset5 values(522,'zhangsan',18,23.5,['04:55:30'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset5 values(523,'zhangsan',18,23.5,['2021-08-24 09:57:29'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_528</t>
+  </si>
+  <si>
+    <t>negative_529</t>
+  </si>
+  <si>
+    <t>negative_530</t>
+  </si>
+  <si>
+    <t>negative_531</t>
+  </si>
+  <si>
+    <t>Date类型multiset插入单一其他类型元素，插入失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset7 values(524,'zhangsan',18,23.5,[1])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset7 values(525,'zhangsan',18,23.5,[1.5])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset7 values(526,'zhangsan',18,23.5,[true])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time类型multiset插入单一其他类型元素，插入失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset8 values(527,'zhangsan',18,23.5,[1])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset8 values(528,'zhangsan',18,23.5,[1.5])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset8 values(529,'zhangsan',18,23.5,[true])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timestamp类型multiset插入单一其他类型元素，插入失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset9 values(530,'zhangsan',18,23.5,[1.5])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset9 values(531,'zhangsan',18,23.5,[true])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_532</t>
+  </si>
+  <si>
+    <t>negative_533</t>
+  </si>
+  <si>
+    <t>negative_534</t>
+  </si>
+  <si>
+    <t>negative_535</t>
+  </si>
+  <si>
+    <t>negative_536</t>
+  </si>
+  <si>
+    <t>negative_537</t>
+  </si>
+  <si>
+    <t>negative_538</t>
+  </si>
+  <si>
+    <t>negative_539</t>
+  </si>
+  <si>
+    <t>Boolean类型multiset插入单一其他类型元素，插入失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset10 values(532,'zhangsan',18,23.5,[1.0])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_540</t>
+  </si>
+  <si>
+    <t>negative_541</t>
+  </si>
+  <si>
+    <t>negative_542</t>
+  </si>
+  <si>
+    <t>negative_543</t>
+  </si>
+  <si>
+    <t>negative_544</t>
+  </si>
+  <si>
+    <t>negative_545</t>
+  </si>
+  <si>
+    <t>negative_546</t>
+  </si>
+  <si>
+    <t>Multiset类型字段插入空元素，插入失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_547</t>
+  </si>
+  <si>
+    <t>negative_548</t>
+  </si>
+  <si>
+    <t>negative_549</t>
+  </si>
+  <si>
+    <t>negative_550</t>
+  </si>
+  <si>
+    <t>negative_551</t>
+  </si>
+  <si>
+    <t>negative_552</t>
+  </si>
+  <si>
+    <t>Multiset类型字段插入空字符串元素，插入失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset1 values(540,'zhangsan',18,23.5,[])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset5 values(541,'zhangsan',18,23.5,[])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset10 values(533,'zhangsan',18,23.5,[2.5])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset10 values(534,'zhangsan',18,23.5,['1'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset10 values(535,'zhangsan',18,23.5,['0'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset10 values(536,'zhangsan',18,23.5,['a'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset10 values(537,'zhangsan',18,23.5,['2022-08-18'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset10 values(538,'zhangsan',18,23.5,['04:55:30'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset10 values(539,'zhangsan',18,23.5,['2021-08-24 09:57:29'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset3 values(542,'zhangsan',18,23.5,[])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset7 values(543,'zhangsan',18,23.5,[])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset8 values(544,'zhangsan',18,23.5,[])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset9 values(545,'zhangsan',18,23.5,[])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset10 values(546,'zhangsan',18,23.5,[])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset1 values(547,'zhangsan',18,23.5,[''])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset5 values(548,'zhangsan',18,23.5,[''])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset7 values(549,'zhangsan',18,23.5,[''])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset8 values(550,'zhangsan',18,23.5,[''])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset9 values(551,'zhangsan',18,23.5,[''])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset10 values(552,'zhangsan',18,23.5,[''])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_553</t>
+  </si>
+  <si>
+    <t>negative_554</t>
+  </si>
+  <si>
+    <t>negative_555</t>
+  </si>
+  <si>
+    <t>negative_557</t>
+  </si>
+  <si>
+    <t>Int类型multiset元素值超出范围，插入失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bigint类型multiset元素值超出范围，插入失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset1 values(553,'zhangsan',18,23.5,[2147483648])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset1 values(554,'zhangsan',18,23.5,[-2147483649])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset1 values(555,'zhangsan',18,23.5,[2147483649, 13897654321, 9223372036854775807])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multiset2</t>
+  </si>
+  <si>
+    <t>negative_556</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset2 values(556,'zhangsan',18,23.5,[9223372036854775808])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $multiset2 values(557,'zhangsan',18,23.5,[-9223372036854775809])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_558</t>
+  </si>
+  <si>
+    <t>验证multiset字段不支持作为条件查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multiset20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multiset20_value47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $multiset20 where class_no=multiset[10, 200, 3000]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multiset类型不允许为null，插入数据不指定multiset字段，插入失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_559</t>
+  </si>
+  <si>
+    <t>multiset21</t>
+  </si>
+  <si>
+    <t>insert into $multiest21(id,name,age,amount) values(559,'zhangsan',18,23.5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -5349,10 +6422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K442"/>
+  <dimension ref="A1:K560"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A415" workbookViewId="0">
-      <selection activeCell="G447" sqref="G447"/>
+    <sheetView tabSelected="1" topLeftCell="A390" workbookViewId="0">
+      <selection activeCell="C439" sqref="C439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5363,7 +6436,7 @@
     <col min="4" max="4" width="24.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.125" style="1" customWidth="1"/>
     <col min="9" max="9" width="88.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="24" style="1" customWidth="1"/>
@@ -14716,7 +15789,7 @@
         <v>1062</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C336" s="1" t="s">
         <v>1135</v>
@@ -14745,7 +15818,7 @@
         <v>1048</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C337" s="1" t="s">
         <v>1135</v>
@@ -14777,7 +15850,7 @@
         <v>1049</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C338" s="1" t="s">
         <v>1135</v>
@@ -14809,7 +15882,7 @@
         <v>1050</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C339" s="1" t="s">
         <v>1135</v>
@@ -14841,7 +15914,7 @@
         <v>1051</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>1135</v>
@@ -14873,7 +15946,7 @@
         <v>1052</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>1135</v>
@@ -14902,7 +15975,7 @@
         <v>1053</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C342" s="1" t="s">
         <v>1135</v>
@@ -14934,7 +16007,7 @@
         <v>1054</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C343" s="1" t="s">
         <v>1135</v>
@@ -14966,7 +16039,7 @@
         <v>1055</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C344" s="1" t="s">
         <v>1135</v>
@@ -14995,7 +16068,7 @@
         <v>1056</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>1135</v>
@@ -15027,7 +16100,7 @@
         <v>1057</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C346" s="1" t="s">
         <v>1135</v>
@@ -15059,7 +16132,7 @@
         <v>1058</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C347" s="1" t="s">
         <v>1135</v>
@@ -15091,7 +16164,7 @@
         <v>1059</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C348" s="1" t="s">
         <v>1135</v>
@@ -15120,7 +16193,7 @@
         <v>1060</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C349" s="1" t="s">
         <v>1135</v>
@@ -15152,7 +16225,7 @@
         <v>1077</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C350" s="1" t="s">
         <v>1135</v>
@@ -15184,7 +16257,7 @@
         <v>1078</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C351" s="1" t="s">
         <v>1135</v>
@@ -15216,7 +16289,7 @@
         <v>1079</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C352" s="1" t="s">
         <v>1135</v>
@@ -15245,7 +16318,7 @@
         <v>1080</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C353" s="1" t="s">
         <v>1135</v>
@@ -15277,7 +16350,7 @@
         <v>1081</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C354" s="1" t="s">
         <v>1135</v>
@@ -15309,7 +16382,7 @@
         <v>1082</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C355" s="1" t="s">
         <v>1135</v>
@@ -15338,7 +16411,7 @@
         <v>1083</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C356" s="1" t="s">
         <v>1135</v>
@@ -15370,7 +16443,7 @@
         <v>1084</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C357" s="1" t="s">
         <v>1135</v>
@@ -15402,7 +16475,7 @@
         <v>1085</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C358" s="1" t="s">
         <v>1135</v>
@@ -15434,7 +16507,7 @@
         <v>1086</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C359" s="1" t="s">
         <v>1135</v>
@@ -15466,7 +16539,7 @@
         <v>1087</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C360" s="1" t="s">
         <v>1135</v>
@@ -15495,7 +16568,7 @@
         <v>1088</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C361" s="1" t="s">
         <v>1135</v>
@@ -15527,7 +16600,7 @@
         <v>1089</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C362" s="1" t="s">
         <v>1135</v>
@@ -15559,7 +16632,7 @@
         <v>1112</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C363" s="1" t="s">
         <v>1135</v>
@@ -15591,7 +16664,7 @@
         <v>1113</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C364" s="1" t="s">
         <v>1135</v>
@@ -15623,7 +16696,7 @@
         <v>1114</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C365" s="1" t="s">
         <v>1135</v>
@@ -15655,7 +16728,7 @@
         <v>1115</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C366" s="1" t="s">
         <v>1135</v>
@@ -15687,7 +16760,7 @@
         <v>1116</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C367" s="1" t="s">
         <v>1134</v>
@@ -15719,7 +16792,7 @@
         <v>1117</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C368" s="1" t="s">
         <v>1134</v>
@@ -15751,7 +16824,7 @@
         <v>1118</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C369" s="1" t="s">
         <v>1134</v>
@@ -15783,7 +16856,7 @@
         <v>1119</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C370" s="1" t="s">
         <v>1134</v>
@@ -15815,7 +16888,7 @@
         <v>1120</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C371" s="1" t="s">
         <v>1134</v>
@@ -15847,7 +16920,7 @@
         <v>1121</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C372" s="1" t="s">
         <v>1134</v>
@@ -15879,7 +16952,7 @@
         <v>1122</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C373" s="1" t="s">
         <v>1134</v>
@@ -15911,7 +16984,7 @@
         <v>1123</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C374" s="1" t="s">
         <v>1134</v>
@@ -15943,7 +17016,7 @@
         <v>1124</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C375" s="1" t="s">
         <v>1134</v>
@@ -15975,7 +17048,7 @@
         <v>1155</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C376" s="1" t="s">
         <v>1134</v>
@@ -16007,7 +17080,7 @@
         <v>1156</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C377" s="1" t="s">
         <v>1134</v>
@@ -16039,7 +17112,7 @@
         <v>1157</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C378" s="1" t="s">
         <v>1134</v>
@@ -16071,7 +17144,7 @@
         <v>1158</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C379" s="1" t="s">
         <v>1134</v>
@@ -16103,7 +17176,7 @@
         <v>1159</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C380" s="1" t="s">
         <v>1134</v>
@@ -16135,7 +17208,7 @@
         <v>1160</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C381" s="1" t="s">
         <v>1134</v>
@@ -16167,7 +17240,7 @@
         <v>1161</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C382" s="1" t="s">
         <v>1134</v>
@@ -16199,7 +17272,7 @@
         <v>1162</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C383" s="1" t="s">
         <v>1134</v>
@@ -16231,7 +17304,7 @@
         <v>1163</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C384" s="1" t="s">
         <v>1134</v>
@@ -16263,7 +17336,7 @@
         <v>1164</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C385" s="1" t="s">
         <v>1134</v>
@@ -16295,7 +17368,7 @@
         <v>1165</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C386" s="1" t="s">
         <v>1134</v>
@@ -16327,7 +17400,7 @@
         <v>1166</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C387" s="1" t="s">
         <v>1134</v>
@@ -16359,7 +17432,7 @@
         <v>1167</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C388" s="1" t="s">
         <v>1134</v>
@@ -16391,7 +17464,7 @@
         <v>1187</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C389" s="1" t="s">
         <v>1134</v>
@@ -16423,7 +17496,7 @@
         <v>1188</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C390" s="1" t="s">
         <v>1134</v>
@@ -16455,7 +17528,7 @@
         <v>1189</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C391" s="1" t="s">
         <v>1134</v>
@@ -16487,7 +17560,7 @@
         <v>1190</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C392" s="1" t="s">
         <v>1134</v>
@@ -16519,7 +17592,7 @@
         <v>1191</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C393" s="1" t="s">
         <v>1134</v>
@@ -16551,7 +17624,7 @@
         <v>1192</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C394" s="1" t="s">
         <v>1134</v>
@@ -16583,7 +17656,7 @@
         <v>1193</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C395" s="1" t="s">
         <v>1134</v>
@@ -16615,7 +17688,7 @@
         <v>1194</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C396" s="1" t="s">
         <v>1134</v>
@@ -16647,7 +17720,7 @@
         <v>1195</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C397" s="1" t="s">
         <v>1134</v>
@@ -16679,7 +17752,7 @@
         <v>1196</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C398" s="1" t="s">
         <v>1260</v>
@@ -16711,7 +17784,7 @@
         <v>1197</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C399" s="1" t="s">
         <v>1260</v>
@@ -16743,7 +17816,7 @@
         <v>1198</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C400" s="1" t="s">
         <v>1260</v>
@@ -16775,7 +17848,7 @@
         <v>1199</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C401" s="1" t="s">
         <v>1260</v>
@@ -16807,7 +17880,7 @@
         <v>1225</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C402" s="1" t="s">
         <v>1260</v>
@@ -16839,7 +17912,7 @@
         <v>1226</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C403" s="1" t="s">
         <v>1260</v>
@@ -16871,7 +17944,7 @@
         <v>1227</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C404" s="1" t="s">
         <v>1260</v>
@@ -16903,7 +17976,7 @@
         <v>1228</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C405" s="1" t="s">
         <v>1260</v>
@@ -16935,7 +18008,7 @@
         <v>1229</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C406" s="1" t="s">
         <v>1260</v>
@@ -16967,7 +18040,7 @@
         <v>1230</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C407" s="1" t="s">
         <v>1260</v>
@@ -16999,7 +18072,7 @@
         <v>1231</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C408" s="1" t="s">
         <v>1260</v>
@@ -17031,7 +18104,7 @@
         <v>1232</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C409" s="1" t="s">
         <v>1260</v>
@@ -17063,7 +18136,7 @@
         <v>1233</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C410" s="1" t="s">
         <v>1260</v>
@@ -17095,7 +18168,7 @@
         <v>1234</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C411" s="1" t="s">
         <v>1260</v>
@@ -17127,7 +18200,7 @@
         <v>1235</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C412" s="1" t="s">
         <v>1260</v>
@@ -17159,7 +18232,7 @@
         <v>1236</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C413" s="1" t="s">
         <v>1260</v>
@@ -17191,7 +18264,7 @@
         <v>1237</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C414" s="1" t="s">
         <v>1260</v>
@@ -17223,7 +18296,7 @@
         <v>1238</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C415" s="1" t="s">
         <v>1260</v>
@@ -17255,7 +18328,7 @@
         <v>1239</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C416" s="1" t="s">
         <v>1260</v>
@@ -17287,7 +18360,7 @@
         <v>1240</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C417" s="1" t="s">
         <v>1260</v>
@@ -17319,7 +18392,7 @@
         <v>1241</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C418" s="1" t="s">
         <v>1260</v>
@@ -17351,7 +18424,7 @@
         <v>1242</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C419" s="1" t="s">
         <v>1260</v>
@@ -17383,7 +18456,7 @@
         <v>1243</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C420" s="1" t="s">
         <v>1260</v>
@@ -17415,7 +18488,7 @@
         <v>1244</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C421" s="1" t="s">
         <v>1299</v>
@@ -17447,7 +18520,7 @@
         <v>1245</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C422" s="1" t="s">
         <v>1299</v>
@@ -17479,7 +18552,7 @@
         <v>1246</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C423" s="1" t="s">
         <v>1299</v>
@@ -17511,7 +18584,7 @@
         <v>1247</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C424" s="1" t="s">
         <v>1299</v>
@@ -17543,7 +18616,7 @@
         <v>1248</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C425" s="1" t="s">
         <v>1299</v>
@@ -17575,7 +18648,7 @@
         <v>1249</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C426" s="1" t="s">
         <v>1299</v>
@@ -17607,7 +18680,7 @@
         <v>1250</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C427" s="1" t="s">
         <v>1299</v>
@@ -17639,7 +18712,7 @@
         <v>1251</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C428" s="1" t="s">
         <v>1307</v>
@@ -17671,7 +18744,7 @@
         <v>1252</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C429" s="1" t="s">
         <v>1307</v>
@@ -17703,7 +18776,7 @@
         <v>1253</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C430" s="1" t="s">
         <v>1307</v>
@@ -17735,7 +18808,7 @@
         <v>1254</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C431" s="1" t="s">
         <v>1307</v>
@@ -17767,7 +18840,7 @@
         <v>1255</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C432" s="1" t="s">
         <v>1307</v>
@@ -17799,7 +18872,7 @@
         <v>1256</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C433" s="1" t="s">
         <v>1307</v>
@@ -17831,7 +18904,7 @@
         <v>1257</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C434" s="1" t="s">
         <v>1318</v>
@@ -17863,7 +18936,7 @@
         <v>1258</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C435" s="1" t="s">
         <v>1318</v>
@@ -17895,7 +18968,7 @@
         <v>1259</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C436" s="1" t="s">
         <v>1318</v>
@@ -17927,7 +19000,7 @@
         <v>1319</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C437" s="1" t="s">
         <v>1318</v>
@@ -17959,7 +19032,7 @@
         <v>1320</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C438" s="1" t="s">
         <v>1318</v>
@@ -17991,7 +19064,7 @@
         <v>1321</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C439" s="1" t="s">
         <v>1333</v>
@@ -18020,7 +19093,7 @@
         <v>1322</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C440" s="1" t="s">
         <v>1333</v>
@@ -18052,7 +19125,7 @@
         <v>1340</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C441" s="1" t="s">
         <v>1341</v>
@@ -18084,7 +19157,7 @@
         <v>1345</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C442" s="1" t="s">
         <v>1346</v>
@@ -18105,6 +19178,3422 @@
         <v>1349</v>
       </c>
       <c r="K442" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="443" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A443" s="1" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C443" s="1" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D443" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E443" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="F443" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="I443" s="1" t="s">
+        <v>1376</v>
+      </c>
+      <c r="J443" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="K443" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="444" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A444" s="1" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C444" s="1" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D444" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E444" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="F444" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="H444" s="1" t="s">
+        <v>1360</v>
+      </c>
+      <c r="I444" s="1" t="s">
+        <v>1364</v>
+      </c>
+      <c r="J444" s="1" t="s">
+        <v>1375</v>
+      </c>
+      <c r="K444" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="445" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A445" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C445" s="1" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D445" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E445" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="F445" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="H445" s="1" t="s">
+        <v>1360</v>
+      </c>
+      <c r="I445" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="J445" s="1" t="s">
+        <v>1374</v>
+      </c>
+      <c r="K445" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="446" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A446" s="1" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C446" s="1" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D446" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E446" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="F446" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="H446" s="1" t="s">
+        <v>1360</v>
+      </c>
+      <c r="I446" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="J446" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="K446" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="447" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A447" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C447" s="1" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D447" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E447" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="F447" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="H447" s="1" t="s">
+        <v>1360</v>
+      </c>
+      <c r="I447" s="1" t="s">
+        <v>1367</v>
+      </c>
+      <c r="J447" s="1" t="s">
+        <v>1372</v>
+      </c>
+      <c r="K447" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="448" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A448" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C448" s="1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D448" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E448" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="F448" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="H448" s="1" t="s">
+        <v>1360</v>
+      </c>
+      <c r="I448" s="1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="J448" s="1" t="s">
+        <v>1370</v>
+      </c>
+      <c r="K448" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="449" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A449" s="1" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C449" s="1" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D449" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E449" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="F449" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="H449" s="1" t="s">
+        <v>1360</v>
+      </c>
+      <c r="I449" s="1" t="s">
+        <v>1369</v>
+      </c>
+      <c r="J449" s="1" t="s">
+        <v>1371</v>
+      </c>
+      <c r="K449" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="450" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A450" s="1" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C450" s="1" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D450" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E450" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="F450" s="1" t="s">
+        <v>1380</v>
+      </c>
+      <c r="I450" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="J450" s="1" t="s">
+        <v>1384</v>
+      </c>
+      <c r="K450" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="451" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A451" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C451" s="1" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D451" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E451" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="F451" s="1" t="s">
+        <v>1380</v>
+      </c>
+      <c r="H451" s="1" t="s">
+        <v>1382</v>
+      </c>
+      <c r="I451" s="1" t="s">
+        <v>1385</v>
+      </c>
+      <c r="J451" s="1" t="s">
+        <v>1386</v>
+      </c>
+      <c r="K451" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="452" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A452" s="1" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C452" s="1" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D452" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E452" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="F452" s="1" t="s">
+        <v>1389</v>
+      </c>
+      <c r="I452" s="1" t="s">
+        <v>1390</v>
+      </c>
+      <c r="J452" s="1" t="s">
+        <v>1391</v>
+      </c>
+      <c r="K452" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="453" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A453" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C453" s="1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D453" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E453" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F453" s="1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I453" s="1" t="s">
+        <v>1438</v>
+      </c>
+      <c r="K453" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="454" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A454" s="1" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C454" s="1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D454" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E454" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F454" s="1" t="s">
+        <v>1437</v>
+      </c>
+      <c r="I454" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="K454" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="455" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A455" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C455" s="1" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D455" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E455" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F455" s="1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="H455" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="I455" s="1" t="s">
+        <v>1441</v>
+      </c>
+      <c r="K455" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="456" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A456" s="1" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C456" s="1" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D456" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E456" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F456" s="1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="H456" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="I456" s="1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="K456" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="457" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A457" s="1" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C457" s="1" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D457" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E457" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F457" s="1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="H457" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="I457" s="1" t="s">
+        <v>1443</v>
+      </c>
+      <c r="K457" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="458" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A458" s="1" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C458" s="1" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D458" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E458" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F458" s="1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="H458" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="I458" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="K458" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="459" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A459" s="1" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C459" s="1" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D459" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E459" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F459" s="1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="H459" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="I459" s="1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="K459" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="460" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A460" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C460" s="1" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D460" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E460" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F460" s="1" t="s">
+        <v>1446</v>
+      </c>
+      <c r="I460" s="1" t="s">
+        <v>1449</v>
+      </c>
+      <c r="K460" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="461" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A461" s="1" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C461" s="1" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D461" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E461" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F461" s="1" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H461" s="1" t="s">
+        <v>1448</v>
+      </c>
+      <c r="I461" s="1" t="s">
+        <v>1450</v>
+      </c>
+      <c r="K461" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="462" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A462" s="1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C462" s="1" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D462" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E462" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F462" s="1" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H462" s="1" t="s">
+        <v>1448</v>
+      </c>
+      <c r="I462" s="1" t="s">
+        <v>1451</v>
+      </c>
+      <c r="K462" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="463" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A463" s="1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C463" s="1" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D463" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E463" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F463" s="1" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H463" s="1" t="s">
+        <v>1448</v>
+      </c>
+      <c r="I463" s="1" t="s">
+        <v>1452</v>
+      </c>
+      <c r="K463" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="464" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A464" s="1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C464" s="1" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D464" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E464" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F464" s="1" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H464" s="1" t="s">
+        <v>1448</v>
+      </c>
+      <c r="I464" s="1" t="s">
+        <v>1453</v>
+      </c>
+      <c r="K464" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="465" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A465" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C465" s="1" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D465" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E465" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F465" s="1" t="s">
+        <v>1437</v>
+      </c>
+      <c r="H465" s="1" t="s">
+        <v>1454</v>
+      </c>
+      <c r="I465" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="K465" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="466" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A466" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C466" s="1" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D466" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E466" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F466" s="1" t="s">
+        <v>1437</v>
+      </c>
+      <c r="H466" s="1" t="s">
+        <v>1454</v>
+      </c>
+      <c r="I466" s="1" t="s">
+        <v>1456</v>
+      </c>
+      <c r="K466" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="467" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A467" s="1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C467" s="1" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D467" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E467" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F467" s="1" t="s">
+        <v>1437</v>
+      </c>
+      <c r="H467" s="1" t="s">
+        <v>1454</v>
+      </c>
+      <c r="I467" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="K467" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="468" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A468" s="1" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C468" s="1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="D468" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E468" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F468" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="I468" s="1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="K468" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="469" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A469" s="1" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C469" s="1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="D469" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E469" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F469" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="H469" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="I469" s="1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="K469" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="470" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A470" s="1" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C470" s="1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="D470" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E470" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F470" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="H470" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="I470" s="1" t="s">
+        <v>1466</v>
+      </c>
+      <c r="K470" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="471" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A471" s="1" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C471" s="1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D471" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E471" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F471" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="H471" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="I471" s="1" t="s">
+        <v>1467</v>
+      </c>
+      <c r="K471" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="472" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A472" s="1" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C472" s="1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D472" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E472" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F472" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="H472" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="I472" s="1" t="s">
+        <v>1469</v>
+      </c>
+      <c r="K472" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="473" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A473" s="1" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C473" s="1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D473" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E473" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F473" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="H473" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="I473" s="1" t="s">
+        <v>1470</v>
+      </c>
+      <c r="K473" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="474" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A474" s="1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C474" s="1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D474" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E474" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F474" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="H474" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="I474" s="1" t="s">
+        <v>1471</v>
+      </c>
+      <c r="K474" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="475" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A475" s="1" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C475" s="1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D475" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E475" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F475" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="H475" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="I475" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="K475" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="476" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A476" s="1" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C476" s="1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D476" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E476" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F476" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="H476" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="I476" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="K476" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="477" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A477" s="1" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C477" s="1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D477" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E477" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F477" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="H477" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="I477" s="1" t="s">
+        <v>1474</v>
+      </c>
+      <c r="K477" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="478" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A478" s="1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C478" s="1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D478" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E478" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F478" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="H478" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="I478" s="1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="K478" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="479" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A479" s="1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C479" s="1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D479" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E479" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F479" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="H479" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="I479" s="1" t="s">
+        <v>1476</v>
+      </c>
+      <c r="K479" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="480" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A480" s="1" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C480" s="1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D480" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E480" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F480" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="I480" s="1" t="s">
+        <v>1479</v>
+      </c>
+      <c r="K480" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="481" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A481" s="1" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C481" s="1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D481" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E481" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F481" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="H481" s="1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="I481" s="1" t="s">
+        <v>1480</v>
+      </c>
+      <c r="K481" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="482" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A482" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C482" s="1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D482" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E482" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F482" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="H482" s="1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="I482" s="1" t="s">
+        <v>1481</v>
+      </c>
+      <c r="K482" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="483" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A483" s="1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C483" s="1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D483" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E483" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F483" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="H483" s="1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="I483" s="1" t="s">
+        <v>1482</v>
+      </c>
+      <c r="K483" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="484" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A484" s="1" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C484" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="D484" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E484" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F484" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="H484" s="1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="I484" s="1" t="s">
+        <v>1483</v>
+      </c>
+      <c r="K484" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="485" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A485" s="1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B485" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C485" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="D485" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E485" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F485" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="H485" s="1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="I485" s="1" t="s">
+        <v>1484</v>
+      </c>
+      <c r="K485" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="486" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A486" s="1" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C486" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="D486" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E486" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F486" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="H486" s="1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="I486" s="1" t="s">
+        <v>1485</v>
+      </c>
+      <c r="K486" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="487" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A487" s="1" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C487" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="D487" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E487" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F487" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="H487" s="1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="I487" s="1" t="s">
+        <v>1486</v>
+      </c>
+      <c r="K487" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="488" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A488" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C488" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="D488" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E488" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F488" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="H488" s="1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="I488" s="1" t="s">
+        <v>1487</v>
+      </c>
+      <c r="K488" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="489" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A489" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B489" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C489" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="D489" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E489" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F489" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="H489" s="1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="I489" s="1" t="s">
+        <v>1488</v>
+      </c>
+      <c r="K489" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="490" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A490" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C490" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="D490" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E490" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F490" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="H490" s="1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="I490" s="1" t="s">
+        <v>1489</v>
+      </c>
+      <c r="K490" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="491" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A491" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C491" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="D491" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E491" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F491" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="H491" s="1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="I491" s="1" t="s">
+        <v>1490</v>
+      </c>
+      <c r="K491" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="492" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A492" s="1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C492" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="D492" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E492" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F492" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="H492" s="1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="I492" s="1" t="s">
+        <v>1491</v>
+      </c>
+      <c r="K492" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="493" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A493" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C493" s="1" t="s">
+        <v>1505</v>
+      </c>
+      <c r="D493" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E493" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F493" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="I493" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="K493" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="494" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A494" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C494" s="1" t="s">
+        <v>1505</v>
+      </c>
+      <c r="D494" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E494" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F494" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="H494" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="I494" s="1" t="s">
+        <v>1508</v>
+      </c>
+      <c r="K494" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="495" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A495" s="1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C495" s="1" t="s">
+        <v>1505</v>
+      </c>
+      <c r="D495" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E495" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F495" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="H495" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="I495" s="1" t="s">
+        <v>1509</v>
+      </c>
+      <c r="K495" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="496" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A496" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C496" s="1" t="s">
+        <v>1505</v>
+      </c>
+      <c r="D496" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E496" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F496" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="H496" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="I496" s="1" t="s">
+        <v>1510</v>
+      </c>
+      <c r="K496" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="497" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A497" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C497" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D497" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E497" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F497" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="H497" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="I497" s="1" t="s">
+        <v>1511</v>
+      </c>
+      <c r="K497" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="498" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A498" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C498" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D498" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E498" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F498" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="H498" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="I498" s="1" t="s">
+        <v>1512</v>
+      </c>
+      <c r="K498" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="499" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A499" s="1" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C499" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D499" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E499" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F499" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="H499" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="I499" s="1" t="s">
+        <v>1513</v>
+      </c>
+      <c r="K499" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="500" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A500" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C500" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D500" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E500" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F500" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="H500" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="I500" s="1" t="s">
+        <v>1514</v>
+      </c>
+      <c r="K500" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="501" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A501" s="1" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B501" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C501" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D501" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E501" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F501" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="H501" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="I501" s="1" t="s">
+        <v>1515</v>
+      </c>
+      <c r="K501" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="502" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A502" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C502" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D502" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E502" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F502" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="H502" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="I502" s="1" t="s">
+        <v>1516</v>
+      </c>
+      <c r="K502" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="503" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A503" s="1" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C503" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D503" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E503" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F503" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="H503" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="I503" s="1" t="s">
+        <v>1517</v>
+      </c>
+      <c r="K503" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="504" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A504" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C504" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D504" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E504" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F504" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="H504" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="I504" s="1" t="s">
+        <v>1518</v>
+      </c>
+      <c r="K504" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="505" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A505" s="1" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C505" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D505" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E505" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F505" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="H505" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="I505" s="1" t="s">
+        <v>1519</v>
+      </c>
+      <c r="K505" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="506" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A506" s="1" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C506" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D506" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E506" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F506" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="H506" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="I506" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="K506" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="507" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A507" s="1" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C507" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D507" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E507" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F507" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="H507" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="I507" s="1" t="s">
+        <v>1521</v>
+      </c>
+      <c r="K507" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="508" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A508" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C508" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D508" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E508" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F508" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="H508" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="I508" s="1" t="s">
+        <v>1522</v>
+      </c>
+      <c r="K508" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="509" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A509" s="1" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B509" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C509" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D509" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E509" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F509" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="H509" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="I509" s="1" t="s">
+        <v>1523</v>
+      </c>
+      <c r="K509" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="510" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A510" s="1" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B510" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C510" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D510" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E510" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F510" s="1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="I510" s="1" t="s">
+        <v>1536</v>
+      </c>
+      <c r="K510" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="511" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A511" s="1" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C511" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D511" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E511" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F511" s="1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="H511" s="1" t="s">
+        <v>1535</v>
+      </c>
+      <c r="I511" s="1" t="s">
+        <v>1537</v>
+      </c>
+      <c r="K511" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="512" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A512" s="1" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C512" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D512" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E512" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F512" s="1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="H512" s="1" t="s">
+        <v>1535</v>
+      </c>
+      <c r="I512" s="1" t="s">
+        <v>1538</v>
+      </c>
+      <c r="K512" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="513" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A513" s="1" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B513" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C513" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D513" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E513" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F513" s="1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="H513" s="1" t="s">
+        <v>1535</v>
+      </c>
+      <c r="I513" s="1" t="s">
+        <v>1539</v>
+      </c>
+      <c r="K513" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="514" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A514" s="1" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C514" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D514" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E514" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F514" s="1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="H514" s="1" t="s">
+        <v>1535</v>
+      </c>
+      <c r="I514" s="1" t="s">
+        <v>1540</v>
+      </c>
+      <c r="K514" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="515" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A515" s="1" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C515" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D515" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E515" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F515" s="1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="H515" s="1" t="s">
+        <v>1535</v>
+      </c>
+      <c r="I515" s="1" t="s">
+        <v>1541</v>
+      </c>
+      <c r="K515" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="516" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A516" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C516" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D516" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E516" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F516" s="1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="H516" s="1" t="s">
+        <v>1535</v>
+      </c>
+      <c r="I516" s="1" t="s">
+        <v>1542</v>
+      </c>
+      <c r="K516" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="517" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A517" s="1" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C517" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D517" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E517" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F517" s="1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="H517" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="I517" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="K517" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="518" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A518" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B518" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C518" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D518" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E518" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F518" s="1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="H518" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="I518" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="K518" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="519" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A519" s="1" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B519" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C519" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D519" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E519" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F519" s="1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="H519" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="I519" s="1" t="s">
+        <v>1558</v>
+      </c>
+      <c r="K519" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="520" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A520" s="1" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B520" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C520" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D520" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E520" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F520" s="1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="H520" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="I520" s="1" t="s">
+        <v>1559</v>
+      </c>
+      <c r="K520" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="521" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A521" s="1" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B521" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C521" s="1" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D521" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E521" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F521" s="1" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H521" s="1" t="s">
+        <v>1448</v>
+      </c>
+      <c r="I521" s="1" t="s">
+        <v>1561</v>
+      </c>
+      <c r="K521" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="522" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A522" s="1" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C522" s="1" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D522" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E522" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F522" s="1" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H522" s="1" t="s">
+        <v>1448</v>
+      </c>
+      <c r="I522" s="1" t="s">
+        <v>1562</v>
+      </c>
+      <c r="K522" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="523" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A523" s="1" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B523" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C523" s="1" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D523" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E523" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F523" s="1" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H523" s="1" t="s">
+        <v>1448</v>
+      </c>
+      <c r="I523" s="1" t="s">
+        <v>1563</v>
+      </c>
+      <c r="K523" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="524" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A524" s="1" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B524" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C524" s="1" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D524" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E524" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F524" s="1" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H524" s="1" t="s">
+        <v>1448</v>
+      </c>
+      <c r="I524" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="K524" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="525" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A525" s="1" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C525" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D525" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E525" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F525" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="H525" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="I525" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="K525" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="526" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A526" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C526" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D526" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E526" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F526" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="H526" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="I526" s="1" t="s">
+        <v>1571</v>
+      </c>
+      <c r="K526" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="527" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A527" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B527" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C527" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D527" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E527" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F527" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="H527" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="I527" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="K527" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="528" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A528" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B528" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C528" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D528" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E528" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F528" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="H528" s="1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="I528" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="K528" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="529" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A529" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B529" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C529" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D529" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E529" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F529" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="H529" s="1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="I529" s="1" t="s">
+        <v>1575</v>
+      </c>
+      <c r="K529" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="530" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A530" s="1" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B530" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C530" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D530" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E530" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F530" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="H530" s="1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="I530" s="1" t="s">
+        <v>1576</v>
+      </c>
+      <c r="K530" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="531" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A531" s="1" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C531" s="1" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D531" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E531" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F531" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="H531" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="I531" s="1" t="s">
+        <v>1578</v>
+      </c>
+      <c r="K531" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="532" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A532" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B532" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C532" s="1" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D532" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E532" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F532" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="H532" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="I532" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="K532" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="533" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A533" s="1" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C533" s="1" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D533" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E533" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F533" s="1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="H533" s="1" t="s">
+        <v>1535</v>
+      </c>
+      <c r="I533" s="1" t="s">
+        <v>1589</v>
+      </c>
+      <c r="K533" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="534" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A534" s="1" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C534" s="1" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D534" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E534" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F534" s="1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="H534" s="1" t="s">
+        <v>1535</v>
+      </c>
+      <c r="I534" s="1" t="s">
+        <v>1607</v>
+      </c>
+      <c r="K534" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="535" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A535" s="1" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B535" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C535" s="1" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D535" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E535" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F535" s="1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="H535" s="1" t="s">
+        <v>1535</v>
+      </c>
+      <c r="I535" s="1" t="s">
+        <v>1608</v>
+      </c>
+      <c r="K535" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="536" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A536" s="1" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C536" s="1" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D536" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E536" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F536" s="1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="H536" s="1" t="s">
+        <v>1535</v>
+      </c>
+      <c r="I536" s="1" t="s">
+        <v>1609</v>
+      </c>
+      <c r="K536" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="537" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A537" s="1" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C537" s="1" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D537" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E537" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F537" s="1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="H537" s="1" t="s">
+        <v>1535</v>
+      </c>
+      <c r="I537" s="1" t="s">
+        <v>1610</v>
+      </c>
+      <c r="K537" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="538" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A538" s="1" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C538" s="1" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D538" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E538" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F538" s="1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="H538" s="1" t="s">
+        <v>1535</v>
+      </c>
+      <c r="I538" s="1" t="s">
+        <v>1611</v>
+      </c>
+      <c r="K538" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="539" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A539" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C539" s="1" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D539" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E539" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F539" s="1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="H539" s="1" t="s">
+        <v>1535</v>
+      </c>
+      <c r="I539" s="1" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K539" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="540" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A540" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C540" s="1" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D540" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E540" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F540" s="1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="H540" s="1" t="s">
+        <v>1535</v>
+      </c>
+      <c r="I540" s="1" t="s">
+        <v>1613</v>
+      </c>
+      <c r="K540" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="541" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A541" s="1" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B541" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C541" s="1" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D541" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E541" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F541" s="1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="H541" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="I541" s="1" t="s">
+        <v>1605</v>
+      </c>
+      <c r="K541" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="542" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A542" s="1" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B542" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C542" s="1" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D542" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E542" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F542" s="1" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H542" s="1" t="s">
+        <v>1448</v>
+      </c>
+      <c r="I542" s="1" t="s">
+        <v>1606</v>
+      </c>
+      <c r="K542" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="543" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A543" s="1" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B543" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C543" s="1" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D543" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E543" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F543" s="1" t="s">
+        <v>1437</v>
+      </c>
+      <c r="H543" s="1" t="s">
+        <v>1454</v>
+      </c>
+      <c r="I543" s="1" t="s">
+        <v>1614</v>
+      </c>
+      <c r="K543" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="544" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A544" s="1" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B544" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C544" s="1" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D544" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E544" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F544" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="H544" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="I544" s="1" t="s">
+        <v>1615</v>
+      </c>
+      <c r="K544" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="545" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A545" s="1" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B545" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C545" s="1" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D545" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E545" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F545" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="H545" s="1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="I545" s="1" t="s">
+        <v>1616</v>
+      </c>
+      <c r="K545" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="546" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A546" s="1" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B546" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C546" s="1" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D546" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E546" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F546" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="H546" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="I546" s="1" t="s">
+        <v>1617</v>
+      </c>
+      <c r="K546" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="547" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A547" s="1" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B547" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C547" s="1" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D547" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E547" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F547" s="1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="H547" s="1" t="s">
+        <v>1535</v>
+      </c>
+      <c r="I547" s="1" t="s">
+        <v>1618</v>
+      </c>
+      <c r="K547" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="548" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A548" s="1" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B548" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C548" s="1" t="s">
+        <v>1604</v>
+      </c>
+      <c r="D548" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E548" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F548" s="1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="H548" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="I548" s="1" t="s">
+        <v>1619</v>
+      </c>
+      <c r="K548" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="549" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A549" s="1" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B549" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C549" s="1" t="s">
+        <v>1604</v>
+      </c>
+      <c r="D549" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E549" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F549" s="1" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H549" s="1" t="s">
+        <v>1448</v>
+      </c>
+      <c r="I549" s="1" t="s">
+        <v>1620</v>
+      </c>
+      <c r="K549" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="550" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A550" s="1" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B550" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C550" s="1" t="s">
+        <v>1604</v>
+      </c>
+      <c r="D550" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E550" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F550" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="H550" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="I550" s="1" t="s">
+        <v>1621</v>
+      </c>
+      <c r="K550" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="551" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A551" s="1" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B551" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C551" s="1" t="s">
+        <v>1604</v>
+      </c>
+      <c r="D551" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E551" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F551" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="H551" s="1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="I551" s="1" t="s">
+        <v>1622</v>
+      </c>
+      <c r="K551" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="552" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A552" s="1" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B552" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C552" s="1" t="s">
+        <v>1604</v>
+      </c>
+      <c r="D552" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E552" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F552" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="H552" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="I552" s="1" t="s">
+        <v>1623</v>
+      </c>
+      <c r="K552" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="553" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A553" s="1" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B553" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C553" s="1" t="s">
+        <v>1604</v>
+      </c>
+      <c r="D553" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E553" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F553" s="1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="H553" s="1" t="s">
+        <v>1535</v>
+      </c>
+      <c r="I553" s="1" t="s">
+        <v>1624</v>
+      </c>
+      <c r="K553" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="554" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A554" s="1" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B554" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C554" s="1" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D554" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E554" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F554" s="1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="H554" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="I554" s="1" t="s">
+        <v>1631</v>
+      </c>
+      <c r="K554" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="555" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A555" s="1" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B555" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C555" s="1" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D555" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E555" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F555" s="1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="H555" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="I555" s="1" t="s">
+        <v>1632</v>
+      </c>
+      <c r="K555" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="556" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A556" s="1" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B556" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C556" s="1" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D556" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E556" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F556" s="1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="H556" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="I556" s="1" t="s">
+        <v>1633</v>
+      </c>
+      <c r="K556" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="557" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A557" s="1" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B557" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C557" s="1" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D557" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E557" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F557" s="1" t="s">
+        <v>1634</v>
+      </c>
+      <c r="I557" s="1" t="s">
+        <v>1636</v>
+      </c>
+      <c r="K557" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="558" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A558" s="1" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C558" s="1" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D558" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E558" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F558" s="1" t="s">
+        <v>1634</v>
+      </c>
+      <c r="H558" s="1" t="s">
+        <v>1635</v>
+      </c>
+      <c r="I558" s="1" t="s">
+        <v>1637</v>
+      </c>
+      <c r="K558" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="559" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A559" s="1" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B559" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C559" s="1" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D559" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E559" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F559" s="1" t="s">
+        <v>1640</v>
+      </c>
+      <c r="G559" s="1" t="s">
+        <v>1641</v>
+      </c>
+      <c r="I559" s="1" t="s">
+        <v>1642</v>
+      </c>
+      <c r="K559" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="560" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A560" s="1" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B560" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C560" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="D560" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E560" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F560" s="1" t="s">
+        <v>1645</v>
+      </c>
+      <c r="I560" s="1" t="s">
+        <v>1646</v>
+      </c>
+      <c r="K560" s="1" t="s">
         <v>29</v>
       </c>
     </row>

--- a/src/test/resources/io.dingodb.test/testdata/cases/negative/sql_negative_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/cases/negative/sql_negative_cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5011" uniqueCount="1648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5035" uniqueCount="1661">
   <si>
     <t>TestID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6065,6 +6065,54 @@
   </si>
   <si>
     <t>n</t>
+  </si>
+  <si>
+    <t>negative_560</t>
+  </si>
+  <si>
+    <t>negative_561</t>
+  </si>
+  <si>
+    <t>negative_562</t>
+  </si>
+  <si>
+    <t>创建表，自增字段是varchar，创建失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建表，自增字段是date，创建失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建表，自增字段是time，创建失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_563</t>
+  </si>
+  <si>
+    <t>创建表，自增字段是timestamp，创建失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AutoIncrement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table neg_560(id varchar(20) auto_increment, name varchar(32), age int, amount double, primary key(id))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table neg_561(id date auto_increment, name varchar(33), age int, amount double, primary key(id))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table neg_562(id time auto_increment, name varchar(34), age int, amount double, primary key(id))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table neg_563(id timestamp auto_increment, name varchar(35), age int, amount double, primary key(id))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6422,10 +6470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K560"/>
+  <dimension ref="A1:K564"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A390" workbookViewId="0">
-      <selection activeCell="C439" sqref="C439"/>
+    <sheetView tabSelected="1" topLeftCell="D537" workbookViewId="0">
+      <selection activeCell="I550" sqref="I550"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -22594,6 +22642,86 @@
         <v>1646</v>
       </c>
       <c r="K560" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="561" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A561" s="1" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B561" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C561" s="1" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D561" s="1" t="s">
+        <v>1656</v>
+      </c>
+      <c r="I561" s="1" t="s">
+        <v>1657</v>
+      </c>
+      <c r="K561" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="562" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A562" s="1" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B562" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C562" s="1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D562" s="1" t="s">
+        <v>1656</v>
+      </c>
+      <c r="I562" s="1" t="s">
+        <v>1658</v>
+      </c>
+      <c r="K562" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="563" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A563" s="1" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B563" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C563" s="1" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D563" s="1" t="s">
+        <v>1656</v>
+      </c>
+      <c r="I563" s="1" t="s">
+        <v>1659</v>
+      </c>
+      <c r="K563" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="564" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A564" s="1" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B564" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C564" s="1" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D564" s="1" t="s">
+        <v>1656</v>
+      </c>
+      <c r="I564" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="K564" s="1" t="s">
         <v>29</v>
       </c>
     </row>

--- a/src/test/resources/io.dingodb.test/testdata/cases/negative/sql_negative_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/cases/negative/sql_negative_cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5035" uniqueCount="1661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5037" uniqueCount="1661">
   <si>
     <t>TestID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6144,12 +6144,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -6164,11 +6170,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6472,8 +6479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K564"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D537" workbookViewId="0">
-      <selection activeCell="I550" sqref="I550"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9477,6 +9484,9 @@
       <c r="A116" s="1" t="s">
         <v>306</v>
       </c>
+      <c r="B116" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="C116" s="1" t="s">
         <v>347</v>
       </c>
@@ -9500,6 +9510,9 @@
       <c r="A117" s="1" t="s">
         <v>307</v>
       </c>
+      <c r="B117" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="C117" s="1" t="s">
         <v>347</v>
       </c>
@@ -15833,7 +15846,7 @@
       </c>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A336" s="1" t="s">
+      <c r="A336" s="4" t="s">
         <v>1062</v>
       </c>
       <c r="B336" s="1" t="s">
@@ -15862,7 +15875,7 @@
       </c>
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A337" s="1" t="s">
+      <c r="A337" s="4" t="s">
         <v>1048</v>
       </c>
       <c r="B337" s="1" t="s">
@@ -15894,7 +15907,7 @@
       </c>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A338" s="1" t="s">
+      <c r="A338" s="4" t="s">
         <v>1049</v>
       </c>
       <c r="B338" s="1" t="s">
@@ -15926,7 +15939,7 @@
       </c>
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A339" s="1" t="s">
+      <c r="A339" s="4" t="s">
         <v>1050</v>
       </c>
       <c r="B339" s="1" t="s">
@@ -15958,7 +15971,7 @@
       </c>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A340" s="1" t="s">
+      <c r="A340" s="4" t="s">
         <v>1051</v>
       </c>
       <c r="B340" s="1" t="s">
@@ -15990,7 +16003,7 @@
       </c>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A341" s="1" t="s">
+      <c r="A341" s="4" t="s">
         <v>1052</v>
       </c>
       <c r="B341" s="1" t="s">
@@ -16019,7 +16032,7 @@
       </c>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A342" s="1" t="s">
+      <c r="A342" s="4" t="s">
         <v>1053</v>
       </c>
       <c r="B342" s="1" t="s">
@@ -16051,7 +16064,7 @@
       </c>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A343" s="1" t="s">
+      <c r="A343" s="4" t="s">
         <v>1054</v>
       </c>
       <c r="B343" s="1" t="s">
@@ -16083,7 +16096,7 @@
       </c>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A344" s="1" t="s">
+      <c r="A344" s="4" t="s">
         <v>1055</v>
       </c>
       <c r="B344" s="1" t="s">
@@ -16112,7 +16125,7 @@
       </c>
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A345" s="1" t="s">
+      <c r="A345" s="4" t="s">
         <v>1056</v>
       </c>
       <c r="B345" s="1" t="s">
@@ -16144,7 +16157,7 @@
       </c>
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A346" s="1" t="s">
+      <c r="A346" s="4" t="s">
         <v>1057</v>
       </c>
       <c r="B346" s="1" t="s">
@@ -16176,7 +16189,7 @@
       </c>
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A347" s="1" t="s">
+      <c r="A347" s="4" t="s">
         <v>1058</v>
       </c>
       <c r="B347" s="1" t="s">
@@ -16208,7 +16221,7 @@
       </c>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A348" s="1" t="s">
+      <c r="A348" s="4" t="s">
         <v>1059</v>
       </c>
       <c r="B348" s="1" t="s">
@@ -16237,7 +16250,7 @@
       </c>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A349" s="1" t="s">
+      <c r="A349" s="4" t="s">
         <v>1060</v>
       </c>
       <c r="B349" s="1" t="s">
@@ -16269,7 +16282,7 @@
       </c>
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A350" s="1" t="s">
+      <c r="A350" s="4" t="s">
         <v>1077</v>
       </c>
       <c r="B350" s="1" t="s">
@@ -16301,7 +16314,7 @@
       </c>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A351" s="1" t="s">
+      <c r="A351" s="4" t="s">
         <v>1078</v>
       </c>
       <c r="B351" s="1" t="s">
@@ -16333,7 +16346,7 @@
       </c>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A352" s="1" t="s">
+      <c r="A352" s="4" t="s">
         <v>1079</v>
       </c>
       <c r="B352" s="1" t="s">
@@ -16362,7 +16375,7 @@
       </c>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A353" s="1" t="s">
+      <c r="A353" s="4" t="s">
         <v>1080</v>
       </c>
       <c r="B353" s="1" t="s">
@@ -16394,7 +16407,7 @@
       </c>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A354" s="1" t="s">
+      <c r="A354" s="4" t="s">
         <v>1081</v>
       </c>
       <c r="B354" s="1" t="s">
@@ -16426,7 +16439,7 @@
       </c>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A355" s="1" t="s">
+      <c r="A355" s="4" t="s">
         <v>1082</v>
       </c>
       <c r="B355" s="1" t="s">
@@ -16455,7 +16468,7 @@
       </c>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A356" s="1" t="s">
+      <c r="A356" s="4" t="s">
         <v>1083</v>
       </c>
       <c r="B356" s="1" t="s">
@@ -16487,7 +16500,7 @@
       </c>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A357" s="1" t="s">
+      <c r="A357" s="4" t="s">
         <v>1084</v>
       </c>
       <c r="B357" s="1" t="s">
@@ -16519,7 +16532,7 @@
       </c>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A358" s="1" t="s">
+      <c r="A358" s="4" t="s">
         <v>1085</v>
       </c>
       <c r="B358" s="1" t="s">
@@ -16551,7 +16564,7 @@
       </c>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A359" s="1" t="s">
+      <c r="A359" s="4" t="s">
         <v>1086</v>
       </c>
       <c r="B359" s="1" t="s">
@@ -16583,7 +16596,7 @@
       </c>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A360" s="1" t="s">
+      <c r="A360" s="4" t="s">
         <v>1087</v>
       </c>
       <c r="B360" s="1" t="s">
@@ -16612,7 +16625,7 @@
       </c>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A361" s="1" t="s">
+      <c r="A361" s="4" t="s">
         <v>1088</v>
       </c>
       <c r="B361" s="1" t="s">
@@ -16644,7 +16657,7 @@
       </c>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A362" s="1" t="s">
+      <c r="A362" s="4" t="s">
         <v>1089</v>
       </c>
       <c r="B362" s="1" t="s">
@@ -16676,7 +16689,7 @@
       </c>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A363" s="1" t="s">
+      <c r="A363" s="4" t="s">
         <v>1112</v>
       </c>
       <c r="B363" s="1" t="s">
@@ -16708,7 +16721,7 @@
       </c>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A364" s="1" t="s">
+      <c r="A364" s="4" t="s">
         <v>1113</v>
       </c>
       <c r="B364" s="1" t="s">
@@ -16740,7 +16753,7 @@
       </c>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A365" s="1" t="s">
+      <c r="A365" s="4" t="s">
         <v>1114</v>
       </c>
       <c r="B365" s="1" t="s">
@@ -16772,7 +16785,7 @@
       </c>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A366" s="1" t="s">
+      <c r="A366" s="4" t="s">
         <v>1115</v>
       </c>
       <c r="B366" s="1" t="s">
@@ -16804,7 +16817,7 @@
       </c>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A367" s="1" t="s">
+      <c r="A367" s="4" t="s">
         <v>1116</v>
       </c>
       <c r="B367" s="1" t="s">
@@ -16836,7 +16849,7 @@
       </c>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A368" s="1" t="s">
+      <c r="A368" s="4" t="s">
         <v>1117</v>
       </c>
       <c r="B368" s="1" t="s">
@@ -16868,7 +16881,7 @@
       </c>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A369" s="1" t="s">
+      <c r="A369" s="4" t="s">
         <v>1118</v>
       </c>
       <c r="B369" s="1" t="s">
@@ -16900,7 +16913,7 @@
       </c>
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A370" s="1" t="s">
+      <c r="A370" s="4" t="s">
         <v>1119</v>
       </c>
       <c r="B370" s="1" t="s">
@@ -16932,7 +16945,7 @@
       </c>
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A371" s="1" t="s">
+      <c r="A371" s="4" t="s">
         <v>1120</v>
       </c>
       <c r="B371" s="1" t="s">
@@ -16964,7 +16977,7 @@
       </c>
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A372" s="1" t="s">
+      <c r="A372" s="4" t="s">
         <v>1121</v>
       </c>
       <c r="B372" s="1" t="s">
@@ -16996,7 +17009,7 @@
       </c>
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A373" s="1" t="s">
+      <c r="A373" s="4" t="s">
         <v>1122</v>
       </c>
       <c r="B373" s="1" t="s">
@@ -17028,7 +17041,7 @@
       </c>
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A374" s="1" t="s">
+      <c r="A374" s="4" t="s">
         <v>1123</v>
       </c>
       <c r="B374" s="1" t="s">
@@ -17060,7 +17073,7 @@
       </c>
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A375" s="1" t="s">
+      <c r="A375" s="4" t="s">
         <v>1124</v>
       </c>
       <c r="B375" s="1" t="s">
@@ -17092,7 +17105,7 @@
       </c>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A376" s="1" t="s">
+      <c r="A376" s="4" t="s">
         <v>1155</v>
       </c>
       <c r="B376" s="1" t="s">
@@ -17124,7 +17137,7 @@
       </c>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A377" s="1" t="s">
+      <c r="A377" s="4" t="s">
         <v>1156</v>
       </c>
       <c r="B377" s="1" t="s">
@@ -17156,7 +17169,7 @@
       </c>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A378" s="1" t="s">
+      <c r="A378" s="4" t="s">
         <v>1157</v>
       </c>
       <c r="B378" s="1" t="s">
@@ -17188,7 +17201,7 @@
       </c>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A379" s="1" t="s">
+      <c r="A379" s="4" t="s">
         <v>1158</v>
       </c>
       <c r="B379" s="1" t="s">
@@ -17220,7 +17233,7 @@
       </c>
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A380" s="1" t="s">
+      <c r="A380" s="4" t="s">
         <v>1159</v>
       </c>
       <c r="B380" s="1" t="s">
@@ -17252,7 +17265,7 @@
       </c>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A381" s="1" t="s">
+      <c r="A381" s="4" t="s">
         <v>1160</v>
       </c>
       <c r="B381" s="1" t="s">
@@ -17284,7 +17297,7 @@
       </c>
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A382" s="1" t="s">
+      <c r="A382" s="4" t="s">
         <v>1161</v>
       </c>
       <c r="B382" s="1" t="s">
@@ -17316,7 +17329,7 @@
       </c>
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A383" s="1" t="s">
+      <c r="A383" s="4" t="s">
         <v>1162</v>
       </c>
       <c r="B383" s="1" t="s">
@@ -17348,7 +17361,7 @@
       </c>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A384" s="1" t="s">
+      <c r="A384" s="4" t="s">
         <v>1163</v>
       </c>
       <c r="B384" s="1" t="s">
@@ -17380,7 +17393,7 @@
       </c>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A385" s="1" t="s">
+      <c r="A385" s="4" t="s">
         <v>1164</v>
       </c>
       <c r="B385" s="1" t="s">
@@ -17412,7 +17425,7 @@
       </c>
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A386" s="1" t="s">
+      <c r="A386" s="4" t="s">
         <v>1165</v>
       </c>
       <c r="B386" s="1" t="s">
@@ -17444,7 +17457,7 @@
       </c>
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A387" s="1" t="s">
+      <c r="A387" s="4" t="s">
         <v>1166</v>
       </c>
       <c r="B387" s="1" t="s">
@@ -17476,7 +17489,7 @@
       </c>
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A388" s="1" t="s">
+      <c r="A388" s="4" t="s">
         <v>1167</v>
       </c>
       <c r="B388" s="1" t="s">
@@ -17508,7 +17521,7 @@
       </c>
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A389" s="1" t="s">
+      <c r="A389" s="4" t="s">
         <v>1187</v>
       </c>
       <c r="B389" s="1" t="s">
@@ -17540,7 +17553,7 @@
       </c>
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A390" s="1" t="s">
+      <c r="A390" s="4" t="s">
         <v>1188</v>
       </c>
       <c r="B390" s="1" t="s">
@@ -17572,7 +17585,7 @@
       </c>
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A391" s="1" t="s">
+      <c r="A391" s="4" t="s">
         <v>1189</v>
       </c>
       <c r="B391" s="1" t="s">
@@ -17604,7 +17617,7 @@
       </c>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A392" s="1" t="s">
+      <c r="A392" s="4" t="s">
         <v>1190</v>
       </c>
       <c r="B392" s="1" t="s">
@@ -17636,7 +17649,7 @@
       </c>
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A393" s="1" t="s">
+      <c r="A393" s="4" t="s">
         <v>1191</v>
       </c>
       <c r="B393" s="1" t="s">
@@ -17668,7 +17681,7 @@
       </c>
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A394" s="1" t="s">
+      <c r="A394" s="4" t="s">
         <v>1192</v>
       </c>
       <c r="B394" s="1" t="s">
@@ -17700,7 +17713,7 @@
       </c>
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A395" s="1" t="s">
+      <c r="A395" s="4" t="s">
         <v>1193</v>
       </c>
       <c r="B395" s="1" t="s">
@@ -17732,7 +17745,7 @@
       </c>
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A396" s="1" t="s">
+      <c r="A396" s="4" t="s">
         <v>1194</v>
       </c>
       <c r="B396" s="1" t="s">
@@ -17764,7 +17777,7 @@
       </c>
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A397" s="1" t="s">
+      <c r="A397" s="4" t="s">
         <v>1195</v>
       </c>
       <c r="B397" s="1" t="s">
@@ -17796,7 +17809,7 @@
       </c>
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A398" s="1" t="s">
+      <c r="A398" s="4" t="s">
         <v>1196</v>
       </c>
       <c r="B398" s="1" t="s">
@@ -17828,7 +17841,7 @@
       </c>
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A399" s="1" t="s">
+      <c r="A399" s="4" t="s">
         <v>1197</v>
       </c>
       <c r="B399" s="1" t="s">
@@ -17860,7 +17873,7 @@
       </c>
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A400" s="1" t="s">
+      <c r="A400" s="4" t="s">
         <v>1198</v>
       </c>
       <c r="B400" s="1" t="s">
@@ -17892,7 +17905,7 @@
       </c>
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A401" s="1" t="s">
+      <c r="A401" s="4" t="s">
         <v>1199</v>
       </c>
       <c r="B401" s="1" t="s">
@@ -17924,7 +17937,7 @@
       </c>
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A402" s="1" t="s">
+      <c r="A402" s="4" t="s">
         <v>1225</v>
       </c>
       <c r="B402" s="1" t="s">
@@ -17956,7 +17969,7 @@
       </c>
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A403" s="1" t="s">
+      <c r="A403" s="4" t="s">
         <v>1226</v>
       </c>
       <c r="B403" s="1" t="s">
@@ -17988,7 +18001,7 @@
       </c>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A404" s="1" t="s">
+      <c r="A404" s="4" t="s">
         <v>1227</v>
       </c>
       <c r="B404" s="1" t="s">
@@ -18020,7 +18033,7 @@
       </c>
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A405" s="1" t="s">
+      <c r="A405" s="4" t="s">
         <v>1228</v>
       </c>
       <c r="B405" s="1" t="s">
@@ -18052,7 +18065,7 @@
       </c>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A406" s="1" t="s">
+      <c r="A406" s="4" t="s">
         <v>1229</v>
       </c>
       <c r="B406" s="1" t="s">
@@ -18084,7 +18097,7 @@
       </c>
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A407" s="1" t="s">
+      <c r="A407" s="4" t="s">
         <v>1230</v>
       </c>
       <c r="B407" s="1" t="s">
@@ -18116,7 +18129,7 @@
       </c>
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A408" s="1" t="s">
+      <c r="A408" s="4" t="s">
         <v>1231</v>
       </c>
       <c r="B408" s="1" t="s">
@@ -18148,7 +18161,7 @@
       </c>
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A409" s="1" t="s">
+      <c r="A409" s="4" t="s">
         <v>1232</v>
       </c>
       <c r="B409" s="1" t="s">
@@ -18180,7 +18193,7 @@
       </c>
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A410" s="1" t="s">
+      <c r="A410" s="4" t="s">
         <v>1233</v>
       </c>
       <c r="B410" s="1" t="s">
@@ -18212,7 +18225,7 @@
       </c>
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A411" s="1" t="s">
+      <c r="A411" s="4" t="s">
         <v>1234</v>
       </c>
       <c r="B411" s="1" t="s">
@@ -18244,7 +18257,7 @@
       </c>
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A412" s="1" t="s">
+      <c r="A412" s="4" t="s">
         <v>1235</v>
       </c>
       <c r="B412" s="1" t="s">
@@ -18276,7 +18289,7 @@
       </c>
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A413" s="1" t="s">
+      <c r="A413" s="4" t="s">
         <v>1236</v>
       </c>
       <c r="B413" s="1" t="s">
@@ -18308,7 +18321,7 @@
       </c>
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A414" s="1" t="s">
+      <c r="A414" s="4" t="s">
         <v>1237</v>
       </c>
       <c r="B414" s="1" t="s">
@@ -18340,7 +18353,7 @@
       </c>
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A415" s="1" t="s">
+      <c r="A415" s="4" t="s">
         <v>1238</v>
       </c>
       <c r="B415" s="1" t="s">
@@ -18372,7 +18385,7 @@
       </c>
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A416" s="1" t="s">
+      <c r="A416" s="4" t="s">
         <v>1239</v>
       </c>
       <c r="B416" s="1" t="s">
@@ -18404,7 +18417,7 @@
       </c>
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A417" s="1" t="s">
+      <c r="A417" s="4" t="s">
         <v>1240</v>
       </c>
       <c r="B417" s="1" t="s">
@@ -18436,7 +18449,7 @@
       </c>
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A418" s="1" t="s">
+      <c r="A418" s="4" t="s">
         <v>1241</v>
       </c>
       <c r="B418" s="1" t="s">
@@ -18468,7 +18481,7 @@
       </c>
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A419" s="1" t="s">
+      <c r="A419" s="4" t="s">
         <v>1242</v>
       </c>
       <c r="B419" s="1" t="s">
@@ -18500,7 +18513,7 @@
       </c>
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A420" s="1" t="s">
+      <c r="A420" s="4" t="s">
         <v>1243</v>
       </c>
       <c r="B420" s="1" t="s">
@@ -18532,7 +18545,7 @@
       </c>
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A421" s="1" t="s">
+      <c r="A421" s="4" t="s">
         <v>1244</v>
       </c>
       <c r="B421" s="1" t="s">
@@ -18564,7 +18577,7 @@
       </c>
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A422" s="1" t="s">
+      <c r="A422" s="4" t="s">
         <v>1245</v>
       </c>
       <c r="B422" s="1" t="s">
@@ -18596,7 +18609,7 @@
       </c>
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A423" s="1" t="s">
+      <c r="A423" s="4" t="s">
         <v>1246</v>
       </c>
       <c r="B423" s="1" t="s">
@@ -18628,7 +18641,7 @@
       </c>
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A424" s="1" t="s">
+      <c r="A424" s="4" t="s">
         <v>1247</v>
       </c>
       <c r="B424" s="1" t="s">
@@ -18660,7 +18673,7 @@
       </c>
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A425" s="1" t="s">
+      <c r="A425" s="4" t="s">
         <v>1248</v>
       </c>
       <c r="B425" s="1" t="s">
@@ -18692,7 +18705,7 @@
       </c>
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A426" s="1" t="s">
+      <c r="A426" s="4" t="s">
         <v>1249</v>
       </c>
       <c r="B426" s="1" t="s">
@@ -18724,7 +18737,7 @@
       </c>
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A427" s="1" t="s">
+      <c r="A427" s="4" t="s">
         <v>1250</v>
       </c>
       <c r="B427" s="1" t="s">
@@ -18756,7 +18769,7 @@
       </c>
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A428" s="1" t="s">
+      <c r="A428" s="4" t="s">
         <v>1251</v>
       </c>
       <c r="B428" s="1" t="s">
@@ -18788,7 +18801,7 @@
       </c>
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A429" s="1" t="s">
+      <c r="A429" s="4" t="s">
         <v>1252</v>
       </c>
       <c r="B429" s="1" t="s">
@@ -18820,7 +18833,7 @@
       </c>
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A430" s="1" t="s">
+      <c r="A430" s="4" t="s">
         <v>1253</v>
       </c>
       <c r="B430" s="1" t="s">
@@ -18852,7 +18865,7 @@
       </c>
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A431" s="1" t="s">
+      <c r="A431" s="4" t="s">
         <v>1254</v>
       </c>
       <c r="B431" s="1" t="s">
@@ -18884,7 +18897,7 @@
       </c>
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A432" s="1" t="s">
+      <c r="A432" s="4" t="s">
         <v>1255</v>
       </c>
       <c r="B432" s="1" t="s">
@@ -18916,7 +18929,7 @@
       </c>
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A433" s="1" t="s">
+      <c r="A433" s="4" t="s">
         <v>1256</v>
       </c>
       <c r="B433" s="1" t="s">
@@ -18948,7 +18961,7 @@
       </c>
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A434" s="1" t="s">
+      <c r="A434" s="4" t="s">
         <v>1257</v>
       </c>
       <c r="B434" s="1" t="s">
@@ -18980,7 +18993,7 @@
       </c>
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A435" s="1" t="s">
+      <c r="A435" s="4" t="s">
         <v>1258</v>
       </c>
       <c r="B435" s="1" t="s">
@@ -19012,7 +19025,7 @@
       </c>
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A436" s="1" t="s">
+      <c r="A436" s="4" t="s">
         <v>1259</v>
       </c>
       <c r="B436" s="1" t="s">
@@ -19044,7 +19057,7 @@
       </c>
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A437" s="1" t="s">
+      <c r="A437" s="4" t="s">
         <v>1319</v>
       </c>
       <c r="B437" s="1" t="s">
@@ -19076,7 +19089,7 @@
       </c>
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A438" s="1" t="s">
+      <c r="A438" s="4" t="s">
         <v>1320</v>
       </c>
       <c r="B438" s="1" t="s">
@@ -19108,7 +19121,7 @@
       </c>
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A439" s="1" t="s">
+      <c r="A439" s="4" t="s">
         <v>1321</v>
       </c>
       <c r="B439" s="1" t="s">
@@ -19137,7 +19150,7 @@
       </c>
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A440" s="1" t="s">
+      <c r="A440" s="4" t="s">
         <v>1322</v>
       </c>
       <c r="B440" s="1" t="s">
@@ -19169,7 +19182,7 @@
       </c>
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A441" s="1" t="s">
+      <c r="A441" s="4" t="s">
         <v>1340</v>
       </c>
       <c r="B441" s="1" t="s">
@@ -19201,7 +19214,7 @@
       </c>
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A442" s="1" t="s">
+      <c r="A442" s="4" t="s">
         <v>1345</v>
       </c>
       <c r="B442" s="1" t="s">
@@ -19541,7 +19554,7 @@
       </c>
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A453" s="1" t="s">
+      <c r="A453" s="4" t="s">
         <v>1439</v>
       </c>
       <c r="B453" s="1" t="s">
@@ -19567,7 +19580,7 @@
       </c>
     </row>
     <row r="454" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A454" s="1" t="s">
+      <c r="A454" s="4" t="s">
         <v>1454</v>
       </c>
       <c r="B454" s="1" t="s">
@@ -19593,7 +19606,7 @@
       </c>
     </row>
     <row r="455" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A455" s="1" t="s">
+      <c r="A455" s="4" t="s">
         <v>1392</v>
       </c>
       <c r="B455" s="1" t="s">
@@ -19622,7 +19635,7 @@
       </c>
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A456" s="1" t="s">
+      <c r="A456" s="4" t="s">
         <v>1393</v>
       </c>
       <c r="B456" s="1" t="s">
@@ -19651,7 +19664,7 @@
       </c>
     </row>
     <row r="457" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A457" s="1" t="s">
+      <c r="A457" s="4" t="s">
         <v>1394</v>
       </c>
       <c r="B457" s="1" t="s">
@@ -19680,7 +19693,7 @@
       </c>
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A458" s="1" t="s">
+      <c r="A458" s="4" t="s">
         <v>1395</v>
       </c>
       <c r="B458" s="1" t="s">
@@ -19709,7 +19722,7 @@
       </c>
     </row>
     <row r="459" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A459" s="1" t="s">
+      <c r="A459" s="4" t="s">
         <v>1396</v>
       </c>
       <c r="B459" s="1" t="s">
@@ -19738,7 +19751,7 @@
       </c>
     </row>
     <row r="460" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A460" s="1" t="s">
+      <c r="A460" s="4" t="s">
         <v>1397</v>
       </c>
       <c r="B460" s="1" t="s">
@@ -19764,7 +19777,7 @@
       </c>
     </row>
     <row r="461" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A461" s="1" t="s">
+      <c r="A461" s="4" t="s">
         <v>1447</v>
       </c>
       <c r="B461" s="1" t="s">
@@ -19793,7 +19806,7 @@
       </c>
     </row>
     <row r="462" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A462" s="1" t="s">
+      <c r="A462" s="4" t="s">
         <v>1398</v>
       </c>
       <c r="B462" s="1" t="s">
@@ -19822,7 +19835,7 @@
       </c>
     </row>
     <row r="463" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A463" s="1" t="s">
+      <c r="A463" s="4" t="s">
         <v>1399</v>
       </c>
       <c r="B463" s="1" t="s">
@@ -19851,7 +19864,7 @@
       </c>
     </row>
     <row r="464" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A464" s="1" t="s">
+      <c r="A464" s="4" t="s">
         <v>1400</v>
       </c>
       <c r="B464" s="1" t="s">
@@ -19880,7 +19893,7 @@
       </c>
     </row>
     <row r="465" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A465" s="1" t="s">
+      <c r="A465" s="4" t="s">
         <v>1401</v>
       </c>
       <c r="B465" s="1" t="s">
@@ -19909,7 +19922,7 @@
       </c>
     </row>
     <row r="466" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A466" s="1" t="s">
+      <c r="A466" s="4" t="s">
         <v>1402</v>
       </c>
       <c r="B466" s="1" t="s">
@@ -19938,7 +19951,7 @@
       </c>
     </row>
     <row r="467" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A467" s="1" t="s">
+      <c r="A467" s="4" t="s">
         <v>1403</v>
       </c>
       <c r="B467" s="1" t="s">
@@ -19967,7 +19980,7 @@
       </c>
     </row>
     <row r="468" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A468" s="1" t="s">
+      <c r="A468" s="4" t="s">
         <v>1462</v>
       </c>
       <c r="B468" s="1" t="s">
@@ -19993,7 +20006,7 @@
       </c>
     </row>
     <row r="469" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A469" s="1" t="s">
+      <c r="A469" s="4" t="s">
         <v>1404</v>
       </c>
       <c r="B469" s="1" t="s">
@@ -20022,7 +20035,7 @@
       </c>
     </row>
     <row r="470" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A470" s="1" t="s">
+      <c r="A470" s="4" t="s">
         <v>1405</v>
       </c>
       <c r="B470" s="1" t="s">
@@ -20051,7 +20064,7 @@
       </c>
     </row>
     <row r="471" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A471" s="1" t="s">
+      <c r="A471" s="4" t="s">
         <v>1406</v>
       </c>
       <c r="B471" s="1" t="s">
@@ -20080,7 +20093,7 @@
       </c>
     </row>
     <row r="472" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A472" s="1" t="s">
+      <c r="A472" s="4" t="s">
         <v>1407</v>
       </c>
       <c r="B472" s="1" t="s">
@@ -20109,7 +20122,7 @@
       </c>
     </row>
     <row r="473" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A473" s="1" t="s">
+      <c r="A473" s="4" t="s">
         <v>1408</v>
       </c>
       <c r="B473" s="1" t="s">
@@ -20138,7 +20151,7 @@
       </c>
     </row>
     <row r="474" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A474" s="1" t="s">
+      <c r="A474" s="4" t="s">
         <v>1409</v>
       </c>
       <c r="B474" s="1" t="s">
@@ -20167,7 +20180,7 @@
       </c>
     </row>
     <row r="475" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A475" s="1" t="s">
+      <c r="A475" s="4" t="s">
         <v>1410</v>
       </c>
       <c r="B475" s="1" t="s">
@@ -20196,7 +20209,7 @@
       </c>
     </row>
     <row r="476" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A476" s="1" t="s">
+      <c r="A476" s="4" t="s">
         <v>1411</v>
       </c>
       <c r="B476" s="1" t="s">
@@ -20225,7 +20238,7 @@
       </c>
     </row>
     <row r="477" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A477" s="1" t="s">
+      <c r="A477" s="4" t="s">
         <v>1412</v>
       </c>
       <c r="B477" s="1" t="s">
@@ -20254,7 +20267,7 @@
       </c>
     </row>
     <row r="478" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A478" s="1" t="s">
+      <c r="A478" s="4" t="s">
         <v>1413</v>
       </c>
       <c r="B478" s="1" t="s">
@@ -20283,7 +20296,7 @@
       </c>
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A479" s="1" t="s">
+      <c r="A479" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="B479" s="1" t="s">
@@ -20312,7 +20325,7 @@
       </c>
     </row>
     <row r="480" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A480" s="1" t="s">
+      <c r="A480" s="4" t="s">
         <v>1477</v>
       </c>
       <c r="B480" s="1" t="s">
@@ -20338,7 +20351,7 @@
       </c>
     </row>
     <row r="481" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A481" s="1" t="s">
+      <c r="A481" s="4" t="s">
         <v>1415</v>
       </c>
       <c r="B481" s="1" t="s">
@@ -20367,7 +20380,7 @@
       </c>
     </row>
     <row r="482" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A482" s="1" t="s">
+      <c r="A482" s="4" t="s">
         <v>1416</v>
       </c>
       <c r="B482" s="1" t="s">
@@ -20396,7 +20409,7 @@
       </c>
     </row>
     <row r="483" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A483" s="1" t="s">
+      <c r="A483" s="4" t="s">
         <v>1417</v>
       </c>
       <c r="B483" s="1" t="s">
@@ -20425,7 +20438,7 @@
       </c>
     </row>
     <row r="484" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A484" s="1" t="s">
+      <c r="A484" s="4" t="s">
         <v>1418</v>
       </c>
       <c r="B484" s="1" t="s">
@@ -20454,7 +20467,7 @@
       </c>
     </row>
     <row r="485" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A485" s="1" t="s">
+      <c r="A485" s="4" t="s">
         <v>1419</v>
       </c>
       <c r="B485" s="1" t="s">
@@ -20483,7 +20496,7 @@
       </c>
     </row>
     <row r="486" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A486" s="1" t="s">
+      <c r="A486" s="4" t="s">
         <v>1420</v>
       </c>
       <c r="B486" s="1" t="s">
@@ -20512,7 +20525,7 @@
       </c>
     </row>
     <row r="487" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A487" s="1" t="s">
+      <c r="A487" s="4" t="s">
         <v>1421</v>
       </c>
       <c r="B487" s="1" t="s">
@@ -20541,7 +20554,7 @@
       </c>
     </row>
     <row r="488" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A488" s="1" t="s">
+      <c r="A488" s="4" t="s">
         <v>1422</v>
       </c>
       <c r="B488" s="1" t="s">
@@ -20570,7 +20583,7 @@
       </c>
     </row>
     <row r="489" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A489" s="1" t="s">
+      <c r="A489" s="4" t="s">
         <v>1423</v>
       </c>
       <c r="B489" s="1" t="s">
@@ -20599,7 +20612,7 @@
       </c>
     </row>
     <row r="490" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A490" s="1" t="s">
+      <c r="A490" s="4" t="s">
         <v>1424</v>
       </c>
       <c r="B490" s="1" t="s">
@@ -20628,7 +20641,7 @@
       </c>
     </row>
     <row r="491" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A491" s="1" t="s">
+      <c r="A491" s="4" t="s">
         <v>1425</v>
       </c>
       <c r="B491" s="1" t="s">
@@ -20657,7 +20670,7 @@
       </c>
     </row>
     <row r="492" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A492" s="1" t="s">
+      <c r="A492" s="4" t="s">
         <v>1426</v>
       </c>
       <c r="B492" s="1" t="s">
@@ -20686,7 +20699,7 @@
       </c>
     </row>
     <row r="493" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A493" s="1" t="s">
+      <c r="A493" s="4" t="s">
         <v>1500</v>
       </c>
       <c r="B493" s="1" t="s">
@@ -20712,7 +20725,7 @@
       </c>
     </row>
     <row r="494" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A494" s="1" t="s">
+      <c r="A494" s="4" t="s">
         <v>1427</v>
       </c>
       <c r="B494" s="1" t="s">
@@ -20741,7 +20754,7 @@
       </c>
     </row>
     <row r="495" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A495" s="1" t="s">
+      <c r="A495" s="4" t="s">
         <v>1428</v>
       </c>
       <c r="B495" s="1" t="s">
@@ -20770,7 +20783,7 @@
       </c>
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A496" s="1" t="s">
+      <c r="A496" s="4" t="s">
         <v>1429</v>
       </c>
       <c r="B496" s="1" t="s">
@@ -20799,7 +20812,7 @@
       </c>
     </row>
     <row r="497" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A497" s="1" t="s">
+      <c r="A497" s="4" t="s">
         <v>1430</v>
       </c>
       <c r="B497" s="1" t="s">
@@ -20828,7 +20841,7 @@
       </c>
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A498" s="1" t="s">
+      <c r="A498" s="4" t="s">
         <v>1431</v>
       </c>
       <c r="B498" s="1" t="s">
@@ -20857,7 +20870,7 @@
       </c>
     </row>
     <row r="499" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A499" s="1" t="s">
+      <c r="A499" s="4" t="s">
         <v>1432</v>
       </c>
       <c r="B499" s="1" t="s">
@@ -20886,7 +20899,7 @@
       </c>
     </row>
     <row r="500" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A500" s="1" t="s">
+      <c r="A500" s="4" t="s">
         <v>1433</v>
       </c>
       <c r="B500" s="1" t="s">
@@ -20915,7 +20928,7 @@
       </c>
     </row>
     <row r="501" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A501" s="1" t="s">
+      <c r="A501" s="4" t="s">
         <v>1492</v>
       </c>
       <c r="B501" s="1" t="s">
@@ -20944,7 +20957,7 @@
       </c>
     </row>
     <row r="502" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A502" s="1" t="s">
+      <c r="A502" s="4" t="s">
         <v>1493</v>
       </c>
       <c r="B502" s="1" t="s">
@@ -20973,7 +20986,7 @@
       </c>
     </row>
     <row r="503" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A503" s="1" t="s">
+      <c r="A503" s="4" t="s">
         <v>1494</v>
       </c>
       <c r="B503" s="1" t="s">
@@ -21002,7 +21015,7 @@
       </c>
     </row>
     <row r="504" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A504" s="1" t="s">
+      <c r="A504" s="4" t="s">
         <v>1495</v>
       </c>
       <c r="B504" s="1" t="s">
@@ -21031,7 +21044,7 @@
       </c>
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A505" s="1" t="s">
+      <c r="A505" s="4" t="s">
         <v>1496</v>
       </c>
       <c r="B505" s="1" t="s">
@@ -21060,7 +21073,7 @@
       </c>
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A506" s="1" t="s">
+      <c r="A506" s="4" t="s">
         <v>1497</v>
       </c>
       <c r="B506" s="1" t="s">
@@ -21089,7 +21102,7 @@
       </c>
     </row>
     <row r="507" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A507" s="1" t="s">
+      <c r="A507" s="4" t="s">
         <v>1498</v>
       </c>
       <c r="B507" s="1" t="s">
@@ -21118,7 +21131,7 @@
       </c>
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A508" s="1" t="s">
+      <c r="A508" s="4" t="s">
         <v>1499</v>
       </c>
       <c r="B508" s="1" t="s">
@@ -21147,7 +21160,7 @@
       </c>
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A509" s="1" t="s">
+      <c r="A509" s="4" t="s">
         <v>1524</v>
       </c>
       <c r="B509" s="1" t="s">
@@ -21176,7 +21189,7 @@
       </c>
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A510" s="1" t="s">
+      <c r="A510" s="4" t="s">
         <v>1535</v>
       </c>
       <c r="B510" s="1" t="s">
@@ -21202,7 +21215,7 @@
       </c>
     </row>
     <row r="511" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A511" s="1" t="s">
+      <c r="A511" s="4" t="s">
         <v>1525</v>
       </c>
       <c r="B511" s="1" t="s">
@@ -21231,7 +21244,7 @@
       </c>
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A512" s="1" t="s">
+      <c r="A512" s="4" t="s">
         <v>1526</v>
       </c>
       <c r="B512" s="1" t="s">
@@ -21260,7 +21273,7 @@
       </c>
     </row>
     <row r="513" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A513" s="1" t="s">
+      <c r="A513" s="4" t="s">
         <v>1527</v>
       </c>
       <c r="B513" s="1" t="s">
@@ -21289,7 +21302,7 @@
       </c>
     </row>
     <row r="514" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A514" s="1" t="s">
+      <c r="A514" s="4" t="s">
         <v>1528</v>
       </c>
       <c r="B514" s="1" t="s">
@@ -21318,7 +21331,7 @@
       </c>
     </row>
     <row r="515" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A515" s="1" t="s">
+      <c r="A515" s="4" t="s">
         <v>1529</v>
       </c>
       <c r="B515" s="1" t="s">
@@ -21347,7 +21360,7 @@
       </c>
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A516" s="1" t="s">
+      <c r="A516" s="4" t="s">
         <v>1530</v>
       </c>
       <c r="B516" s="1" t="s">
@@ -21376,7 +21389,7 @@
       </c>
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A517" s="1" t="s">
+      <c r="A517" s="4" t="s">
         <v>1543</v>
       </c>
       <c r="B517" s="1" t="s">
@@ -21405,7 +21418,7 @@
       </c>
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A518" s="1" t="s">
+      <c r="A518" s="4" t="s">
         <v>1544</v>
       </c>
       <c r="B518" s="1" t="s">
@@ -21434,7 +21447,7 @@
       </c>
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A519" s="1" t="s">
+      <c r="A519" s="4" t="s">
         <v>1545</v>
       </c>
       <c r="B519" s="1" t="s">
@@ -21463,7 +21476,7 @@
       </c>
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A520" s="1" t="s">
+      <c r="A520" s="4" t="s">
         <v>1546</v>
       </c>
       <c r="B520" s="1" t="s">
@@ -21492,7 +21505,7 @@
       </c>
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A521" s="1" t="s">
+      <c r="A521" s="4" t="s">
         <v>1547</v>
       </c>
       <c r="B521" s="1" t="s">
@@ -21521,7 +21534,7 @@
       </c>
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A522" s="1" t="s">
+      <c r="A522" s="4" t="s">
         <v>1548</v>
       </c>
       <c r="B522" s="1" t="s">
@@ -21550,7 +21563,7 @@
       </c>
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A523" s="1" t="s">
+      <c r="A523" s="4" t="s">
         <v>1549</v>
       </c>
       <c r="B523" s="1" t="s">
@@ -21579,7 +21592,7 @@
       </c>
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A524" s="1" t="s">
+      <c r="A524" s="4" t="s">
         <v>1550</v>
       </c>
       <c r="B524" s="1" t="s">
@@ -21608,7 +21621,7 @@
       </c>
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A525" s="1" t="s">
+      <c r="A525" s="4" t="s">
         <v>1551</v>
       </c>
       <c r="B525" s="1" t="s">
@@ -21637,7 +21650,7 @@
       </c>
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A526" s="1" t="s">
+      <c r="A526" s="4" t="s">
         <v>1552</v>
       </c>
       <c r="B526" s="1" t="s">
@@ -21666,7 +21679,7 @@
       </c>
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A527" s="1" t="s">
+      <c r="A527" s="4" t="s">
         <v>1553</v>
       </c>
       <c r="B527" s="1" t="s">
@@ -21695,7 +21708,7 @@
       </c>
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A528" s="1" t="s">
+      <c r="A528" s="4" t="s">
         <v>1554</v>
       </c>
       <c r="B528" s="1" t="s">
@@ -21724,7 +21737,7 @@
       </c>
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A529" s="1" t="s">
+      <c r="A529" s="4" t="s">
         <v>1565</v>
       </c>
       <c r="B529" s="1" t="s">
@@ -21753,7 +21766,7 @@
       </c>
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A530" s="1" t="s">
+      <c r="A530" s="4" t="s">
         <v>1566</v>
       </c>
       <c r="B530" s="1" t="s">
@@ -21782,7 +21795,7 @@
       </c>
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A531" s="1" t="s">
+      <c r="A531" s="4" t="s">
         <v>1567</v>
       </c>
       <c r="B531" s="1" t="s">
@@ -21811,7 +21824,7 @@
       </c>
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A532" s="1" t="s">
+      <c r="A532" s="4" t="s">
         <v>1568</v>
       </c>
       <c r="B532" s="1" t="s">
@@ -21840,7 +21853,7 @@
       </c>
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A533" s="1" t="s">
+      <c r="A533" s="4" t="s">
         <v>1580</v>
       </c>
       <c r="B533" s="1" t="s">
@@ -21869,7 +21882,7 @@
       </c>
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A534" s="1" t="s">
+      <c r="A534" s="4" t="s">
         <v>1581</v>
       </c>
       <c r="B534" s="1" t="s">
@@ -21898,7 +21911,7 @@
       </c>
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A535" s="1" t="s">
+      <c r="A535" s="4" t="s">
         <v>1582</v>
       </c>
       <c r="B535" s="1" t="s">
@@ -21927,7 +21940,7 @@
       </c>
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A536" s="1" t="s">
+      <c r="A536" s="4" t="s">
         <v>1583</v>
       </c>
       <c r="B536" s="1" t="s">
@@ -21956,7 +21969,7 @@
       </c>
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A537" s="1" t="s">
+      <c r="A537" s="4" t="s">
         <v>1584</v>
       </c>
       <c r="B537" s="1" t="s">
@@ -21985,7 +21998,7 @@
       </c>
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A538" s="1" t="s">
+      <c r="A538" s="4" t="s">
         <v>1585</v>
       </c>
       <c r="B538" s="1" t="s">
@@ -22014,7 +22027,7 @@
       </c>
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A539" s="1" t="s">
+      <c r="A539" s="4" t="s">
         <v>1586</v>
       </c>
       <c r="B539" s="1" t="s">
@@ -22043,7 +22056,7 @@
       </c>
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A540" s="1" t="s">
+      <c r="A540" s="4" t="s">
         <v>1587</v>
       </c>
       <c r="B540" s="1" t="s">
@@ -22072,7 +22085,7 @@
       </c>
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A541" s="1" t="s">
+      <c r="A541" s="4" t="s">
         <v>1590</v>
       </c>
       <c r="B541" s="1" t="s">
@@ -22101,7 +22114,7 @@
       </c>
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A542" s="1" t="s">
+      <c r="A542" s="4" t="s">
         <v>1591</v>
       </c>
       <c r="B542" s="1" t="s">
@@ -22130,7 +22143,7 @@
       </c>
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A543" s="1" t="s">
+      <c r="A543" s="4" t="s">
         <v>1592</v>
       </c>
       <c r="B543" s="1" t="s">
@@ -22159,7 +22172,7 @@
       </c>
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A544" s="1" t="s">
+      <c r="A544" s="4" t="s">
         <v>1593</v>
       </c>
       <c r="B544" s="1" t="s">
@@ -22188,7 +22201,7 @@
       </c>
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A545" s="1" t="s">
+      <c r="A545" s="4" t="s">
         <v>1594</v>
       </c>
       <c r="B545" s="1" t="s">
@@ -22217,7 +22230,7 @@
       </c>
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A546" s="1" t="s">
+      <c r="A546" s="4" t="s">
         <v>1595</v>
       </c>
       <c r="B546" s="1" t="s">
@@ -22246,7 +22259,7 @@
       </c>
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A547" s="1" t="s">
+      <c r="A547" s="4" t="s">
         <v>1596</v>
       </c>
       <c r="B547" s="1" t="s">
@@ -22275,7 +22288,7 @@
       </c>
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A548" s="1" t="s">
+      <c r="A548" s="4" t="s">
         <v>1598</v>
       </c>
       <c r="B548" s="1" t="s">
@@ -22304,7 +22317,7 @@
       </c>
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A549" s="1" t="s">
+      <c r="A549" s="4" t="s">
         <v>1599</v>
       </c>
       <c r="B549" s="1" t="s">
@@ -22333,7 +22346,7 @@
       </c>
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A550" s="1" t="s">
+      <c r="A550" s="4" t="s">
         <v>1600</v>
       </c>
       <c r="B550" s="1" t="s">
@@ -22362,7 +22375,7 @@
       </c>
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A551" s="1" t="s">
+      <c r="A551" s="4" t="s">
         <v>1601</v>
       </c>
       <c r="B551" s="1" t="s">
@@ -22391,7 +22404,7 @@
       </c>
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A552" s="1" t="s">
+      <c r="A552" s="4" t="s">
         <v>1602</v>
       </c>
       <c r="B552" s="1" t="s">
@@ -22420,7 +22433,7 @@
       </c>
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A553" s="1" t="s">
+      <c r="A553" s="4" t="s">
         <v>1603</v>
       </c>
       <c r="B553" s="1" t="s">
@@ -22449,7 +22462,7 @@
       </c>
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A554" s="1" t="s">
+      <c r="A554" s="4" t="s">
         <v>1625</v>
       </c>
       <c r="B554" s="1" t="s">
@@ -22478,7 +22491,7 @@
       </c>
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A555" s="1" t="s">
+      <c r="A555" s="4" t="s">
         <v>1626</v>
       </c>
       <c r="B555" s="1" t="s">
@@ -22507,7 +22520,7 @@
       </c>
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A556" s="1" t="s">
+      <c r="A556" s="4" t="s">
         <v>1627</v>
       </c>
       <c r="B556" s="1" t="s">
@@ -22536,7 +22549,7 @@
       </c>
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A557" s="1" t="s">
+      <c r="A557" s="4" t="s">
         <v>1635</v>
       </c>
       <c r="B557" s="1" t="s">
@@ -22562,7 +22575,7 @@
       </c>
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A558" s="1" t="s">
+      <c r="A558" s="4" t="s">
         <v>1628</v>
       </c>
       <c r="B558" s="1" t="s">
@@ -22591,7 +22604,7 @@
       </c>
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A559" s="1" t="s">
+      <c r="A559" s="4" t="s">
         <v>1638</v>
       </c>
       <c r="B559" s="1" t="s">
@@ -22620,7 +22633,7 @@
       </c>
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A560" s="1" t="s">
+      <c r="A560" s="4" t="s">
         <v>1644</v>
       </c>
       <c r="B560" s="1" t="s">

--- a/src/test/resources/io.dingodb.test/testdata/cases/negative/sql_negative_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/cases/negative/sql_negative_cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5037" uniqueCount="1661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5044" uniqueCount="1666">
   <si>
     <t>TestID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6112,6 +6112,25 @@
   </si>
   <si>
     <t>create table neg_563(id timestamp auto_increment, name varchar(35), age int, amount double, primary key(id))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_564</t>
+  </si>
+  <si>
+    <t>删除表判断是否存在，表不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drop table if exists negative_564_schema17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR 24465 (90001): Table NEGATIVE_564_SCHEMA17 does not exist</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6477,10 +6496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K564"/>
+  <dimension ref="A1:K565"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A536" workbookViewId="0">
+      <selection activeCell="G541" sqref="G541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -22735,6 +22754,29 @@
         <v>1660</v>
       </c>
       <c r="K564" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="565" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A565" s="1" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B565" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C565" s="1" t="s">
+        <v>1662</v>
+      </c>
+      <c r="D565" s="1" t="s">
+        <v>1663</v>
+      </c>
+      <c r="I565" s="1" t="s">
+        <v>1664</v>
+      </c>
+      <c r="J565" s="1" t="s">
+        <v>1665</v>
+      </c>
+      <c r="K565" s="1" t="s">
         <v>29</v>
       </c>
     </row>

--- a/src/test/resources/io.dingodb.test/testdata/cases/negative/sql_negative_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/cases/negative/sql_negative_cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5044" uniqueCount="1666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5056" uniqueCount="1672">
   <si>
     <t>TestID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6131,6 +6131,28 @@
   </si>
   <si>
     <t>ERROR 24465 (90001): Table NEGATIVE_564_SCHEMA17 does not exist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_565</t>
+  </si>
+  <si>
+    <t>negative_566</t>
+  </si>
+  <si>
+    <t>创建表指定主键字段名不存在，预期创建失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table neg_566(uuid varchar(20), phone varchar(11), birthday date, primary key(ppid))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table neg_565(id int, name varchar(20), age int, amount double, birthday date, primary key(id,nama,age))</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6496,10 +6518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K565"/>
+  <dimension ref="A1:K567"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A536" workbookViewId="0">
-      <selection activeCell="G541" sqref="G541"/>
+    <sheetView tabSelected="1" topLeftCell="A548" workbookViewId="0">
+      <selection activeCell="A569" sqref="A569"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -22777,6 +22799,46 @@
         <v>1665</v>
       </c>
       <c r="K565" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="566" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A566" s="1" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B566" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C566" s="1" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D566" s="1" t="s">
+        <v>1669</v>
+      </c>
+      <c r="I566" s="1" t="s">
+        <v>1671</v>
+      </c>
+      <c r="K566" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="567" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A567" s="1" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B567" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C567" s="1" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D567" s="1" t="s">
+        <v>1669</v>
+      </c>
+      <c r="I567" s="1" t="s">
+        <v>1670</v>
+      </c>
+      <c r="K567" s="1" t="s">
         <v>29</v>
       </c>
     </row>

--- a/src/test/resources/io.dingodb.test/testdata/cases/negative/sql_negative_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/cases/negative/sql_negative_cases.xlsx
@@ -6520,8 +6520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K567"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A548" workbookViewId="0">
-      <selection activeCell="A569" sqref="A569"/>
+    <sheetView tabSelected="1" topLeftCell="A531" workbookViewId="0">
+      <selection activeCell="B440" sqref="B440"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15891,7 +15891,7 @@
         <v>1062</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C336" s="1" t="s">
         <v>1135</v>
@@ -15920,7 +15920,7 @@
         <v>1048</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C337" s="1" t="s">
         <v>1135</v>
@@ -15952,7 +15952,7 @@
         <v>1049</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C338" s="1" t="s">
         <v>1135</v>
@@ -15984,7 +15984,7 @@
         <v>1050</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C339" s="1" t="s">
         <v>1135</v>
@@ -16016,7 +16016,7 @@
         <v>1051</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>1135</v>
@@ -16048,7 +16048,7 @@
         <v>1052</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>1135</v>
@@ -16077,7 +16077,7 @@
         <v>1053</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C342" s="1" t="s">
         <v>1135</v>
@@ -16109,7 +16109,7 @@
         <v>1054</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C343" s="1" t="s">
         <v>1135</v>
@@ -16141,7 +16141,7 @@
         <v>1055</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C344" s="1" t="s">
         <v>1135</v>
@@ -16170,7 +16170,7 @@
         <v>1056</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>1135</v>
@@ -16202,7 +16202,7 @@
         <v>1057</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C346" s="1" t="s">
         <v>1135</v>
@@ -16234,7 +16234,7 @@
         <v>1058</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C347" s="1" t="s">
         <v>1135</v>
@@ -16266,7 +16266,7 @@
         <v>1059</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C348" s="1" t="s">
         <v>1135</v>
@@ -16295,7 +16295,7 @@
         <v>1060</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C349" s="1" t="s">
         <v>1135</v>
@@ -16327,7 +16327,7 @@
         <v>1077</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C350" s="1" t="s">
         <v>1135</v>
@@ -16359,7 +16359,7 @@
         <v>1078</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C351" s="1" t="s">
         <v>1135</v>
@@ -16391,7 +16391,7 @@
         <v>1079</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C352" s="1" t="s">
         <v>1135</v>
@@ -16420,7 +16420,7 @@
         <v>1080</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C353" s="1" t="s">
         <v>1135</v>
@@ -16452,7 +16452,7 @@
         <v>1081</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C354" s="1" t="s">
         <v>1135</v>
@@ -16484,7 +16484,7 @@
         <v>1082</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C355" s="1" t="s">
         <v>1135</v>
@@ -16513,7 +16513,7 @@
         <v>1083</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C356" s="1" t="s">
         <v>1135</v>
@@ -16545,7 +16545,7 @@
         <v>1084</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C357" s="1" t="s">
         <v>1135</v>
@@ -16577,7 +16577,7 @@
         <v>1085</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C358" s="1" t="s">
         <v>1135</v>
@@ -16609,7 +16609,7 @@
         <v>1086</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C359" s="1" t="s">
         <v>1135</v>
@@ -16641,7 +16641,7 @@
         <v>1087</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C360" s="1" t="s">
         <v>1135</v>
@@ -16670,7 +16670,7 @@
         <v>1088</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C361" s="1" t="s">
         <v>1135</v>
@@ -16702,7 +16702,7 @@
         <v>1089</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C362" s="1" t="s">
         <v>1135</v>
@@ -16734,7 +16734,7 @@
         <v>1112</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C363" s="1" t="s">
         <v>1135</v>
@@ -16766,7 +16766,7 @@
         <v>1113</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C364" s="1" t="s">
         <v>1135</v>
@@ -16798,7 +16798,7 @@
         <v>1114</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C365" s="1" t="s">
         <v>1135</v>
@@ -16830,7 +16830,7 @@
         <v>1115</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C366" s="1" t="s">
         <v>1135</v>
@@ -16862,7 +16862,7 @@
         <v>1116</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C367" s="1" t="s">
         <v>1134</v>
@@ -16894,7 +16894,7 @@
         <v>1117</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C368" s="1" t="s">
         <v>1134</v>
@@ -16926,7 +16926,7 @@
         <v>1118</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C369" s="1" t="s">
         <v>1134</v>
@@ -16958,7 +16958,7 @@
         <v>1119</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C370" s="1" t="s">
         <v>1134</v>
@@ -16990,7 +16990,7 @@
         <v>1120</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C371" s="1" t="s">
         <v>1134</v>
@@ -17022,7 +17022,7 @@
         <v>1121</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C372" s="1" t="s">
         <v>1134</v>
@@ -17054,7 +17054,7 @@
         <v>1122</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C373" s="1" t="s">
         <v>1134</v>
@@ -17086,7 +17086,7 @@
         <v>1123</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C374" s="1" t="s">
         <v>1134</v>
@@ -17118,7 +17118,7 @@
         <v>1124</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C375" s="1" t="s">
         <v>1134</v>
@@ -17150,7 +17150,7 @@
         <v>1155</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C376" s="1" t="s">
         <v>1134</v>
@@ -17182,7 +17182,7 @@
         <v>1156</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C377" s="1" t="s">
         <v>1134</v>
@@ -17214,7 +17214,7 @@
         <v>1157</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C378" s="1" t="s">
         <v>1134</v>
@@ -17246,7 +17246,7 @@
         <v>1158</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C379" s="1" t="s">
         <v>1134</v>
@@ -17278,7 +17278,7 @@
         <v>1159</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C380" s="1" t="s">
         <v>1134</v>
@@ -17310,7 +17310,7 @@
         <v>1160</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C381" s="1" t="s">
         <v>1134</v>
@@ -17342,7 +17342,7 @@
         <v>1161</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C382" s="1" t="s">
         <v>1134</v>
@@ -17374,7 +17374,7 @@
         <v>1162</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C383" s="1" t="s">
         <v>1134</v>
@@ -17406,7 +17406,7 @@
         <v>1163</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C384" s="1" t="s">
         <v>1134</v>
@@ -17438,7 +17438,7 @@
         <v>1164</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C385" s="1" t="s">
         <v>1134</v>
@@ -17470,7 +17470,7 @@
         <v>1165</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C386" s="1" t="s">
         <v>1134</v>
@@ -17502,7 +17502,7 @@
         <v>1166</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C387" s="1" t="s">
         <v>1134</v>
@@ -17534,7 +17534,7 @@
         <v>1167</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C388" s="1" t="s">
         <v>1134</v>
@@ -17566,7 +17566,7 @@
         <v>1187</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C389" s="1" t="s">
         <v>1134</v>
@@ -17598,7 +17598,7 @@
         <v>1188</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C390" s="1" t="s">
         <v>1134</v>
@@ -17630,7 +17630,7 @@
         <v>1189</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C391" s="1" t="s">
         <v>1134</v>
@@ -17662,7 +17662,7 @@
         <v>1190</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C392" s="1" t="s">
         <v>1134</v>
@@ -17694,7 +17694,7 @@
         <v>1191</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C393" s="1" t="s">
         <v>1134</v>
@@ -17726,7 +17726,7 @@
         <v>1192</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C394" s="1" t="s">
         <v>1134</v>
@@ -17758,7 +17758,7 @@
         <v>1193</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C395" s="1" t="s">
         <v>1134</v>
@@ -17790,7 +17790,7 @@
         <v>1194</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C396" s="1" t="s">
         <v>1134</v>
@@ -17822,7 +17822,7 @@
         <v>1195</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C397" s="1" t="s">
         <v>1134</v>
@@ -17854,7 +17854,7 @@
         <v>1196</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C398" s="1" t="s">
         <v>1260</v>
@@ -17886,7 +17886,7 @@
         <v>1197</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C399" s="1" t="s">
         <v>1260</v>
@@ -17918,7 +17918,7 @@
         <v>1198</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C400" s="1" t="s">
         <v>1260</v>
@@ -17950,7 +17950,7 @@
         <v>1199</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C401" s="1" t="s">
         <v>1260</v>
@@ -17982,7 +17982,7 @@
         <v>1225</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C402" s="1" t="s">
         <v>1260</v>
@@ -18014,7 +18014,7 @@
         <v>1226</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C403" s="1" t="s">
         <v>1260</v>
@@ -18046,7 +18046,7 @@
         <v>1227</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C404" s="1" t="s">
         <v>1260</v>
@@ -18078,7 +18078,7 @@
         <v>1228</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C405" s="1" t="s">
         <v>1260</v>
@@ -18110,7 +18110,7 @@
         <v>1229</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C406" s="1" t="s">
         <v>1260</v>
@@ -18142,7 +18142,7 @@
         <v>1230</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C407" s="1" t="s">
         <v>1260</v>
@@ -18174,7 +18174,7 @@
         <v>1231</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C408" s="1" t="s">
         <v>1260</v>
@@ -18206,7 +18206,7 @@
         <v>1232</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C409" s="1" t="s">
         <v>1260</v>
@@ -18238,7 +18238,7 @@
         <v>1233</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C410" s="1" t="s">
         <v>1260</v>
@@ -18270,7 +18270,7 @@
         <v>1234</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C411" s="1" t="s">
         <v>1260</v>
@@ -18302,7 +18302,7 @@
         <v>1235</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C412" s="1" t="s">
         <v>1260</v>
@@ -18334,7 +18334,7 @@
         <v>1236</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C413" s="1" t="s">
         <v>1260</v>
@@ -18366,7 +18366,7 @@
         <v>1237</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C414" s="1" t="s">
         <v>1260</v>
@@ -18398,7 +18398,7 @@
         <v>1238</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C415" s="1" t="s">
         <v>1260</v>
@@ -18430,7 +18430,7 @@
         <v>1239</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C416" s="1" t="s">
         <v>1260</v>
@@ -18462,7 +18462,7 @@
         <v>1240</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C417" s="1" t="s">
         <v>1260</v>
@@ -18494,7 +18494,7 @@
         <v>1241</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C418" s="1" t="s">
         <v>1260</v>
@@ -18526,7 +18526,7 @@
         <v>1242</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C419" s="1" t="s">
         <v>1260</v>
@@ -18558,7 +18558,7 @@
         <v>1243</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C420" s="1" t="s">
         <v>1260</v>
@@ -18590,7 +18590,7 @@
         <v>1244</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C421" s="1" t="s">
         <v>1299</v>
@@ -18622,7 +18622,7 @@
         <v>1245</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C422" s="1" t="s">
         <v>1299</v>
@@ -18654,7 +18654,7 @@
         <v>1246</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C423" s="1" t="s">
         <v>1299</v>
@@ -18686,7 +18686,7 @@
         <v>1247</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C424" s="1" t="s">
         <v>1299</v>
@@ -18718,7 +18718,7 @@
         <v>1248</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C425" s="1" t="s">
         <v>1299</v>
@@ -18750,7 +18750,7 @@
         <v>1249</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C426" s="1" t="s">
         <v>1299</v>
@@ -18782,7 +18782,7 @@
         <v>1250</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C427" s="1" t="s">
         <v>1299</v>
@@ -18814,7 +18814,7 @@
         <v>1251</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C428" s="1" t="s">
         <v>1307</v>
@@ -18846,7 +18846,7 @@
         <v>1252</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C429" s="1" t="s">
         <v>1307</v>
@@ -18878,7 +18878,7 @@
         <v>1253</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C430" s="1" t="s">
         <v>1307</v>
@@ -18910,7 +18910,7 @@
         <v>1254</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C431" s="1" t="s">
         <v>1307</v>
@@ -18942,7 +18942,7 @@
         <v>1255</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C432" s="1" t="s">
         <v>1307</v>
@@ -18974,7 +18974,7 @@
         <v>1256</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C433" s="1" t="s">
         <v>1307</v>
@@ -19006,7 +19006,7 @@
         <v>1257</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C434" s="1" t="s">
         <v>1318</v>
@@ -19038,7 +19038,7 @@
         <v>1258</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C435" s="1" t="s">
         <v>1318</v>
@@ -19070,7 +19070,7 @@
         <v>1259</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C436" s="1" t="s">
         <v>1318</v>
@@ -19102,7 +19102,7 @@
         <v>1319</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C437" s="1" t="s">
         <v>1318</v>
@@ -19134,7 +19134,7 @@
         <v>1320</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C438" s="1" t="s">
         <v>1318</v>
@@ -19166,7 +19166,7 @@
         <v>1321</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C439" s="1" t="s">
         <v>1333</v>
@@ -19195,7 +19195,7 @@
         <v>1322</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C440" s="1" t="s">
         <v>1333</v>
@@ -19227,7 +19227,7 @@
         <v>1340</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C441" s="1" t="s">
         <v>1341</v>
@@ -19259,7 +19259,7 @@
         <v>1345</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>1647</v>
+        <v>25</v>
       </c>
       <c r="C442" s="1" t="s">
         <v>1346</v>

--- a/src/test/resources/io.dingodb.test/testdata/cases/negative/sql_negative_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/cases/negative/sql_negative_cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5056" uniqueCount="1672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5063" uniqueCount="1676">
   <si>
     <t>TestID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6153,6 +6153,21 @@
   </si>
   <si>
     <t>create table neg_565(id int, name varchar(20), age int, amount double, birthday date, primary key(id,nama,age))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_567</t>
+  </si>
+  <si>
+    <t>创建表，指定两个自增字段不支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">create table neg_567(id int auto_increment, age int auto_increment, name varchar(20), amount double, primary key(id)) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR 9001 (45000): table definition illegal, multi auto_increment column</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6518,10 +6533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K567"/>
+  <dimension ref="A1:K568"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A531" workbookViewId="0">
-      <selection activeCell="B440" sqref="B440"/>
+    <sheetView tabSelected="1" topLeftCell="A552" workbookViewId="0">
+      <selection activeCell="C574" sqref="C574"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -22839,6 +22854,29 @@
         <v>1670</v>
       </c>
       <c r="K567" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="568" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A568" s="1" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B568" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C568" s="1" t="s">
+        <v>1673</v>
+      </c>
+      <c r="D568" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="I568" s="1" t="s">
+        <v>1674</v>
+      </c>
+      <c r="J568" s="1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="K568" s="1" t="s">
         <v>29</v>
       </c>
     </row>

--- a/src/test/resources/io.dingodb.test/testdata/cases/negative/sql_negative_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/cases/negative/sql_negative_cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5063" uniqueCount="1676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5091" uniqueCount="1692">
   <si>
     <t>TestID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6163,11 +6163,132 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ERROR 9001 (45000): table definition illegal, multi auto_increment column</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_568</t>
+  </si>
+  <si>
+    <t>创建标量索引表，非主键索引按主键分区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE TABLE neg_568 (
+    id bigint,
+    name varchar(32),
+    age int,
+    gmt bigint,
+    price FLOAT,
+    amount DOUBLE,
+    address varchar(255),
+    birthday DATE,
+    create_time TIME,
+    update_time TIMESTAMP,
+    zip_code varchar(20),
+    is_delete boolean,
+    PRIMARY KEY (id),
+    index gmt_index (gmt) partition by range(id) values(10),(20)
+)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR 9001 (45000): Partition columns must be equals primary key columns, but [ID]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">create table neg_567(id int auto_increment, age int auto_increment, name varchar(20), amount double, primary key(id)) </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ERROR 9001 (45000): table definition illegal, multi auto_increment column</t>
+    <t>negative_569</t>
+  </si>
+  <si>
+    <t>创建标量索引表，按非索引字段和非主键字段分区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE TABLE neg_569 (
+    id bigint,
+    name varchar(32),
+    age int,
+    gmt bigint,
+    price FLOAT,
+    amount DOUBLE,
+    address varchar(255),
+    birthday DATE,
+    create_time TIME,
+    update_time TIMESTAMP,
+    zip_code varchar(20),
+    is_delete boolean,
+    PRIMARY KEY (id),
+    index gmt_index (gmt) partition by range(age) values(10),(20)
+)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR 9001 (45000): Partition columns must be equals primary key columns, but [AGE]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_570</t>
+  </si>
+  <si>
+    <t>索引分区值和索引字段类型不一致，建表失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE TABLE neg_570 (
+    id bigint,
+    name varchar(32),
+    age int,
+    gmt bigint,
+    price FLOAT,
+    amount DOUBLE,
+    address varchar(255),
+    birthday DATE,
+    create_time TIME,
+    update_time TIMESTAMP,
+    zip_code varchar(20),
+    is_delete boolean,
+    PRIMARY KEY (id),
+    index name_index (name),
+    index age_index (age) partition by range values ('Z'),('z')
+)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR 3001 (45000): For input string: "Z"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_571</t>
+  </si>
+  <si>
+    <t>单字段索引，分区值大于2，建表失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE TABLE neg_571 (
+    id bigint,
+    name varchar(32),
+    age int,
+    gmt bigint,
+    price FLOAT,
+    amount DOUBLE,
+    address varchar(255),
+    birthday DATE,
+    create_time TIME,
+    update_time TIMESTAMP,
+    zip_code varchar(20),
+    is_delete boolean,
+    PRIMARY KEY (id),
+    index name_index (name) partition by range values ('Z',10,'a'),('z',20,'b')
+)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR 9001 (45000): Partition values count must be &lt;= key columns count, but values count is 3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6226,12 +6347,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6533,10 +6657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K568"/>
+  <dimension ref="A1:K572"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A552" workbookViewId="0">
-      <selection activeCell="C574" sqref="C574"/>
+    <sheetView tabSelected="1" topLeftCell="D571" workbookViewId="0">
+      <selection activeCell="I571" sqref="I571"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -22871,12 +22995,104 @@
         <v>981</v>
       </c>
       <c r="I568" s="1" t="s">
+        <v>1679</v>
+      </c>
+      <c r="J568" s="1" t="s">
         <v>1674</v>
       </c>
-      <c r="J568" s="1" t="s">
+      <c r="K568" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="569" spans="1:11" ht="216" x14ac:dyDescent="0.15">
+      <c r="A569" s="1" t="s">
         <v>1675</v>
       </c>
-      <c r="K568" s="1" t="s">
+      <c r="B569" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C569" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="D569" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="I569" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="J569" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K569" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="570" spans="1:11" ht="216" x14ac:dyDescent="0.15">
+      <c r="A570" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B570" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C570" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D570" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="I570" s="5" t="s">
+        <v>1682</v>
+      </c>
+      <c r="J570" s="1" t="s">
+        <v>1683</v>
+      </c>
+      <c r="K570" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="571" spans="1:11" ht="229.5" x14ac:dyDescent="0.15">
+      <c r="A571" s="1" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B571" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C571" s="1" t="s">
+        <v>1685</v>
+      </c>
+      <c r="D571" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="I571" s="5" t="s">
+        <v>1686</v>
+      </c>
+      <c r="J571" s="1" t="s">
+        <v>1687</v>
+      </c>
+      <c r="K571" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="572" spans="1:11" ht="216" x14ac:dyDescent="0.15">
+      <c r="A572" s="1" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B572" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C572" s="1" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D572" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="I572" s="5" t="s">
+        <v>1690</v>
+      </c>
+      <c r="J572" s="1" t="s">
+        <v>1691</v>
+      </c>
+      <c r="K572" s="1" t="s">
         <v>29</v>
       </c>
     </row>

--- a/src/test/resources/io.dingodb.test/testdata/cases/negative/sql_negative_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/cases/negative/sql_negative_cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5091" uniqueCount="1692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5103" uniqueCount="1697">
   <si>
     <t>TestID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6289,6 +6289,40 @@
   </si>
   <si>
     <t>ERROR 9001 (45000): Partition values count must be &lt;= key columns count, but values count is 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_572</t>
+  </si>
+  <si>
+    <t>三节点集群，索引副本数4，创建失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scalar_index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR 9001 (45000): Not enough regions is created</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table neg_572 (
+    id bigint,
+    name varchar(32),
+    age int,
+    gmt bigint,
+    price FLOAT,
+    amount DOUBLE,
+    address varchar(255),
+    birthday DATE,
+    create_time TIME,
+    update_time TIMESTAMP,
+    zip_code varchar(20),
+    is_delete boolean,
+    PRIMARY KEY (id,name,birthday),
+    index age_index (age) replica=4
+)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6657,10 +6691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K572"/>
+  <dimension ref="A1:K573"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D571" workbookViewId="0">
-      <selection activeCell="I571" sqref="I571"/>
+    <sheetView tabSelected="1" topLeftCell="D572" workbookViewId="0">
+      <selection activeCell="H573" sqref="H573"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -23017,6 +23051,9 @@
       <c r="D569" s="1" t="s">
         <v>981</v>
       </c>
+      <c r="E569" s="1" t="s">
+        <v>1694</v>
+      </c>
       <c r="I569" s="5" t="s">
         <v>1677</v>
       </c>
@@ -23040,6 +23077,9 @@
       <c r="D570" s="1" t="s">
         <v>981</v>
       </c>
+      <c r="E570" s="1" t="s">
+        <v>1694</v>
+      </c>
       <c r="I570" s="5" t="s">
         <v>1682</v>
       </c>
@@ -23063,6 +23103,9 @@
       <c r="D571" s="1" t="s">
         <v>981</v>
       </c>
+      <c r="E571" s="1" t="s">
+        <v>1694</v>
+      </c>
       <c r="I571" s="5" t="s">
         <v>1686</v>
       </c>
@@ -23086,6 +23129,9 @@
       <c r="D572" s="1" t="s">
         <v>981</v>
       </c>
+      <c r="E572" s="1" t="s">
+        <v>1694</v>
+      </c>
       <c r="I572" s="5" t="s">
         <v>1690</v>
       </c>
@@ -23093,6 +23139,32 @@
         <v>1691</v>
       </c>
       <c r="K572" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="573" spans="1:11" ht="216" x14ac:dyDescent="0.15">
+      <c r="A573" s="1" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B573" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C573" s="1" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D573" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="E573" s="1" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I573" s="5" t="s">
+        <v>1696</v>
+      </c>
+      <c r="J573" s="1" t="s">
+        <v>1695</v>
+      </c>
+      <c r="K573" s="1" t="s">
         <v>29</v>
       </c>
     </row>

--- a/src/test/resources/io.dingodb.test/testdata/cases/negative/sql_negative_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/cases/negative/sql_negative_cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5103" uniqueCount="1697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5149" uniqueCount="1720">
   <si>
     <t>TestID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6323,6 +6323,146 @@
     PRIMARY KEY (id,name,birthday),
     index age_index (age) replica=4
 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_573</t>
+  </si>
+  <si>
+    <t>negative_574</t>
+  </si>
+  <si>
+    <t>向量索引距离类型为不支持的类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector_index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向量索引类型为不支持的近似搜索算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table neg_573 (
+    id bigint not null, 
+    name varchar(32),
+    age int,
+    amount double,
+    feature float array not null,
+    feature_id bigint not null,
+    index feature_index vector(feature_id, feature) parameters(type=hnsw, metricType=jaccard, dimension=64, efConstruction=40, nlinks=32),
+    primary key(id)
+)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table neg_574 (
+    id bigint not null, 
+    name varchar(32),
+    age int,
+    amount double,
+    feature float array not null,
+    feature_id bigint not null,
+    index feature_index vector(feature_id, feature) parameters(type=scann, metricType=L2, dimension=64),
+    primary key(id)
+)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_575</t>
+  </si>
+  <si>
+    <t>向量索引表创建缺少维度参数，创建失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE TABLE neg_575 (
+    id bigint not null, 
+    name varchar(32),
+    age int,
+    amount double,
+    feature float array not null,
+    feature_id bigint not null,
+    index feature_index vector(feature_id, feature) parameters(type=hnsw, metricType=L2),
+    primary key(id)
+)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR 9001 (45000): FEATURE_INDEX vector index dimension is null.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table neg_576 (
+    id bigint not null, 
+    name varchar(32),
+    age int,
+    amount double,
+    feature float array not null,
+    feature_id bigint not null,
+    primary key(id),
+    index feature_index vector(feature_id, feature) partition by range values (100,10) parameters(type=hnsw, metricType=L2, dimension=32, efConstruction=40, nlinks=32)
+)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR 9001 (45000): Partition values count must be &lt;= key columns count, but values count is 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_576</t>
+  </si>
+  <si>
+    <t>向量索引分区元素值超过主键数，建表失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_577</t>
+  </si>
+  <si>
+    <t>向量索引分区元素类型不符，建表失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table neg_577 (
+    id bigint not null, 
+    name varchar(32),
+    age int,
+    amount double,
+    feature float array not null,
+    feature_id bigint not null,
+    primary key(id),
+    index feature_index vector(feature_id, feature) partition by range values ('Dingo') parameters(type=hnsw, metricType=L2, dimension=32, efConstruction=40, nlinks=32)
+)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR 3001 (45000): For input string: "Dingo"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE TABLE neg_578 (
+    id bigint not null, 
+    name varchar(32),
+    age int,
+    amount double,
+    feature float array not null,
+    feature_id bigint not null,
+    primary key(id),
+    index feature_index vector(feature_id, feature) replica=4 parameters(type=hnsw, metricType=L2, dimension=32, efConstruction=40, nlinks=32)
+)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_578</t>
+  </si>
+  <si>
+    <t>三节点集群指定副本数大于3，创建失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR 9001 (45000): Not enough regions is created</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6691,10 +6831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K573"/>
+  <dimension ref="A1:K579"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D572" workbookViewId="0">
-      <selection activeCell="H573" sqref="H573"/>
+    <sheetView tabSelected="1" topLeftCell="D578" workbookViewId="0">
+      <selection activeCell="J589" sqref="J589"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -23165,6 +23305,156 @@
         <v>1695</v>
       </c>
       <c r="K573" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="574" spans="1:11" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A574" s="1" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B574" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C574" s="1" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D574" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="E574" s="1" t="s">
+        <v>1700</v>
+      </c>
+      <c r="I574" s="5" t="s">
+        <v>1702</v>
+      </c>
+      <c r="K574" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="575" spans="1:11" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A575" s="1" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B575" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C575" s="1" t="s">
+        <v>1699</v>
+      </c>
+      <c r="D575" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="E575" s="1" t="s">
+        <v>1700</v>
+      </c>
+      <c r="I575" s="5" t="s">
+        <v>1703</v>
+      </c>
+      <c r="K575" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="576" spans="1:11" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A576" s="1" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B576" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C576" s="1" t="s">
+        <v>1705</v>
+      </c>
+      <c r="D576" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="E576" s="1" t="s">
+        <v>1700</v>
+      </c>
+      <c r="I576" s="5" t="s">
+        <v>1706</v>
+      </c>
+      <c r="J576" s="1" t="s">
+        <v>1707</v>
+      </c>
+      <c r="K576" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="577" spans="1:11" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A577" s="1" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B577" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C577" s="1" t="s">
+        <v>1711</v>
+      </c>
+      <c r="D577" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="E577" s="1" t="s">
+        <v>1700</v>
+      </c>
+      <c r="I577" s="5" t="s">
+        <v>1708</v>
+      </c>
+      <c r="J577" s="1" t="s">
+        <v>1709</v>
+      </c>
+      <c r="K577" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="578" spans="1:11" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A578" s="1" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B578" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C578" s="1" t="s">
+        <v>1713</v>
+      </c>
+      <c r="D578" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="E578" s="1" t="s">
+        <v>1700</v>
+      </c>
+      <c r="I578" s="5" t="s">
+        <v>1714</v>
+      </c>
+      <c r="J578" s="1" t="s">
+        <v>1715</v>
+      </c>
+      <c r="K578" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="579" spans="1:11" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A579" s="1" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B579" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C579" s="1" t="s">
+        <v>1718</v>
+      </c>
+      <c r="D579" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="E579" s="1" t="s">
+        <v>1700</v>
+      </c>
+      <c r="I579" s="5" t="s">
+        <v>1716</v>
+      </c>
+      <c r="J579" s="1" t="s">
+        <v>1719</v>
+      </c>
+      <c r="K579" s="1" t="s">
         <v>29</v>
       </c>
     </row>

--- a/src/test/resources/io.dingodb.test/testdata/cases/negative/sql_negative_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/cases/negative/sql_negative_cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5149" uniqueCount="1720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5168" uniqueCount="1731">
   <si>
     <t>TestID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6465,12 +6465,53 @@
     <t>ERROR 9001 (45000): Not enough regions is created</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>negative_579</t>
+  </si>
+  <si>
+    <t>negative_580</t>
+  </si>
+  <si>
+    <t>vector查询，表名不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector查询，向量名不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector023</t>
+  </si>
+  <si>
+    <t>vector023_value1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector023_value1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select id,feature_id,feature_index$distance from vector(test, feature, array[1.3875454664230347, 0.7626696825027466, 0.21715958416461945, 0.4816593527793884, 0.33340176939964294, 0.8789172172546387, 0.6245123147964478, 0.42354243993759155, 0.518169105052948, 0.8038954734802246, 0.7776609063148499, 0.11573372781276703, 0.7877957820892334, 0.5633759498596191, 0.5980196595191956, 0.13182960450649261, 0.663807213306427, 0.11982718855142593, 0.894885241985321, 0.8173267245292664, 0.3832005262374878, 0.3813772201538086, 0.9903861284255981, 0.8941025137901306, 0.04826643690466881, 0.9864906668663025, 0.8389081954956055, 0.7072503566741943, 0.739880383014679, 0.922918975353241, 0.03494282811880112, 0.5538699626922607], 10, map[efSearch, 40])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select id,feature_id,feature_index$distance from vector($vector023, feature1, array[1.3875454664230347, 0.7626696825027466, 0.21715958416461945, 0.4816593527793884, 0.33340176939964294, 0.8789172172546387, 0.6245123147964478, 0.42354243993759155, 0.518169105052948, 0.8038954734802246, 0.7776609063148499, 0.11573372781276703, 0.7877957820892334, 0.5633759498596191, 0.5980196595191956, 0.13182960450649261, 0.663807213306427, 0.11982718855142593, 0.894885241985321, 0.8173267245292664, 0.3832005262374878, 0.3813772201538086, 0.9903861284255981, 0.8941025137901306, 0.04826643690466881, 0.9864906668663025, 0.8389081954956055, 0.7072503566741943, 0.739880383014679, 0.922918975353241, 0.03494282811880112, 0.5538699626922607], 10, map[efSearch, 40])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Column 'feature_index$distance' not found in any table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6487,6 +6528,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -6521,7 +6570,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -6530,6 +6579,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6831,10 +6881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K579"/>
+  <dimension ref="A1:K581"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D578" workbookViewId="0">
-      <selection activeCell="J589" sqref="J589"/>
+    <sheetView tabSelected="1" topLeftCell="A577" workbookViewId="0">
+      <selection activeCell="E585" sqref="E585"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -23455,6 +23505,67 @@
         <v>1719</v>
       </c>
       <c r="K579" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="580" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A580" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B580" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C580" s="1" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D580" s="1" t="s">
+        <v>1724</v>
+      </c>
+      <c r="E580" s="1" t="s">
+        <v>1700</v>
+      </c>
+      <c r="F580" s="6" t="s">
+        <v>1725</v>
+      </c>
+      <c r="G580" s="6" t="s">
+        <v>1726</v>
+      </c>
+      <c r="I580" s="1" t="s">
+        <v>1728</v>
+      </c>
+      <c r="K580" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="581" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A581" s="1" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B581" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C581" s="1" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D581" s="1" t="s">
+        <v>1724</v>
+      </c>
+      <c r="E581" s="1" t="s">
+        <v>1700</v>
+      </c>
+      <c r="F581" s="6" t="s">
+        <v>1725</v>
+      </c>
+      <c r="G581" s="6" t="s">
+        <v>1727</v>
+      </c>
+      <c r="I581" s="1" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J581" s="1" t="s">
+        <v>1730</v>
+      </c>
+      <c r="K581" s="1" t="s">
         <v>29</v>
       </c>
     </row>

--- a/src/test/resources/io.dingodb.test/testdata/cases/negative/sql_negative_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/cases/negative/sql_negative_cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5168" uniqueCount="1731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5177" uniqueCount="1735">
   <si>
     <t>TestID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6504,6 +6504,21 @@
   </si>
   <si>
     <t>Column 'feature_index$distance' not found in any table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_581</t>
+  </si>
+  <si>
+    <t>插入维度和建表的向量维度不一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $vector023 values (1,'OQlLm3',1,8683.31,'1985-11-16',array[0.19151945412158966, 0.6221087574958801, 0.43772774934768677, 0.7853586077690125, 0.7799758315086365, 0.27259260416030884, 0.2764642536640167, 0.801872193813324],1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR 5001 (45000): io.dingodb.sdk.common.DingoClientException: Param vector dimension is error, correct dimension is 32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6881,10 +6896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K581"/>
+  <dimension ref="A1:K582"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A577" workbookViewId="0">
-      <selection activeCell="E585" sqref="E585"/>
+    <sheetView tabSelected="1" topLeftCell="D577" workbookViewId="0">
+      <selection activeCell="I586" sqref="I586"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -23566,6 +23581,35 @@
         <v>1730</v>
       </c>
       <c r="K581" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="582" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A582" s="1" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B582" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C582" s="1" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D582" s="1" t="s">
+        <v>1724</v>
+      </c>
+      <c r="E582" s="1" t="s">
+        <v>1700</v>
+      </c>
+      <c r="F582" s="6" t="s">
+        <v>1725</v>
+      </c>
+      <c r="I582" s="1" t="s">
+        <v>1733</v>
+      </c>
+      <c r="J582" s="1" t="s">
+        <v>1734</v>
+      </c>
+      <c r="K582" s="1" t="s">
         <v>29</v>
       </c>
     </row>

--- a/src/test/resources/io.dingodb.test/testdata/cases/negative/sql_negative_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/cases/negative/sql_negative_cases.xlsx
@@ -6130,10 +6130,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ERROR 24465 (90001): Table NEGATIVE_564_SCHEMA17 does not exist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>negative_565</t>
   </si>
   <si>
@@ -6519,6 +6515,10 @@
   </si>
   <si>
     <t>ERROR 5001 (45000): io.dingodb.sdk.common.DingoClientException: Param vector dimension is error, correct dimension is 32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR 24465 (90001): Table NEGATIVE_564_SCHEMA17 does not exist</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6898,8 +6898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K582"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D577" workbookViewId="0">
-      <selection activeCell="I586" sqref="I586"/>
+    <sheetView tabSelected="1" topLeftCell="A556" workbookViewId="0">
+      <selection activeCell="A565" sqref="A565"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -23162,7 +23162,7 @@
         <v>1661</v>
       </c>
       <c r="B565" s="1" t="s">
-        <v>25</v>
+        <v>1647</v>
       </c>
       <c r="C565" s="1" t="s">
         <v>1662</v>
@@ -23174,7 +23174,7 @@
         <v>1664</v>
       </c>
       <c r="J565" s="1" t="s">
-        <v>1665</v>
+        <v>1734</v>
       </c>
       <c r="K565" s="1" t="s">
         <v>29</v>
@@ -23182,19 +23182,19 @@
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A566" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="B566" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C566" s="1" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D566" s="1" t="s">
         <v>1668</v>
       </c>
-      <c r="D566" s="1" t="s">
-        <v>1669</v>
-      </c>
       <c r="I566" s="1" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="K566" s="1" t="s">
         <v>29</v>
@@ -23202,19 +23202,19 @@
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A567" s="1" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B567" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C567" s="1" t="s">
         <v>1667</v>
       </c>
-      <c r="B567" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C567" s="1" t="s">
+      <c r="D567" s="1" t="s">
         <v>1668</v>
       </c>
-      <c r="D567" s="1" t="s">
+      <c r="I567" s="1" t="s">
         <v>1669</v>
-      </c>
-      <c r="I567" s="1" t="s">
-        <v>1670</v>
       </c>
       <c r="K567" s="1" t="s">
         <v>29</v>
@@ -23222,22 +23222,22 @@
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A568" s="1" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B568" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C568" s="1" t="s">
         <v>1672</v>
-      </c>
-      <c r="B568" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C568" s="1" t="s">
-        <v>1673</v>
       </c>
       <c r="D568" s="1" t="s">
         <v>981</v>
       </c>
       <c r="I568" s="1" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="J568" s="1" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="K568" s="1" t="s">
         <v>29</v>
@@ -23245,25 +23245,25 @@
     </row>
     <row r="569" spans="1:11" ht="216" x14ac:dyDescent="0.15">
       <c r="A569" s="1" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B569" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C569" s="1" t="s">
         <v>1675</v>
-      </c>
-      <c r="B569" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C569" s="1" t="s">
-        <v>1676</v>
       </c>
       <c r="D569" s="1" t="s">
         <v>981</v>
       </c>
       <c r="E569" s="1" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="I569" s="5" t="s">
+        <v>1676</v>
+      </c>
+      <c r="J569" s="1" t="s">
         <v>1677</v>
-      </c>
-      <c r="J569" s="1" t="s">
-        <v>1678</v>
       </c>
       <c r="K569" s="1" t="s">
         <v>29</v>
@@ -23271,25 +23271,25 @@
     </row>
     <row r="570" spans="1:11" ht="216" x14ac:dyDescent="0.15">
       <c r="A570" s="1" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B570" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C570" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="B570" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C570" s="1" t="s">
-        <v>1681</v>
       </c>
       <c r="D570" s="1" t="s">
         <v>981</v>
       </c>
       <c r="E570" s="1" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="I570" s="5" t="s">
+        <v>1681</v>
+      </c>
+      <c r="J570" s="1" t="s">
         <v>1682</v>
-      </c>
-      <c r="J570" s="1" t="s">
-        <v>1683</v>
       </c>
       <c r="K570" s="1" t="s">
         <v>29</v>
@@ -23297,25 +23297,25 @@
     </row>
     <row r="571" spans="1:11" ht="229.5" x14ac:dyDescent="0.15">
       <c r="A571" s="1" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B571" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C571" s="1" t="s">
         <v>1684</v>
-      </c>
-      <c r="B571" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C571" s="1" t="s">
-        <v>1685</v>
       </c>
       <c r="D571" s="1" t="s">
         <v>981</v>
       </c>
       <c r="E571" s="1" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="I571" s="5" t="s">
+        <v>1685</v>
+      </c>
+      <c r="J571" s="1" t="s">
         <v>1686</v>
-      </c>
-      <c r="J571" s="1" t="s">
-        <v>1687</v>
       </c>
       <c r="K571" s="1" t="s">
         <v>29</v>
@@ -23323,25 +23323,25 @@
     </row>
     <row r="572" spans="1:11" ht="216" x14ac:dyDescent="0.15">
       <c r="A572" s="1" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B572" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C572" s="1" t="s">
         <v>1688</v>
-      </c>
-      <c r="B572" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C572" s="1" t="s">
-        <v>1689</v>
       </c>
       <c r="D572" s="1" t="s">
         <v>981</v>
       </c>
       <c r="E572" s="1" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="I572" s="5" t="s">
+        <v>1689</v>
+      </c>
+      <c r="J572" s="1" t="s">
         <v>1690</v>
-      </c>
-      <c r="J572" s="1" t="s">
-        <v>1691</v>
       </c>
       <c r="K572" s="1" t="s">
         <v>29</v>
@@ -23349,25 +23349,25 @@
     </row>
     <row r="573" spans="1:11" ht="216" x14ac:dyDescent="0.15">
       <c r="A573" s="1" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B573" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C573" s="1" t="s">
         <v>1692</v>
-      </c>
-      <c r="B573" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C573" s="1" t="s">
-        <v>1693</v>
       </c>
       <c r="D573" s="1" t="s">
         <v>981</v>
       </c>
       <c r="E573" s="1" t="s">
+        <v>1693</v>
+      </c>
+      <c r="I573" s="5" t="s">
+        <v>1695</v>
+      </c>
+      <c r="J573" s="1" t="s">
         <v>1694</v>
-      </c>
-      <c r="I573" s="5" t="s">
-        <v>1696</v>
-      </c>
-      <c r="J573" s="1" t="s">
-        <v>1695</v>
       </c>
       <c r="K573" s="1" t="s">
         <v>29</v>
@@ -23375,22 +23375,22 @@
     </row>
     <row r="574" spans="1:11" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A574" s="1" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="B574" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C574" s="1" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="D574" s="1" t="s">
         <v>981</v>
       </c>
       <c r="E574" s="1" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="I574" s="5" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="K574" s="1" t="s">
         <v>29</v>
@@ -23398,22 +23398,22 @@
     </row>
     <row r="575" spans="1:11" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A575" s="1" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B575" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C575" s="1" t="s">
         <v>1698</v>
-      </c>
-      <c r="B575" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C575" s="1" t="s">
-        <v>1699</v>
       </c>
       <c r="D575" s="1" t="s">
         <v>981</v>
       </c>
       <c r="E575" s="1" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="I575" s="5" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="K575" s="1" t="s">
         <v>29</v>
@@ -23421,25 +23421,25 @@
     </row>
     <row r="576" spans="1:11" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A576" s="1" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B576" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C576" s="1" t="s">
         <v>1704</v>
-      </c>
-      <c r="B576" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C576" s="1" t="s">
-        <v>1705</v>
       </c>
       <c r="D576" s="1" t="s">
         <v>981</v>
       </c>
       <c r="E576" s="1" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="I576" s="5" t="s">
+        <v>1705</v>
+      </c>
+      <c r="J576" s="1" t="s">
         <v>1706</v>
-      </c>
-      <c r="J576" s="1" t="s">
-        <v>1707</v>
       </c>
       <c r="K576" s="1" t="s">
         <v>29</v>
@@ -23447,25 +23447,25 @@
     </row>
     <row r="577" spans="1:11" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A577" s="1" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B577" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C577" s="1" t="s">
         <v>1710</v>
-      </c>
-      <c r="B577" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C577" s="1" t="s">
-        <v>1711</v>
       </c>
       <c r="D577" s="1" t="s">
         <v>981</v>
       </c>
       <c r="E577" s="1" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="I577" s="5" t="s">
+        <v>1707</v>
+      </c>
+      <c r="J577" s="1" t="s">
         <v>1708</v>
-      </c>
-      <c r="J577" s="1" t="s">
-        <v>1709</v>
       </c>
       <c r="K577" s="1" t="s">
         <v>29</v>
@@ -23473,25 +23473,25 @@
     </row>
     <row r="578" spans="1:11" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A578" s="1" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B578" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C578" s="1" t="s">
         <v>1712</v>
-      </c>
-      <c r="B578" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C578" s="1" t="s">
-        <v>1713</v>
       </c>
       <c r="D578" s="1" t="s">
         <v>981</v>
       </c>
       <c r="E578" s="1" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="I578" s="5" t="s">
+        <v>1713</v>
+      </c>
+      <c r="J578" s="1" t="s">
         <v>1714</v>
-      </c>
-      <c r="J578" s="1" t="s">
-        <v>1715</v>
       </c>
       <c r="K578" s="1" t="s">
         <v>29</v>
@@ -23499,25 +23499,25 @@
     </row>
     <row r="579" spans="1:11" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A579" s="1" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B579" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C579" s="1" t="s">
         <v>1717</v>
-      </c>
-      <c r="B579" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C579" s="1" t="s">
-        <v>1718</v>
       </c>
       <c r="D579" s="1" t="s">
         <v>981</v>
       </c>
       <c r="E579" s="1" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="I579" s="5" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="J579" s="1" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="K579" s="1" t="s">
         <v>29</v>
@@ -23525,28 +23525,28 @@
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A580" s="1" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="B580" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C580" s="1" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="D580" s="1" t="s">
+        <v>1723</v>
+      </c>
+      <c r="E580" s="1" t="s">
+        <v>1699</v>
+      </c>
+      <c r="F580" s="6" t="s">
         <v>1724</v>
       </c>
-      <c r="E580" s="1" t="s">
-        <v>1700</v>
-      </c>
-      <c r="F580" s="6" t="s">
+      <c r="G580" s="6" t="s">
         <v>1725</v>
       </c>
-      <c r="G580" s="6" t="s">
-        <v>1726</v>
-      </c>
       <c r="I580" s="1" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="K580" s="1" t="s">
         <v>29</v>
@@ -23554,31 +23554,31 @@
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A581" s="1" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="B581" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C581" s="1" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D581" s="1" t="s">
         <v>1723</v>
       </c>
-      <c r="D581" s="1" t="s">
+      <c r="E581" s="1" t="s">
+        <v>1699</v>
+      </c>
+      <c r="F581" s="6" t="s">
         <v>1724</v>
       </c>
-      <c r="E581" s="1" t="s">
-        <v>1700</v>
-      </c>
-      <c r="F581" s="6" t="s">
-        <v>1725</v>
-      </c>
       <c r="G581" s="6" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="I581" s="1" t="s">
+        <v>1728</v>
+      </c>
+      <c r="J581" s="1" t="s">
         <v>1729</v>
-      </c>
-      <c r="J581" s="1" t="s">
-        <v>1730</v>
       </c>
       <c r="K581" s="1" t="s">
         <v>29</v>
@@ -23586,28 +23586,28 @@
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A582" s="1" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B582" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C582" s="1" t="s">
         <v>1731</v>
       </c>
-      <c r="B582" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C582" s="1" t="s">
+      <c r="D582" s="1" t="s">
+        <v>1723</v>
+      </c>
+      <c r="E582" s="1" t="s">
+        <v>1699</v>
+      </c>
+      <c r="F582" s="6" t="s">
+        <v>1724</v>
+      </c>
+      <c r="I582" s="1" t="s">
         <v>1732</v>
       </c>
-      <c r="D582" s="1" t="s">
-        <v>1724</v>
-      </c>
-      <c r="E582" s="1" t="s">
-        <v>1700</v>
-      </c>
-      <c r="F582" s="6" t="s">
-        <v>1725</v>
-      </c>
-      <c r="I582" s="1" t="s">
+      <c r="J582" s="1" t="s">
         <v>1733</v>
-      </c>
-      <c r="J582" s="1" t="s">
-        <v>1734</v>
       </c>
       <c r="K582" s="1" t="s">
         <v>29</v>

--- a/src/test/resources/io.dingodb.test/testdata/cases/negative/sql_negative_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/cases/negative/sql_negative_cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5177" uniqueCount="1735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5220" uniqueCount="1753">
   <si>
     <t>TestID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6390,6 +6390,138 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ERROR 9001 (45000): Partition values count must be &lt;= key columns count, but values count is 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_576</t>
+  </si>
+  <si>
+    <t>向量索引分区元素值超过主键数，建表失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_577</t>
+  </si>
+  <si>
+    <t>向量索引分区元素类型不符，建表失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table neg_577 (
+    id bigint not null, 
+    name varchar(32),
+    age int,
+    amount double,
+    feature float array not null,
+    feature_id bigint not null,
+    primary key(id),
+    index feature_index vector(feature_id, feature) partition by range values ('Dingo') parameters(type=hnsw, metricType=L2, dimension=32, efConstruction=40, nlinks=32)
+)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR 3001 (45000): For input string: "Dingo"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE TABLE neg_578 (
+    id bigint not null, 
+    name varchar(32),
+    age int,
+    amount double,
+    feature float array not null,
+    feature_id bigint not null,
+    primary key(id),
+    index feature_index vector(feature_id, feature) replica=4 parameters(type=hnsw, metricType=L2, dimension=32, efConstruction=40, nlinks=32)
+)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_578</t>
+  </si>
+  <si>
+    <t>三节点集群指定副本数大于3，创建失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR 9001 (45000): Not enough regions is created</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_579</t>
+  </si>
+  <si>
+    <t>negative_580</t>
+  </si>
+  <si>
+    <t>vector查询，表名不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector查询，向量名不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector023</t>
+  </si>
+  <si>
+    <t>vector023_value1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector023_value1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select id,feature_id,feature_index$distance from vector(test, feature, array[1.3875454664230347, 0.7626696825027466, 0.21715958416461945, 0.4816593527793884, 0.33340176939964294, 0.8789172172546387, 0.6245123147964478, 0.42354243993759155, 0.518169105052948, 0.8038954734802246, 0.7776609063148499, 0.11573372781276703, 0.7877957820892334, 0.5633759498596191, 0.5980196595191956, 0.13182960450649261, 0.663807213306427, 0.11982718855142593, 0.894885241985321, 0.8173267245292664, 0.3832005262374878, 0.3813772201538086, 0.9903861284255981, 0.8941025137901306, 0.04826643690466881, 0.9864906668663025, 0.8389081954956055, 0.7072503566741943, 0.739880383014679, 0.922918975353241, 0.03494282811880112, 0.5538699626922607], 10, map[efSearch, 40])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select id,feature_id,feature_index$distance from vector($vector023, feature1, array[1.3875454664230347, 0.7626696825027466, 0.21715958416461945, 0.4816593527793884, 0.33340176939964294, 0.8789172172546387, 0.6245123147964478, 0.42354243993759155, 0.518169105052948, 0.8038954734802246, 0.7776609063148499, 0.11573372781276703, 0.7877957820892334, 0.5633759498596191, 0.5980196595191956, 0.13182960450649261, 0.663807213306427, 0.11982718855142593, 0.894885241985321, 0.8173267245292664, 0.3832005262374878, 0.3813772201538086, 0.9903861284255981, 0.8941025137901306, 0.04826643690466881, 0.9864906668663025, 0.8389081954956055, 0.7072503566741943, 0.739880383014679, 0.922918975353241, 0.03494282811880112, 0.5538699626922607], 10, map[efSearch, 40])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Column 'feature_index$distance' not found in any table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_581</t>
+  </si>
+  <si>
+    <t>插入维度和建表的向量维度不一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $vector023 values (1,'OQlLm3',1,8683.31,'1985-11-16',array[0.19151945412158966, 0.6221087574958801, 0.43772774934768677, 0.7853586077690125, 0.7799758315086365, 0.27259260416030884, 0.2764642536640167, 0.801872193813324],1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR 5001 (45000): io.dingodb.sdk.common.DingoClientException: Param vector dimension is error, correct dimension is 32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR 24465 (90001): Table NEGATIVE_564_SCHEMA17 does not exist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_582</t>
+  </si>
+  <si>
+    <t>negative_583</t>
+  </si>
+  <si>
+    <t>negative_584</t>
+  </si>
+  <si>
+    <t>建向量索引表只提供检索算法类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>create table neg_576 (
     id bigint not null, 
     name varchar(32),
@@ -6403,122 +6535,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ERROR 9001 (45000): Partition values count must be &lt;= key columns count, but values count is 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>negative_576</t>
-  </si>
-  <si>
-    <t>向量索引分区元素值超过主键数，建表失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>negative_577</t>
-  </si>
-  <si>
-    <t>向量索引分区元素类型不符，建表失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create table neg_577 (
-    id bigint not null, 
+    <t>CREATE TABLE neg_582 (
+    id bigint auto_increment not null, 
     name varchar(32),
     age int,
     amount double,
     feature float array not null,
     feature_id bigint not null,
     primary key(id),
-    index feature_index vector(feature_id, feature) partition by range values ('Dingo') parameters(type=hnsw, metricType=L2, dimension=32, efConstruction=40, nlinks=32)
+    index feature_index vector(feature_id, feature) parameters(type=ivfflat)
 )</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ERROR 3001 (45000): For input string: "Dingo"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE TABLE neg_578 (
-    id bigint not null, 
+    <t>ERROR 9001 (45000): FEATURE_INDEX vector index dimension is null.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE TABLE neg_583 (
+    id bigint auto_increment not null, 
     name varchar(32),
     age int,
     amount double,
     feature float array not null,
     feature_id bigint not null,
-    primary key(id),
-    index feature_index vector(feature_id, feature) replica=4 parameters(type=hnsw, metricType=L2, dimension=32, efConstruction=40, nlinks=32)
+    index feature_index vector(feature_id, feature) parameters(type=ivfflat, metricType=L2, ncentroids=64),
+    primary key(id)
 )</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>negative_578</t>
-  </si>
-  <si>
-    <t>三节点集群指定副本数大于3，创建失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR 9001 (45000): Not enough regions is created</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>negative_579</t>
-  </si>
-  <si>
-    <t>negative_580</t>
-  </si>
-  <si>
-    <t>vector查询，表名不存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vector查询，向量名不存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vector023</t>
-  </si>
-  <si>
-    <t>vector023_value1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vector023_value1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select id,feature_id,feature_index$distance from vector(test, feature, array[1.3875454664230347, 0.7626696825027466, 0.21715958416461945, 0.4816593527793884, 0.33340176939964294, 0.8789172172546387, 0.6245123147964478, 0.42354243993759155, 0.518169105052948, 0.8038954734802246, 0.7776609063148499, 0.11573372781276703, 0.7877957820892334, 0.5633759498596191, 0.5980196595191956, 0.13182960450649261, 0.663807213306427, 0.11982718855142593, 0.894885241985321, 0.8173267245292664, 0.3832005262374878, 0.3813772201538086, 0.9903861284255981, 0.8941025137901306, 0.04826643690466881, 0.9864906668663025, 0.8389081954956055, 0.7072503566741943, 0.739880383014679, 0.922918975353241, 0.03494282811880112, 0.5538699626922607], 10, map[efSearch, 40])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select id,feature_id,feature_index$distance from vector($vector023, feature1, array[1.3875454664230347, 0.7626696825027466, 0.21715958416461945, 0.4816593527793884, 0.33340176939964294, 0.8789172172546387, 0.6245123147964478, 0.42354243993759155, 0.518169105052948, 0.8038954734802246, 0.7776609063148499, 0.11573372781276703, 0.7877957820892334, 0.5633759498596191, 0.5980196595191956, 0.13182960450649261, 0.663807213306427, 0.11982718855142593, 0.894885241985321, 0.8173267245292664, 0.3832005262374878, 0.3813772201538086, 0.9903861284255981, 0.8941025137901306, 0.04826643690466881, 0.9864906668663025, 0.8389081954956055, 0.7072503566741943, 0.739880383014679, 0.922918975353241, 0.03494282811880112, 0.5538699626922607], 10, map[efSearch, 40])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Column 'feature_index$distance' not found in any table</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>negative_581</t>
-  </si>
-  <si>
-    <t>插入维度和建表的向量维度不一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into $vector023 values (1,'OQlLm3',1,8683.31,'1985-11-16',array[0.19151945412158966, 0.6221087574958801, 0.43772774934768677, 0.7853586077690125, 0.7799758315086365, 0.27259260416030884, 0.2764642536640167, 0.801872193813324],1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR 5001 (45000): io.dingodb.sdk.common.DingoClientException: Param vector dimension is error, correct dimension is 32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR 24465 (90001): Table NEGATIVE_564_SCHEMA17 does not exist</t>
+    <t>建向量索引表只提供检索算法类型,距离类型和中心点数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入向量ID为0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_585</t>
+  </si>
+  <si>
+    <t>negative_586</t>
+  </si>
+  <si>
+    <t>插入向量ID为负数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入向量ID为小于int型下限值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector066</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $vector066 values (1,'ivsFre',98,8299.23,array[0.19151945412158966, 0.6221087574958801, 0.43772774934768677, 0.7853586077690125, 0.7799758315086365, 0.27259260416030884, 0.2764642536640167, 0.801872193813324],0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR 5001 (45000): io.dingodb.sdk.common.DingoClientException$RequestErrorException: Param vector id is not allowed to be zero or NINT64_MAX or netative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $vector066 values (3,'ivsFre',98,8299.23,array[0.19151945412158966, 0.6221087574958801, 0.43772774934768677, 0.7853586077690125, 0.7799758315086365, 0.27259260416030884, 0.2764642536640167, 0.801872193813324],-2147483649)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $vector066 values (2,'ivsFre',98,8299.23,array[0.19151945412158966, 0.6221087574958801, 0.43772774934768677, 0.7853586077690125, 0.7799758315086365, 0.27259260416030884, 0.2764642536640167, 0.801872193813324],-1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6896,10 +6981,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K582"/>
+  <dimension ref="A1:K587"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A556" workbookViewId="0">
-      <selection activeCell="A565" sqref="A565"/>
+    <sheetView tabSelected="1" topLeftCell="A582" workbookViewId="0">
+      <selection activeCell="D596" sqref="D596"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -23174,7 +23259,7 @@
         <v>1664</v>
       </c>
       <c r="J565" s="1" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="K565" s="1" t="s">
         <v>29</v>
@@ -23447,13 +23532,13 @@
     </row>
     <row r="577" spans="1:11" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A577" s="1" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B577" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C577" s="1" t="s">
         <v>1709</v>
-      </c>
-      <c r="B577" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C577" s="1" t="s">
-        <v>1710</v>
       </c>
       <c r="D577" s="1" t="s">
         <v>981</v>
@@ -23462,10 +23547,10 @@
         <v>1699</v>
       </c>
       <c r="I577" s="5" t="s">
+        <v>1738</v>
+      </c>
+      <c r="J577" s="1" t="s">
         <v>1707</v>
-      </c>
-      <c r="J577" s="1" t="s">
-        <v>1708</v>
       </c>
       <c r="K577" s="1" t="s">
         <v>29</v>
@@ -23473,13 +23558,13 @@
     </row>
     <row r="578" spans="1:11" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A578" s="1" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B578" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C578" s="1" t="s">
         <v>1711</v>
-      </c>
-      <c r="B578" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C578" s="1" t="s">
-        <v>1712</v>
       </c>
       <c r="D578" s="1" t="s">
         <v>981</v>
@@ -23488,10 +23573,10 @@
         <v>1699</v>
       </c>
       <c r="I578" s="5" t="s">
+        <v>1712</v>
+      </c>
+      <c r="J578" s="1" t="s">
         <v>1713</v>
-      </c>
-      <c r="J578" s="1" t="s">
-        <v>1714</v>
       </c>
       <c r="K578" s="1" t="s">
         <v>29</v>
@@ -23499,13 +23584,13 @@
     </row>
     <row r="579" spans="1:11" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A579" s="1" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B579" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C579" s="1" t="s">
         <v>1716</v>
-      </c>
-      <c r="B579" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C579" s="1" t="s">
-        <v>1717</v>
       </c>
       <c r="D579" s="1" t="s">
         <v>981</v>
@@ -23514,10 +23599,10 @@
         <v>1699</v>
       </c>
       <c r="I579" s="5" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="J579" s="1" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="K579" s="1" t="s">
         <v>29</v>
@@ -23525,28 +23610,28 @@
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A580" s="1" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="B580" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C580" s="1" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="D580" s="1" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="E580" s="1" t="s">
         <v>1699</v>
       </c>
       <c r="F580" s="6" t="s">
+        <v>1723</v>
+      </c>
+      <c r="G580" s="6" t="s">
         <v>1724</v>
       </c>
-      <c r="G580" s="6" t="s">
-        <v>1725</v>
-      </c>
       <c r="I580" s="1" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="K580" s="1" t="s">
         <v>29</v>
@@ -23554,31 +23639,31 @@
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A581" s="1" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="B581" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C581" s="1" t="s">
+        <v>1721</v>
+      </c>
+      <c r="D581" s="1" t="s">
         <v>1722</v>
-      </c>
-      <c r="D581" s="1" t="s">
-        <v>1723</v>
       </c>
       <c r="E581" s="1" t="s">
         <v>1699</v>
       </c>
       <c r="F581" s="6" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="G581" s="6" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="I581" s="1" t="s">
+        <v>1727</v>
+      </c>
+      <c r="J581" s="1" t="s">
         <v>1728</v>
-      </c>
-      <c r="J581" s="1" t="s">
-        <v>1729</v>
       </c>
       <c r="K581" s="1" t="s">
         <v>29</v>
@@ -23586,30 +23671,169 @@
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A582" s="1" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B582" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C582" s="1" t="s">
         <v>1730</v>
       </c>
-      <c r="B582" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C582" s="1" t="s">
-        <v>1731</v>
-      </c>
       <c r="D582" s="1" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="E582" s="1" t="s">
         <v>1699</v>
       </c>
       <c r="F582" s="6" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="I582" s="1" t="s">
+        <v>1731</v>
+      </c>
+      <c r="J582" s="1" t="s">
         <v>1732</v>
       </c>
-      <c r="J582" s="1" t="s">
-        <v>1733</v>
-      </c>
       <c r="K582" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="583" spans="1:11" ht="135" x14ac:dyDescent="0.15">
+      <c r="A583" s="1" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B583" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C583" s="1" t="s">
+        <v>1737</v>
+      </c>
+      <c r="D583" s="1" t="s">
+        <v>1722</v>
+      </c>
+      <c r="E583" s="1" t="s">
+        <v>1699</v>
+      </c>
+      <c r="I583" s="5" t="s">
+        <v>1739</v>
+      </c>
+      <c r="J583" s="1" t="s">
+        <v>1740</v>
+      </c>
+      <c r="K583" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="584" spans="1:11" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A584" s="1" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B584" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C584" s="1" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D584" s="1" t="s">
+        <v>1722</v>
+      </c>
+      <c r="E584" s="1" t="s">
+        <v>1699</v>
+      </c>
+      <c r="I584" s="5" t="s">
+        <v>1741</v>
+      </c>
+      <c r="J584" s="1" t="s">
+        <v>1740</v>
+      </c>
+      <c r="K584" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="585" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A585" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B585" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C585" s="1" t="s">
+        <v>1743</v>
+      </c>
+      <c r="D585" s="1" t="s">
+        <v>1722</v>
+      </c>
+      <c r="E585" s="1" t="s">
+        <v>1699</v>
+      </c>
+      <c r="F585" s="1" t="s">
+        <v>1748</v>
+      </c>
+      <c r="I585" s="1" t="s">
+        <v>1749</v>
+      </c>
+      <c r="J585" s="1" t="s">
+        <v>1750</v>
+      </c>
+      <c r="K585" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="586" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A586" s="1" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B586" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C586" s="1" t="s">
+        <v>1746</v>
+      </c>
+      <c r="D586" s="1" t="s">
+        <v>1722</v>
+      </c>
+      <c r="E586" s="1" t="s">
+        <v>1699</v>
+      </c>
+      <c r="H586" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="I586" s="1" t="s">
+        <v>1752</v>
+      </c>
+      <c r="J586" s="1" t="s">
+        <v>1750</v>
+      </c>
+      <c r="K586" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="587" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A587" s="1" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B587" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C587" s="1" t="s">
+        <v>1747</v>
+      </c>
+      <c r="D587" s="1" t="s">
+        <v>1722</v>
+      </c>
+      <c r="E587" s="1" t="s">
+        <v>1699</v>
+      </c>
+      <c r="H587" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="I587" s="1" t="s">
+        <v>1751</v>
+      </c>
+      <c r="J587" s="1" t="s">
+        <v>1750</v>
+      </c>
+      <c r="K587" s="1" t="s">
         <v>29</v>
       </c>
     </row>

--- a/src/test/resources/io.dingodb.test/testdata/cases/negative/sql_negative_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/cases/negative/sql_negative_cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5220" uniqueCount="1753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5236" uniqueCount="1761">
   <si>
     <t>TestID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6604,6 +6604,54 @@
   </si>
   <si>
     <t>insert into $vector066 values (2,'ivsFre',98,8299.23,array[0.19151945412158966, 0.6221087574958801, 0.43772774934768677, 0.7853586077690125, 0.7799758315086365, 0.27259260416030884, 0.2764642536640167, 0.801872193813324],-1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_587</t>
+  </si>
+  <si>
+    <t>negative_588</t>
+  </si>
+  <si>
+    <t>IVFPQ算法 - nsubvectors数大于维度数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IVFPQ算法 - nsubvectors数不能被维度数整除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR 9001 (45000): ivf_pq_parameter vector_index_parameter is illegal, dimension:8 / nsubvector:10 not divisible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table neg_587 (
+    id bigint auto_increment not null, 
+    name varchar(32),
+    age int,
+    amount double,
+    feature float array not null,
+    feature_id bigint not null,
+    index feature_index vector(feature_id, feature) parameters(type=ivfpq, metricType=L2, dimension=8, ncentroids=64, nsubvector=10, nbits_per_idx=8),
+    primary key(id)
+)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR 9001 (45000): ivf_pq_parameter vector_index_parameter is illegal, dimension:64 / nsubvector:5 not divisible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table neg_588 (
+    id bigint auto_increment not null, 
+    name varchar(32),
+    age int,
+    amount double,
+    feature float array not null,
+    feature_id bigint not null,
+    index feature_index vector(feature_id, feature) parameters(type=ivfpq, metricType=L2, dimension=64, ncentroids=16, nsubvector=5, nbits_per_idx=8),
+    primary key(id)
+)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6981,10 +7029,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K587"/>
+  <dimension ref="A1:K589"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A582" workbookViewId="0">
-      <selection activeCell="D596" sqref="D596"/>
+    <sheetView tabSelected="1" topLeftCell="A585" workbookViewId="0">
+      <selection activeCell="D600" sqref="D600"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -23834,6 +23882,58 @@
         <v>1750</v>
       </c>
       <c r="K587" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="588" spans="1:11" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A588" s="1" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B588" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C588" s="1" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D588" s="1" t="s">
+        <v>1722</v>
+      </c>
+      <c r="E588" s="1" t="s">
+        <v>1699</v>
+      </c>
+      <c r="I588" s="5" t="s">
+        <v>1758</v>
+      </c>
+      <c r="J588" s="1" t="s">
+        <v>1757</v>
+      </c>
+      <c r="K588" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="589" spans="1:11" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A589" s="1" t="s">
+        <v>1754</v>
+      </c>
+      <c r="B589" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C589" s="1" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D589" s="1" t="s">
+        <v>1722</v>
+      </c>
+      <c r="E589" s="1" t="s">
+        <v>1699</v>
+      </c>
+      <c r="I589" s="5" t="s">
+        <v>1760</v>
+      </c>
+      <c r="J589" s="1" t="s">
+        <v>1759</v>
+      </c>
+      <c r="K589" s="1" t="s">
         <v>29</v>
       </c>
     </row>

--- a/src/test/resources/io.dingodb.test/testdata/cases/negative/sql_negative_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/cases/negative/sql_negative_cases.xlsx
@@ -4640,10 +4640,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>insert into $array10 values(407,'zhangsan',18,23.5,array[2.5])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Error: Cannot find evaluator in "BooleanCastEvaluatorsFactory" of parameter types (DECIMAL). (state=90001,code=90001)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6652,6 +6648,10 @@
   </si>
   <si>
     <t>insert into $schema7 values(2,'Li Si','male','1998-03-15',null,5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array10 values(407,'zhangsan',18,23.5,array[2.5])</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7038,8 +7038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K589"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="I323" sqref="I323"/>
+    <sheetView tabSelected="1" topLeftCell="A389" workbookViewId="0">
+      <selection activeCell="G508" sqref="G508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7761,7 +7761,7 @@
         <v>112</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>130</v>
@@ -7787,7 +7787,7 @@
         <v>113</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>130</v>
@@ -7813,7 +7813,7 @@
         <v>114</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>130</v>
@@ -7839,7 +7839,7 @@
         <v>115</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>130</v>
@@ -7865,7 +7865,7 @@
         <v>116</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>130</v>
@@ -7891,7 +7891,7 @@
         <v>117</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>130</v>
@@ -7917,7 +7917,7 @@
         <v>118</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>130</v>
@@ -7943,7 +7943,7 @@
         <v>119</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>130</v>
@@ -7969,7 +7969,7 @@
         <v>120</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>130</v>
@@ -7995,7 +7995,7 @@
         <v>121</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>130</v>
@@ -8021,7 +8021,7 @@
         <v>122</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>130</v>
@@ -8047,7 +8047,7 @@
         <v>123</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>130</v>
@@ -8073,7 +8073,7 @@
         <v>124</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>130</v>
@@ -8255,7 +8255,7 @@
         <v>161</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>178</v>
@@ -8281,7 +8281,7 @@
         <v>162</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>178</v>
@@ -8307,7 +8307,7 @@
         <v>163</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>178</v>
@@ -8333,7 +8333,7 @@
         <v>164</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>178</v>
@@ -8359,7 +8359,7 @@
         <v>165</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>178</v>
@@ -8385,7 +8385,7 @@
         <v>166</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>178</v>
@@ -8411,7 +8411,7 @@
         <v>167</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>178</v>
@@ -8437,7 +8437,7 @@
         <v>168</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>178</v>
@@ -8463,7 +8463,7 @@
         <v>169</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>178</v>
@@ -8489,7 +8489,7 @@
         <v>170</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>178</v>
@@ -8515,7 +8515,7 @@
         <v>171</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>178</v>
@@ -8541,7 +8541,7 @@
         <v>172</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>178</v>
@@ -8567,7 +8567,7 @@
         <v>173</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>195</v>
@@ -8593,7 +8593,7 @@
         <v>174</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>195</v>
@@ -8619,7 +8619,7 @@
         <v>175</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>195</v>
@@ -11760,7 +11760,7 @@
         <v>495</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>533</v>
@@ -12919,7 +12919,7 @@
         <v>1015</v>
       </c>
       <c r="I226" s="1" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>666</v>
@@ -12948,7 +12948,7 @@
         <v>1015</v>
       </c>
       <c r="I227" s="1" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>666</v>
@@ -12977,7 +12977,7 @@
         <v>1015</v>
       </c>
       <c r="I228" s="1" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>666</v>
@@ -13006,7 +13006,7 @@
         <v>1015</v>
       </c>
       <c r="I229" s="1" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>666</v>
@@ -13035,7 +13035,7 @@
         <v>1015</v>
       </c>
       <c r="I230" s="1" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>675</v>
@@ -13064,7 +13064,7 @@
         <v>1015</v>
       </c>
       <c r="I231" s="1" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>676</v>
@@ -13093,7 +13093,7 @@
         <v>1015</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>677</v>
@@ -13122,7 +13122,7 @@
         <v>1015</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>678</v>
@@ -13132,11 +13132,11 @@
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A234" s="1" t="s">
+      <c r="A234" s="7" t="s">
         <v>672</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>25</v>
+        <v>1629</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>664</v>
@@ -13151,7 +13151,7 @@
         <v>1015</v>
       </c>
       <c r="I234" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>679</v>
@@ -13161,11 +13161,11 @@
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A235" s="1" t="s">
+      <c r="A235" s="7" t="s">
         <v>673</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>25</v>
+        <v>1629</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>664</v>
@@ -13180,7 +13180,7 @@
         <v>1015</v>
       </c>
       <c r="I235" s="1" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>679</v>
@@ -13190,11 +13190,11 @@
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A236" s="1" t="s">
+      <c r="A236" s="7" t="s">
         <v>674</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>25</v>
+        <v>1629</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>664</v>
@@ -13209,7 +13209,7 @@
         <v>1015</v>
       </c>
       <c r="I236" s="1" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>679</v>
@@ -13219,11 +13219,11 @@
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A237" s="1" t="s">
+      <c r="A237" s="7" t="s">
         <v>680</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>25</v>
+        <v>1629</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>664</v>
@@ -13238,7 +13238,7 @@
         <v>1015</v>
       </c>
       <c r="I237" s="1" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>679</v>
@@ -13255,7 +13255,7 @@
         <v>25</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>663</v>
@@ -15771,7 +15771,7 @@
         <v>1015</v>
       </c>
       <c r="I311" s="1" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="J311" s="1" t="s">
         <v>928</v>
@@ -15800,7 +15800,7 @@
         <v>1015</v>
       </c>
       <c r="I312" s="1" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="J312" s="1" t="s">
         <v>929</v>
@@ -15829,7 +15829,7 @@
         <v>1015</v>
       </c>
       <c r="I313" s="1" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="J313" s="1" t="s">
         <v>931</v>
@@ -15913,7 +15913,7 @@
         <v>1017</v>
       </c>
       <c r="I316" s="1" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="J316" s="1" t="s">
         <v>958</v>
@@ -18656,11 +18656,11 @@
       </c>
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A407" s="4" t="s">
+      <c r="A407" s="7" t="s">
         <v>1213</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>25</v>
+        <v>1629</v>
       </c>
       <c r="C407" s="1" t="s">
         <v>1243</v>
@@ -18681,18 +18681,18 @@
         <v>1260</v>
       </c>
       <c r="J407" s="1" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="K407" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A408" s="4" t="s">
+      <c r="A408" s="7" t="s">
         <v>1214</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>25</v>
+        <v>1629</v>
       </c>
       <c r="C408" s="1" t="s">
         <v>1243</v>
@@ -18710,10 +18710,10 @@
         <v>1109</v>
       </c>
       <c r="I408" s="1" t="s">
+        <v>1760</v>
+      </c>
+      <c r="J408" s="1" t="s">
         <v>1261</v>
-      </c>
-      <c r="J408" s="1" t="s">
-        <v>1262</v>
       </c>
       <c r="K408" s="1" t="s">
         <v>29</v>
@@ -18742,7 +18742,7 @@
         <v>1109</v>
       </c>
       <c r="I409" s="1" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="J409" s="1" t="s">
         <v>1258</v>
@@ -18774,7 +18774,7 @@
         <v>1109</v>
       </c>
       <c r="I410" s="1" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="J410" s="1" t="s">
         <v>1258</v>
@@ -18806,7 +18806,7 @@
         <v>1109</v>
       </c>
       <c r="I411" s="1" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="J411" s="1" t="s">
         <v>1258</v>
@@ -18838,7 +18838,7 @@
         <v>1109</v>
       </c>
       <c r="I412" s="1" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="J412" s="1" t="s">
         <v>1258</v>
@@ -18870,7 +18870,7 @@
         <v>1109</v>
       </c>
       <c r="I413" s="1" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="J413" s="1" t="s">
         <v>1258</v>
@@ -18902,10 +18902,10 @@
         <v>1051</v>
       </c>
       <c r="I414" s="1" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="J414" s="1" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="K414" s="1" t="s">
         <v>29</v>
@@ -18934,10 +18934,10 @@
         <v>1051</v>
       </c>
       <c r="I415" s="1" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="J415" s="1" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="K415" s="1" t="s">
         <v>29</v>
@@ -18966,10 +18966,10 @@
         <v>1051</v>
       </c>
       <c r="I416" s="1" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="J416" s="1" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="K416" s="1" t="s">
         <v>29</v>
@@ -18998,10 +18998,10 @@
         <v>1074</v>
       </c>
       <c r="I417" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="J417" s="1" t="s">
         <v>1276</v>
-      </c>
-      <c r="J417" s="1" t="s">
-        <v>1277</v>
       </c>
       <c r="K417" s="1" t="s">
         <v>29</v>
@@ -19030,10 +19030,10 @@
         <v>1074</v>
       </c>
       <c r="I418" s="1" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="J418" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="K418" s="1" t="s">
         <v>29</v>
@@ -19062,10 +19062,10 @@
         <v>1074</v>
       </c>
       <c r="I419" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="J419" s="1" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="K419" s="1" t="s">
         <v>29</v>
@@ -19094,10 +19094,10 @@
         <v>1079</v>
       </c>
       <c r="I420" s="1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="J420" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="K420" s="1" t="s">
         <v>29</v>
@@ -19111,7 +19111,7 @@
         <v>25</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="D421" s="1" t="s">
         <v>1027</v>
@@ -19126,10 +19126,10 @@
         <v>1045</v>
       </c>
       <c r="I421" s="1" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="J421" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="K421" s="1" t="s">
         <v>29</v>
@@ -19143,7 +19143,7 @@
         <v>25</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="D422" s="1" t="s">
         <v>1027</v>
@@ -19158,10 +19158,10 @@
         <v>1084</v>
       </c>
       <c r="I422" s="1" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="J422" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="K422" s="1" t="s">
         <v>29</v>
@@ -19175,7 +19175,7 @@
         <v>25</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="D423" s="1" t="s">
         <v>1027</v>
@@ -19190,10 +19190,10 @@
         <v>1089</v>
       </c>
       <c r="I423" s="1" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="J423" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="K423" s="1" t="s">
         <v>29</v>
@@ -19207,7 +19207,7 @@
         <v>25</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="D424" s="1" t="s">
         <v>1027</v>
@@ -19222,10 +19222,10 @@
         <v>1051</v>
       </c>
       <c r="I424" s="1" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="J424" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="K424" s="1" t="s">
         <v>29</v>
@@ -19239,7 +19239,7 @@
         <v>25</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="D425" s="1" t="s">
         <v>1027</v>
@@ -19254,10 +19254,10 @@
         <v>1074</v>
       </c>
       <c r="I425" s="1" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="J425" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="K425" s="1" t="s">
         <v>29</v>
@@ -19271,7 +19271,7 @@
         <v>25</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="D426" s="1" t="s">
         <v>1027</v>
@@ -19286,10 +19286,10 @@
         <v>1079</v>
       </c>
       <c r="I426" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="J426" s="1" t="s">
         <v>1288</v>
-      </c>
-      <c r="J426" s="1" t="s">
-        <v>1289</v>
       </c>
       <c r="K426" s="1" t="s">
         <v>29</v>
@@ -19303,7 +19303,7 @@
         <v>25</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="D427" s="1" t="s">
         <v>1027</v>
@@ -19318,10 +19318,10 @@
         <v>1109</v>
       </c>
       <c r="I427" s="1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="J427" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="K427" s="1" t="s">
         <v>29</v>
@@ -19335,7 +19335,7 @@
         <v>25</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="D428" s="1" t="s">
         <v>1027</v>
@@ -19350,10 +19350,10 @@
         <v>1045</v>
       </c>
       <c r="I428" s="1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="J428" s="1" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="K428" s="1" t="s">
         <v>29</v>
@@ -19367,7 +19367,7 @@
         <v>25</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="D429" s="1" t="s">
         <v>1027</v>
@@ -19382,10 +19382,10 @@
         <v>1089</v>
       </c>
       <c r="I429" s="1" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="J429" s="1" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="K429" s="1" t="s">
         <v>29</v>
@@ -19399,7 +19399,7 @@
         <v>25</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="D430" s="1" t="s">
         <v>1027</v>
@@ -19414,10 +19414,10 @@
         <v>1051</v>
       </c>
       <c r="I430" s="1" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="J430" s="1" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="K430" s="1" t="s">
         <v>29</v>
@@ -19431,7 +19431,7 @@
         <v>25</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="D431" s="1" t="s">
         <v>1027</v>
@@ -19446,10 +19446,10 @@
         <v>1074</v>
       </c>
       <c r="I431" s="1" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="J431" s="1" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="K431" s="1" t="s">
         <v>29</v>
@@ -19463,7 +19463,7 @@
         <v>25</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="D432" s="1" t="s">
         <v>1027</v>
@@ -19478,10 +19478,10 @@
         <v>1079</v>
       </c>
       <c r="I432" s="1" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="J432" s="1" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="K432" s="1" t="s">
         <v>29</v>
@@ -19495,7 +19495,7 @@
         <v>25</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="D433" s="1" t="s">
         <v>1027</v>
@@ -19510,7 +19510,7 @@
         <v>1109</v>
       </c>
       <c r="I433" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="J433" s="1" t="s">
         <v>1258</v>
@@ -19527,7 +19527,7 @@
         <v>25</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="D434" s="1" t="s">
         <v>1027</v>
@@ -19542,10 +19542,10 @@
         <v>1045</v>
       </c>
       <c r="I434" s="1" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="J434" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="K434" s="1" t="s">
         <v>29</v>
@@ -19559,7 +19559,7 @@
         <v>25</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="D435" s="1" t="s">
         <v>1027</v>
@@ -19574,10 +19574,10 @@
         <v>1045</v>
       </c>
       <c r="I435" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="J435" s="1" t="s">
         <v>1314</v>
-      </c>
-      <c r="J435" s="1" t="s">
-        <v>1315</v>
       </c>
       <c r="K435" s="1" t="s">
         <v>29</v>
@@ -19591,7 +19591,7 @@
         <v>25</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="D436" s="1" t="s">
         <v>1027</v>
@@ -19606,10 +19606,10 @@
         <v>1045</v>
       </c>
       <c r="I436" s="1" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="J436" s="1" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="K436" s="1" t="s">
         <v>29</v>
@@ -19617,13 +19617,13 @@
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A437" s="4" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B437" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="D437" s="1" t="s">
         <v>1027</v>
@@ -19638,10 +19638,10 @@
         <v>1045</v>
       </c>
       <c r="I437" s="1" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="J437" s="1" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="K437" s="1" t="s">
         <v>29</v>
@@ -19649,13 +19649,13 @@
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A438" s="4" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="B438" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="D438" s="1" t="s">
         <v>1027</v>
@@ -19670,10 +19670,10 @@
         <v>1045</v>
       </c>
       <c r="I438" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="J438" s="1" t="s">
         <v>1310</v>
-      </c>
-      <c r="J438" s="1" t="s">
-        <v>1311</v>
       </c>
       <c r="K438" s="1" t="s">
         <v>29</v>
@@ -19681,13 +19681,13 @@
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A439" s="4" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="B439" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="D439" s="1" t="s">
         <v>1027</v>
@@ -19696,13 +19696,13 @@
         <v>1028</v>
       </c>
       <c r="F439" s="1" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="I439" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="J439" s="1" t="s">
         <v>1319</v>
-      </c>
-      <c r="J439" s="1" t="s">
-        <v>1320</v>
       </c>
       <c r="K439" s="1" t="s">
         <v>29</v>
@@ -19710,13 +19710,13 @@
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A440" s="4" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="B440" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="D440" s="1" t="s">
         <v>1027</v>
@@ -19725,16 +19725,16 @@
         <v>1028</v>
       </c>
       <c r="F440" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="H440" s="1" t="s">
         <v>1317</v>
       </c>
-      <c r="H440" s="1" t="s">
-        <v>1318</v>
-      </c>
       <c r="I440" s="1" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="J440" s="1" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="K440" s="1" t="s">
         <v>29</v>
@@ -19742,13 +19742,13 @@
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A441" s="4" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C441" s="1" t="s">
         <v>1323</v>
-      </c>
-      <c r="B441" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C441" s="1" t="s">
-        <v>1324</v>
       </c>
       <c r="D441" s="1" t="s">
         <v>1027</v>
@@ -19757,16 +19757,16 @@
         <v>1028</v>
       </c>
       <c r="F441" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="G441" s="1" t="s">
         <v>1325</v>
       </c>
-      <c r="G441" s="1" t="s">
+      <c r="I441" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="J441" s="1" t="s">
         <v>1326</v>
-      </c>
-      <c r="I441" s="1" t="s">
-        <v>1333</v>
-      </c>
-      <c r="J441" s="1" t="s">
-        <v>1327</v>
       </c>
       <c r="K441" s="1" t="s">
         <v>29</v>
@@ -19774,13 +19774,13 @@
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A442" s="4" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C442" s="1" t="s">
         <v>1328</v>
-      </c>
-      <c r="B442" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C442" s="1" t="s">
-        <v>1329</v>
       </c>
       <c r="D442" s="1" t="s">
         <v>1027</v>
@@ -19789,13 +19789,13 @@
         <v>1028</v>
       </c>
       <c r="F442" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="I442" s="1" t="s">
         <v>1330</v>
       </c>
-      <c r="I442" s="1" t="s">
+      <c r="J442" s="1" t="s">
         <v>1331</v>
-      </c>
-      <c r="J442" s="1" t="s">
-        <v>1332</v>
       </c>
       <c r="K442" s="1" t="s">
         <v>29</v>
@@ -19803,28 +19803,28 @@
     </row>
     <row r="443" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A443" s="1" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="B443" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="D443" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E443" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="F443" s="1" t="s">
         <v>1340</v>
       </c>
-      <c r="F443" s="1" t="s">
-        <v>1341</v>
-      </c>
       <c r="I443" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="J443" s="1" t="s">
         <v>1359</v>
-      </c>
-      <c r="J443" s="1" t="s">
-        <v>1360</v>
       </c>
       <c r="K443" s="1" t="s">
         <v>29</v>
@@ -19832,31 +19832,31 @@
     </row>
     <row r="444" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A444" s="1" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="B444" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="D444" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E444" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="F444" s="1" t="s">
         <v>1340</v>
       </c>
-      <c r="F444" s="1" t="s">
-        <v>1341</v>
-      </c>
       <c r="H444" s="1" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="I444" s="1" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="J444" s="1" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="K444" s="1" t="s">
         <v>29</v>
@@ -19864,31 +19864,31 @@
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A445" s="1" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="B445" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="D445" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E445" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="F445" s="1" t="s">
         <v>1340</v>
       </c>
-      <c r="F445" s="1" t="s">
-        <v>1341</v>
-      </c>
       <c r="H445" s="1" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="I445" s="1" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="J445" s="1" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="K445" s="1" t="s">
         <v>29</v>
@@ -19896,31 +19896,31 @@
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A446" s="1" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B446" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="D446" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E446" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="F446" s="1" t="s">
         <v>1340</v>
       </c>
-      <c r="F446" s="1" t="s">
-        <v>1341</v>
-      </c>
       <c r="H446" s="1" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="I446" s="1" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="J446" s="1" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="K446" s="1" t="s">
         <v>29</v>
@@ -19928,31 +19928,31 @@
     </row>
     <row r="447" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A447" s="1" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="B447" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="D447" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E447" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="F447" s="1" t="s">
         <v>1340</v>
       </c>
-      <c r="F447" s="1" t="s">
-        <v>1341</v>
-      </c>
       <c r="H447" s="1" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="I447" s="1" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="J447" s="1" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="K447" s="1" t="s">
         <v>29</v>
@@ -19960,31 +19960,31 @@
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A448" s="1" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="B448" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="D448" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E448" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="F448" s="1" t="s">
         <v>1340</v>
       </c>
-      <c r="F448" s="1" t="s">
-        <v>1341</v>
-      </c>
       <c r="H448" s="1" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="I448" s="1" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="J448" s="1" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="K448" s="1" t="s">
         <v>29</v>
@@ -19992,31 +19992,31 @@
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A449" s="1" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="B449" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="D449" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E449" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="F449" s="1" t="s">
         <v>1340</v>
       </c>
-      <c r="F449" s="1" t="s">
-        <v>1341</v>
-      </c>
       <c r="H449" s="1" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="I449" s="1" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="J449" s="1" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="K449" s="1" t="s">
         <v>29</v>
@@ -20024,28 +20024,28 @@
     </row>
     <row r="450" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A450" s="1" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B450" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="D450" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E450" s="1" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="F450" s="1" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="I450" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="J450" s="1" t="s">
         <v>1366</v>
-      </c>
-      <c r="J450" s="1" t="s">
-        <v>1367</v>
       </c>
       <c r="K450" s="1" t="s">
         <v>29</v>
@@ -20053,31 +20053,31 @@
     </row>
     <row r="451" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A451" s="1" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C451" s="1" t="s">
         <v>1361</v>
-      </c>
-      <c r="B451" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C451" s="1" t="s">
-        <v>1362</v>
       </c>
       <c r="D451" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E451" s="1" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="F451" s="1" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="H451" s="1" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="I451" s="1" t="s">
+        <v>1367</v>
+      </c>
+      <c r="J451" s="1" t="s">
         <v>1368</v>
-      </c>
-      <c r="J451" s="1" t="s">
-        <v>1369</v>
       </c>
       <c r="K451" s="1" t="s">
         <v>29</v>
@@ -20085,28 +20085,28 @@
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A452" s="1" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C452" s="1" t="s">
         <v>1370</v>
-      </c>
-      <c r="B452" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C452" s="1" t="s">
-        <v>1371</v>
       </c>
       <c r="D452" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E452" s="1" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="F452" s="1" t="s">
+        <v>1371</v>
+      </c>
+      <c r="I452" s="1" t="s">
         <v>1372</v>
       </c>
-      <c r="I452" s="1" t="s">
+      <c r="J452" s="1" t="s">
         <v>1373</v>
-      </c>
-      <c r="J452" s="1" t="s">
-        <v>1374</v>
       </c>
       <c r="K452" s="1" t="s">
         <v>29</v>
@@ -20114,25 +20114,25 @@
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A453" s="4" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="D453" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E453" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F453" s="1" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I453" s="1" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="K453" s="1" t="s">
         <v>29</v>
@@ -20140,25 +20140,25 @@
     </row>
     <row r="454" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A454" s="4" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="D454" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E454" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F454" s="1" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="I454" s="1" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="K454" s="1" t="s">
         <v>29</v>
@@ -20166,28 +20166,28 @@
     </row>
     <row r="455" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A455" s="4" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="D455" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E455" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F455" s="1" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="H455" s="1" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="I455" s="1" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="K455" s="1" t="s">
         <v>29</v>
@@ -20195,28 +20195,28 @@
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A456" s="4" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="D456" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E456" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F456" s="1" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="H456" s="1" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="I456" s="1" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="K456" s="1" t="s">
         <v>29</v>
@@ -20224,28 +20224,28 @@
     </row>
     <row r="457" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A457" s="4" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="D457" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E457" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F457" s="1" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="H457" s="1" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="I457" s="1" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="K457" s="1" t="s">
         <v>29</v>
@@ -20253,28 +20253,28 @@
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A458" s="4" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="D458" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E458" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F458" s="1" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="H458" s="1" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="I458" s="1" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="K458" s="1" t="s">
         <v>29</v>
@@ -20282,28 +20282,28 @@
     </row>
     <row r="459" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A459" s="4" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="D459" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E459" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F459" s="1" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="H459" s="1" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="I459" s="1" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="K459" s="1" t="s">
         <v>29</v>
@@ -20311,25 +20311,25 @@
     </row>
     <row r="460" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A460" s="4" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="D460" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E460" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F460" s="1" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="I460" s="1" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="K460" s="1" t="s">
         <v>29</v>
@@ -20337,28 +20337,28 @@
     </row>
     <row r="461" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A461" s="4" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="D461" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E461" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F461" s="1" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="H461" s="1" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="I461" s="1" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="K461" s="1" t="s">
         <v>29</v>
@@ -20366,28 +20366,28 @@
     </row>
     <row r="462" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A462" s="4" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C462" s="1" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="D462" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E462" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F462" s="1" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="H462" s="1" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="I462" s="1" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="K462" s="1" t="s">
         <v>29</v>
@@ -20395,28 +20395,28 @@
     </row>
     <row r="463" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A463" s="4" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="D463" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E463" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F463" s="1" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="H463" s="1" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="I463" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="K463" s="1" t="s">
         <v>29</v>
@@ -20424,28 +20424,28 @@
     </row>
     <row r="464" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A464" s="4" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="D464" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E464" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F464" s="1" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="H464" s="1" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="I464" s="1" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="K464" s="1" t="s">
         <v>29</v>
@@ -20453,28 +20453,28 @@
     </row>
     <row r="465" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A465" s="4" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="D465" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E465" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F465" s="1" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="H465" s="1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I465" s="1" t="s">
         <v>1437</v>
-      </c>
-      <c r="I465" s="1" t="s">
-        <v>1438</v>
       </c>
       <c r="K465" s="1" t="s">
         <v>29</v>
@@ -20482,28 +20482,28 @@
     </row>
     <row r="466" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A466" s="4" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C466" s="1" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="D466" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E466" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F466" s="1" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="H466" s="1" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="I466" s="1" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="K466" s="1" t="s">
         <v>29</v>
@@ -20511,28 +20511,28 @@
     </row>
     <row r="467" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A467" s="4" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="D467" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E467" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F467" s="1" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="H467" s="1" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="I467" s="1" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="K467" s="1" t="s">
         <v>29</v>
@@ -20540,25 +20540,25 @@
     </row>
     <row r="468" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A468" s="4" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C468" s="1" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="D468" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E468" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F468" s="1" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I468" s="1" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="K468" s="1" t="s">
         <v>29</v>
@@ -20566,28 +20566,28 @@
     </row>
     <row r="469" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A469" s="4" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="D469" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E469" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F469" s="1" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="H469" s="1" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="I469" s="1" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="K469" s="1" t="s">
         <v>29</v>
@@ -20595,28 +20595,28 @@
     </row>
     <row r="470" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A470" s="4" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="D470" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E470" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F470" s="1" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="H470" s="1" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="I470" s="1" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="K470" s="1" t="s">
         <v>29</v>
@@ -20624,28 +20624,28 @@
     </row>
     <row r="471" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A471" s="4" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="D471" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E471" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F471" s="1" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="H471" s="1" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="I471" s="1" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="K471" s="1" t="s">
         <v>29</v>
@@ -20653,28 +20653,28 @@
     </row>
     <row r="472" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A472" s="4" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="D472" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E472" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F472" s="1" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="H472" s="1" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="I472" s="1" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="K472" s="1" t="s">
         <v>29</v>
@@ -20682,28 +20682,28 @@
     </row>
     <row r="473" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A473" s="4" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="D473" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E473" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F473" s="1" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="H473" s="1" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="I473" s="1" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="K473" s="1" t="s">
         <v>29</v>
@@ -20711,28 +20711,28 @@
     </row>
     <row r="474" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A474" s="4" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="D474" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E474" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F474" s="1" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="H474" s="1" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="I474" s="1" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="K474" s="1" t="s">
         <v>29</v>
@@ -20740,28 +20740,28 @@
     </row>
     <row r="475" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A475" s="4" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C475" s="1" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="D475" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E475" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F475" s="1" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="H475" s="1" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="I475" s="1" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="K475" s="1" t="s">
         <v>29</v>
@@ -20769,28 +20769,28 @@
     </row>
     <row r="476" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A476" s="4" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C476" s="1" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="D476" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E476" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F476" s="1" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="H476" s="1" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="I476" s="1" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="K476" s="1" t="s">
         <v>29</v>
@@ -20798,28 +20798,28 @@
     </row>
     <row r="477" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A477" s="4" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C477" s="1" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="D477" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E477" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F477" s="1" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="H477" s="1" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="I477" s="1" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="K477" s="1" t="s">
         <v>29</v>
@@ -20827,28 +20827,28 @@
     </row>
     <row r="478" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A478" s="4" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C478" s="1" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="D478" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E478" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F478" s="1" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="H478" s="1" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="I478" s="1" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="K478" s="1" t="s">
         <v>29</v>
@@ -20856,28 +20856,28 @@
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A479" s="4" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="D479" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E479" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F479" s="1" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="H479" s="1" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="I479" s="1" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="K479" s="1" t="s">
         <v>29</v>
@@ -20885,25 +20885,25 @@
     </row>
     <row r="480" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A480" s="4" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="D480" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E480" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F480" s="1" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="I480" s="1" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="K480" s="1" t="s">
         <v>29</v>
@@ -20911,28 +20911,28 @@
     </row>
     <row r="481" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A481" s="4" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C481" s="1" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="D481" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E481" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F481" s="1" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="H481" s="1" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="I481" s="1" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="K481" s="1" t="s">
         <v>29</v>
@@ -20940,28 +20940,28 @@
     </row>
     <row r="482" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A482" s="4" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="D482" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E482" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F482" s="1" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="H482" s="1" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="I482" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="K482" s="1" t="s">
         <v>29</v>
@@ -20969,28 +20969,28 @@
     </row>
     <row r="483" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A483" s="4" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="D483" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E483" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F483" s="1" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="H483" s="1" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="I483" s="1" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="K483" s="1" t="s">
         <v>29</v>
@@ -20998,28 +20998,28 @@
     </row>
     <row r="484" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A484" s="4" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="D484" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E484" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F484" s="1" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="H484" s="1" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="I484" s="1" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="K484" s="1" t="s">
         <v>29</v>
@@ -21027,28 +21027,28 @@
     </row>
     <row r="485" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A485" s="4" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="D485" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E485" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F485" s="1" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="H485" s="1" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="I485" s="1" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="K485" s="1" t="s">
         <v>29</v>
@@ -21056,28 +21056,28 @@
     </row>
     <row r="486" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A486" s="4" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="D486" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E486" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F486" s="1" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="H486" s="1" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="I486" s="1" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="K486" s="1" t="s">
         <v>29</v>
@@ -21085,28 +21085,28 @@
     </row>
     <row r="487" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A487" s="4" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C487" s="1" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="D487" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E487" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F487" s="1" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="H487" s="1" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="I487" s="1" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="K487" s="1" t="s">
         <v>29</v>
@@ -21114,28 +21114,28 @@
     </row>
     <row r="488" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A488" s="4" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C488" s="1" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="D488" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E488" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F488" s="1" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="H488" s="1" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="I488" s="1" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="K488" s="1" t="s">
         <v>29</v>
@@ -21143,28 +21143,28 @@
     </row>
     <row r="489" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A489" s="4" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C489" s="1" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="D489" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E489" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F489" s="1" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="H489" s="1" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="I489" s="1" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="K489" s="1" t="s">
         <v>29</v>
@@ -21172,28 +21172,28 @@
     </row>
     <row r="490" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A490" s="4" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="D490" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E490" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F490" s="1" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="H490" s="1" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="I490" s="1" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="K490" s="1" t="s">
         <v>29</v>
@@ -21201,28 +21201,28 @@
     </row>
     <row r="491" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A491" s="4" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C491" s="1" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="D491" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E491" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F491" s="1" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="H491" s="1" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="I491" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="K491" s="1" t="s">
         <v>29</v>
@@ -21230,28 +21230,28 @@
     </row>
     <row r="492" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A492" s="4" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="D492" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E492" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F492" s="1" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="H492" s="1" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="I492" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="K492" s="1" t="s">
         <v>29</v>
@@ -21259,25 +21259,25 @@
     </row>
     <row r="493" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A493" s="4" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C493" s="1" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="D493" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E493" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F493" s="1" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="I493" s="1" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="K493" s="1" t="s">
         <v>29</v>
@@ -21285,28 +21285,28 @@
     </row>
     <row r="494" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A494" s="4" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C494" s="1" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="D494" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E494" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F494" s="1" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="H494" s="1" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="I494" s="1" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="K494" s="1" t="s">
         <v>29</v>
@@ -21314,28 +21314,28 @@
     </row>
     <row r="495" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A495" s="4" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C495" s="1" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="D495" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E495" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F495" s="1" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="H495" s="1" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="I495" s="1" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="K495" s="1" t="s">
         <v>29</v>
@@ -21343,28 +21343,28 @@
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A496" s="4" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C496" s="1" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="D496" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E496" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F496" s="1" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="H496" s="1" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="I496" s="1" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="K496" s="1" t="s">
         <v>29</v>
@@ -21372,28 +21372,28 @@
     </row>
     <row r="497" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A497" s="4" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C497" s="1" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="D497" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E497" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F497" s="1" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="H497" s="1" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="I497" s="1" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="K497" s="1" t="s">
         <v>29</v>
@@ -21401,28 +21401,28 @@
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A498" s="4" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="D498" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E498" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F498" s="1" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="H498" s="1" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="I498" s="1" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="K498" s="1" t="s">
         <v>29</v>
@@ -21430,28 +21430,28 @@
     </row>
     <row r="499" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A499" s="4" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="D499" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E499" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F499" s="1" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="H499" s="1" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="I499" s="1" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="K499" s="1" t="s">
         <v>29</v>
@@ -21459,28 +21459,28 @@
     </row>
     <row r="500" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A500" s="4" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="D500" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E500" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F500" s="1" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="H500" s="1" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="I500" s="1" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="K500" s="1" t="s">
         <v>29</v>
@@ -21488,28 +21488,28 @@
     </row>
     <row r="501" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A501" s="4" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="D501" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E501" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F501" s="1" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="H501" s="1" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="I501" s="1" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="K501" s="1" t="s">
         <v>29</v>
@@ -21517,28 +21517,28 @@
     </row>
     <row r="502" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A502" s="4" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="D502" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E502" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F502" s="1" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="H502" s="1" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="I502" s="1" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="K502" s="1" t="s">
         <v>29</v>
@@ -21546,28 +21546,28 @@
     </row>
     <row r="503" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A503" s="4" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C503" s="1" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="D503" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E503" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F503" s="1" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="H503" s="1" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="I503" s="1" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="K503" s="1" t="s">
         <v>29</v>
@@ -21575,28 +21575,28 @@
     </row>
     <row r="504" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A504" s="4" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C504" s="1" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="D504" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E504" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F504" s="1" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="H504" s="1" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="I504" s="1" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="K504" s="1" t="s">
         <v>29</v>
@@ -21604,28 +21604,28 @@
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A505" s="4" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C505" s="1" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="D505" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E505" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F505" s="1" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="H505" s="1" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="I505" s="1" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="K505" s="1" t="s">
         <v>29</v>
@@ -21633,28 +21633,28 @@
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A506" s="4" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C506" s="1" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="D506" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E506" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F506" s="1" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="H506" s="1" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="I506" s="1" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="K506" s="1" t="s">
         <v>29</v>
@@ -21662,28 +21662,28 @@
     </row>
     <row r="507" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A507" s="4" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C507" s="1" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="D507" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E507" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F507" s="1" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="H507" s="1" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="I507" s="1" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="K507" s="1" t="s">
         <v>29</v>
@@ -21691,28 +21691,28 @@
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A508" s="4" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C508" s="1" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="D508" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E508" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F508" s="1" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="H508" s="1" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="I508" s="1" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="K508" s="1" t="s">
         <v>29</v>
@@ -21720,28 +21720,28 @@
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A509" s="4" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C509" s="1" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="D509" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E509" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F509" s="1" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="H509" s="1" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="I509" s="1" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="K509" s="1" t="s">
         <v>29</v>
@@ -21749,25 +21749,25 @@
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A510" s="4" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C510" s="1" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="D510" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E510" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F510" s="1" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="I510" s="1" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="K510" s="1" t="s">
         <v>29</v>
@@ -21775,28 +21775,28 @@
     </row>
     <row r="511" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A511" s="4" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C511" s="1" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="D511" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E511" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F511" s="1" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="H511" s="1" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="I511" s="1" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="K511" s="1" t="s">
         <v>29</v>
@@ -21804,28 +21804,28 @@
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A512" s="4" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C512" s="1" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="D512" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E512" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F512" s="1" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="H512" s="1" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="I512" s="1" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="K512" s="1" t="s">
         <v>29</v>
@@ -21833,28 +21833,28 @@
     </row>
     <row r="513" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A513" s="4" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C513" s="1" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="D513" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E513" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F513" s="1" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="H513" s="1" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="I513" s="1" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="K513" s="1" t="s">
         <v>29</v>
@@ -21862,28 +21862,28 @@
     </row>
     <row r="514" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A514" s="4" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C514" s="1" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="D514" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E514" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F514" s="1" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="H514" s="1" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="I514" s="1" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="K514" s="1" t="s">
         <v>29</v>
@@ -21891,28 +21891,28 @@
     </row>
     <row r="515" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A515" s="4" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C515" s="1" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="D515" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E515" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F515" s="1" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="H515" s="1" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="I515" s="1" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="K515" s="1" t="s">
         <v>29</v>
@@ -21920,28 +21920,28 @@
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A516" s="4" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C516" s="1" t="s">
         <v>1513</v>
-      </c>
-      <c r="B516" s="1" t="s">
-        <v>1630</v>
-      </c>
-      <c r="C516" s="1" t="s">
-        <v>1514</v>
       </c>
       <c r="D516" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E516" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F516" s="1" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="H516" s="1" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="I516" s="1" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="K516" s="1" t="s">
         <v>29</v>
@@ -21949,28 +21949,28 @@
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A517" s="4" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="B517" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C517" s="1" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="D517" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E517" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F517" s="1" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="H517" s="1" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="I517" s="1" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="K517" s="1" t="s">
         <v>29</v>
@@ -21978,28 +21978,28 @@
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A518" s="4" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C518" s="1" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="D518" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E518" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F518" s="1" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="H518" s="1" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="I518" s="1" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="K518" s="1" t="s">
         <v>29</v>
@@ -22007,28 +22007,28 @@
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A519" s="4" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C519" s="1" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="D519" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E519" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F519" s="1" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="H519" s="1" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="I519" s="1" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="K519" s="1" t="s">
         <v>29</v>
@@ -22036,28 +22036,28 @@
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A520" s="4" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C520" s="1" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="D520" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E520" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F520" s="1" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="H520" s="1" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="I520" s="1" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="K520" s="1" t="s">
         <v>29</v>
@@ -22065,28 +22065,28 @@
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A521" s="4" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C521" s="1" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="D521" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E521" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F521" s="1" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="H521" s="1" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="I521" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="K521" s="1" t="s">
         <v>29</v>
@@ -22094,28 +22094,28 @@
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A522" s="4" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C522" s="1" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="D522" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E522" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F522" s="1" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="H522" s="1" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="I522" s="1" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="K522" s="1" t="s">
         <v>29</v>
@@ -22123,28 +22123,28 @@
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A523" s="4" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C523" s="1" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="D523" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E523" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F523" s="1" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="H523" s="1" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="I523" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="K523" s="1" t="s">
         <v>29</v>
@@ -22152,28 +22152,28 @@
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A524" s="4" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C524" s="1" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="D524" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E524" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F524" s="1" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="H524" s="1" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="I524" s="1" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="K524" s="1" t="s">
         <v>29</v>
@@ -22181,28 +22181,28 @@
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A525" s="4" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C525" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="D525" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E525" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F525" s="1" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="H525" s="1" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="I525" s="1" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="K525" s="1" t="s">
         <v>29</v>
@@ -22210,28 +22210,28 @@
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A526" s="4" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C526" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="D526" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E526" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F526" s="1" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="H526" s="1" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="I526" s="1" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="K526" s="1" t="s">
         <v>29</v>
@@ -22239,28 +22239,28 @@
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A527" s="4" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="B527" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C527" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="D527" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E527" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F527" s="1" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="H527" s="1" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="I527" s="1" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="K527" s="1" t="s">
         <v>29</v>
@@ -22268,28 +22268,28 @@
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A528" s="4" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C528" s="1" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="D528" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E528" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F528" s="1" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="H528" s="1" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="I528" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="K528" s="1" t="s">
         <v>29</v>
@@ -22297,28 +22297,28 @@
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A529" s="4" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B529" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C529" s="1" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="D529" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E529" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F529" s="1" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="H529" s="1" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="I529" s="1" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="K529" s="1" t="s">
         <v>29</v>
@@ -22326,28 +22326,28 @@
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A530" s="4" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C530" s="1" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="D530" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E530" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F530" s="1" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="H530" s="1" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="I530" s="1" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="K530" s="1" t="s">
         <v>29</v>
@@ -22355,28 +22355,28 @@
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A531" s="4" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="B531" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C531" s="1" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="D531" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E531" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F531" s="1" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="H531" s="1" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="I531" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="K531" s="1" t="s">
         <v>29</v>
@@ -22384,28 +22384,28 @@
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A532" s="4" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C532" s="1" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="D532" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E532" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F532" s="1" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="H532" s="1" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="I532" s="1" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="K532" s="1" t="s">
         <v>29</v>
@@ -22413,28 +22413,28 @@
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A533" s="4" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C533" s="1" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="D533" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E533" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F533" s="1" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="H533" s="1" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="I533" s="1" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="K533" s="1" t="s">
         <v>29</v>
@@ -22442,28 +22442,28 @@
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A534" s="4" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="B534" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C534" s="1" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="D534" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E534" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F534" s="1" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="H534" s="1" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="I534" s="1" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="K534" s="1" t="s">
         <v>29</v>
@@ -22471,28 +22471,28 @@
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A535" s="4" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="B535" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C535" s="1" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="D535" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E535" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F535" s="1" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="H535" s="1" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="I535" s="1" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="K535" s="1" t="s">
         <v>29</v>
@@ -22500,28 +22500,28 @@
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A536" s="4" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C536" s="1" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="D536" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E536" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F536" s="1" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="H536" s="1" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="I536" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="K536" s="1" t="s">
         <v>29</v>
@@ -22529,28 +22529,28 @@
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A537" s="4" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C537" s="1" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="D537" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E537" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F537" s="1" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="H537" s="1" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="I537" s="1" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="K537" s="1" t="s">
         <v>29</v>
@@ -22558,28 +22558,28 @@
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A538" s="4" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C538" s="1" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="D538" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E538" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F538" s="1" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="H538" s="1" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="I538" s="1" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="K538" s="1" t="s">
         <v>29</v>
@@ -22587,28 +22587,28 @@
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A539" s="4" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C539" s="1" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="D539" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E539" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F539" s="1" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="H539" s="1" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="I539" s="1" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="K539" s="1" t="s">
         <v>29</v>
@@ -22616,28 +22616,28 @@
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A540" s="4" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C540" s="1" t="s">
         <v>1570</v>
-      </c>
-      <c r="B540" s="1" t="s">
-        <v>1630</v>
-      </c>
-      <c r="C540" s="1" t="s">
-        <v>1571</v>
       </c>
       <c r="D540" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E540" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F540" s="1" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="H540" s="1" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="I540" s="1" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="K540" s="1" t="s">
         <v>29</v>
@@ -22645,28 +22645,28 @@
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A541" s="4" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C541" s="1" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="D541" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E541" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F541" s="1" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="H541" s="1" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="I541" s="1" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="K541" s="1" t="s">
         <v>29</v>
@@ -22674,28 +22674,28 @@
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A542" s="4" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C542" s="1" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="D542" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E542" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F542" s="1" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="H542" s="1" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="I542" s="1" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="K542" s="1" t="s">
         <v>29</v>
@@ -22703,28 +22703,28 @@
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A543" s="4" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C543" s="1" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="D543" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E543" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F543" s="1" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="H543" s="1" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="I543" s="1" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="K543" s="1" t="s">
         <v>29</v>
@@ -22732,28 +22732,28 @@
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A544" s="4" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C544" s="1" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="D544" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E544" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F544" s="1" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="H544" s="1" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="I544" s="1" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="K544" s="1" t="s">
         <v>29</v>
@@ -22761,28 +22761,28 @@
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A545" s="4" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="B545" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C545" s="1" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="D545" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E545" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F545" s="1" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="H545" s="1" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="I545" s="1" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="K545" s="1" t="s">
         <v>29</v>
@@ -22790,28 +22790,28 @@
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A546" s="4" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C546" s="1" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="D546" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E546" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F546" s="1" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="H546" s="1" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="I546" s="1" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="K546" s="1" t="s">
         <v>29</v>
@@ -22819,28 +22819,28 @@
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A547" s="4" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B547" s="1" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C547" s="1" t="s">
         <v>1579</v>
-      </c>
-      <c r="B547" s="1" t="s">
-        <v>1630</v>
-      </c>
-      <c r="C547" s="1" t="s">
-        <v>1580</v>
       </c>
       <c r="D547" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E547" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F547" s="1" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="H547" s="1" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="I547" s="1" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="K547" s="1" t="s">
         <v>29</v>
@@ -22848,28 +22848,28 @@
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A548" s="4" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C548" s="1" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="D548" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E548" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F548" s="1" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="H548" s="1" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="I548" s="1" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="K548" s="1" t="s">
         <v>29</v>
@@ -22877,28 +22877,28 @@
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A549" s="4" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C549" s="1" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="D549" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E549" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F549" s="1" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="H549" s="1" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="I549" s="1" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="K549" s="1" t="s">
         <v>29</v>
@@ -22906,28 +22906,28 @@
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A550" s="4" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C550" s="1" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="D550" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E550" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F550" s="1" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="H550" s="1" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="I550" s="1" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="K550" s="1" t="s">
         <v>29</v>
@@ -22935,28 +22935,28 @@
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A551" s="4" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="B551" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C551" s="1" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="D551" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E551" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F551" s="1" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="H551" s="1" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="I551" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="K551" s="1" t="s">
         <v>29</v>
@@ -22964,28 +22964,28 @@
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A552" s="4" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C552" s="1" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="D552" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E552" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F552" s="1" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="H552" s="1" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="I552" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="K552" s="1" t="s">
         <v>29</v>
@@ -22993,28 +22993,28 @@
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A553" s="4" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B553" s="1" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C553" s="1" t="s">
         <v>1586</v>
-      </c>
-      <c r="B553" s="1" t="s">
-        <v>1630</v>
-      </c>
-      <c r="C553" s="1" t="s">
-        <v>1587</v>
       </c>
       <c r="D553" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E553" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F553" s="1" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="H553" s="1" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="I553" s="1" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="K553" s="1" t="s">
         <v>29</v>
@@ -23022,28 +23022,28 @@
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A554" s="4" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C554" s="1" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="D554" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E554" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F554" s="1" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="H554" s="1" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="I554" s="1" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="K554" s="1" t="s">
         <v>29</v>
@@ -23051,28 +23051,28 @@
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A555" s="4" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="B555" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C555" s="1" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="D555" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E555" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F555" s="1" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="H555" s="1" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="I555" s="1" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="K555" s="1" t="s">
         <v>29</v>
@@ -23080,28 +23080,28 @@
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A556" s="4" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C556" s="1" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="D556" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E556" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F556" s="1" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="H556" s="1" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="I556" s="1" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="K556" s="1" t="s">
         <v>29</v>
@@ -23109,25 +23109,25 @@
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A557" s="4" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="B557" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C557" s="1" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="D557" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E557" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F557" s="1" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="I557" s="1" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="K557" s="1" t="s">
         <v>29</v>
@@ -23135,28 +23135,28 @@
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A558" s="4" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="B558" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C558" s="1" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="D558" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E558" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F558" s="1" t="s">
+        <v>1616</v>
+      </c>
+      <c r="H558" s="1" t="s">
         <v>1617</v>
       </c>
-      <c r="H558" s="1" t="s">
-        <v>1618</v>
-      </c>
       <c r="I558" s="1" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="K558" s="1" t="s">
         <v>29</v>
@@ -23164,28 +23164,28 @@
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A559" s="4" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B559" s="1" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C559" s="1" t="s">
         <v>1621</v>
-      </c>
-      <c r="B559" s="1" t="s">
-        <v>1630</v>
-      </c>
-      <c r="C559" s="1" t="s">
-        <v>1622</v>
       </c>
       <c r="D559" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E559" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F559" s="1" t="s">
+        <v>1622</v>
+      </c>
+      <c r="G559" s="1" t="s">
         <v>1623</v>
       </c>
-      <c r="G559" s="1" t="s">
+      <c r="I559" s="1" t="s">
         <v>1624</v>
-      </c>
-      <c r="I559" s="1" t="s">
-        <v>1625</v>
       </c>
       <c r="K559" s="1" t="s">
         <v>29</v>
@@ -23193,25 +23193,25 @@
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A560" s="4" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C560" s="1" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="D560" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="E560" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F560" s="1" t="s">
+        <v>1627</v>
+      </c>
+      <c r="I560" s="1" t="s">
         <v>1628</v>
-      </c>
-      <c r="I560" s="1" t="s">
-        <v>1629</v>
       </c>
       <c r="K560" s="1" t="s">
         <v>29</v>
@@ -23219,19 +23219,19 @@
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A561" s="1" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="B561" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C561" s="1" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="D561" s="1" t="s">
+        <v>1638</v>
+      </c>
+      <c r="I561" s="1" t="s">
         <v>1639</v>
-      </c>
-      <c r="I561" s="1" t="s">
-        <v>1640</v>
       </c>
       <c r="K561" s="1" t="s">
         <v>29</v>
@@ -23239,19 +23239,19 @@
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A562" s="1" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="B562" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C562" s="1" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="D562" s="1" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="I562" s="1" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="K562" s="1" t="s">
         <v>29</v>
@@ -23259,19 +23259,19 @@
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A563" s="1" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="B563" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C563" s="1" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="D563" s="1" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="I563" s="1" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="K563" s="1" t="s">
         <v>29</v>
@@ -23279,19 +23279,19 @@
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A564" s="1" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B564" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C564" s="1" t="s">
         <v>1637</v>
       </c>
-      <c r="B564" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C564" s="1" t="s">
+      <c r="D564" s="1" t="s">
         <v>1638</v>
       </c>
-      <c r="D564" s="1" t="s">
-        <v>1639</v>
-      </c>
       <c r="I564" s="1" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="K564" s="1" t="s">
         <v>29</v>
@@ -23299,22 +23299,22 @@
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A565" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B565" s="1" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C565" s="1" t="s">
         <v>1644</v>
       </c>
-      <c r="B565" s="1" t="s">
-        <v>1630</v>
-      </c>
-      <c r="C565" s="1" t="s">
+      <c r="D565" s="1" t="s">
         <v>1645</v>
       </c>
-      <c r="D565" s="1" t="s">
+      <c r="I565" s="1" t="s">
         <v>1646</v>
       </c>
-      <c r="I565" s="1" t="s">
-        <v>1647</v>
-      </c>
       <c r="J565" s="1" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="K565" s="1" t="s">
         <v>29</v>
@@ -23322,19 +23322,19 @@
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A566" s="1" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="B566" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C566" s="1" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D566" s="1" t="s">
         <v>1650</v>
       </c>
-      <c r="D566" s="1" t="s">
-        <v>1651</v>
-      </c>
       <c r="I566" s="1" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="K566" s="1" t="s">
         <v>29</v>
@@ -23342,19 +23342,19 @@
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A567" s="1" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B567" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C567" s="1" t="s">
         <v>1649</v>
       </c>
-      <c r="B567" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C567" s="1" t="s">
+      <c r="D567" s="1" t="s">
         <v>1650</v>
       </c>
-      <c r="D567" s="1" t="s">
+      <c r="I567" s="1" t="s">
         <v>1651</v>
-      </c>
-      <c r="I567" s="1" t="s">
-        <v>1652</v>
       </c>
       <c r="K567" s="1" t="s">
         <v>29</v>
@@ -23362,22 +23362,22 @@
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A568" s="1" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B568" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C568" s="1" t="s">
         <v>1654</v>
-      </c>
-      <c r="B568" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C568" s="1" t="s">
-        <v>1655</v>
       </c>
       <c r="D568" s="1" t="s">
         <v>964</v>
       </c>
       <c r="I568" s="1" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="J568" s="1" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="K568" s="1" t="s">
         <v>29</v>
@@ -23385,25 +23385,25 @@
     </row>
     <row r="569" spans="1:11" ht="216" x14ac:dyDescent="0.15">
       <c r="A569" s="1" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B569" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C569" s="1" t="s">
         <v>1657</v>
-      </c>
-      <c r="B569" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C569" s="1" t="s">
-        <v>1658</v>
       </c>
       <c r="D569" s="1" t="s">
         <v>964</v>
       </c>
       <c r="E569" s="1" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="I569" s="5" t="s">
+        <v>1658</v>
+      </c>
+      <c r="J569" s="1" t="s">
         <v>1659</v>
-      </c>
-      <c r="J569" s="1" t="s">
-        <v>1660</v>
       </c>
       <c r="K569" s="1" t="s">
         <v>29</v>
@@ -23411,25 +23411,25 @@
     </row>
     <row r="570" spans="1:11" ht="216" x14ac:dyDescent="0.15">
       <c r="A570" s="1" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B570" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C570" s="1" t="s">
         <v>1662</v>
-      </c>
-      <c r="B570" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C570" s="1" t="s">
-        <v>1663</v>
       </c>
       <c r="D570" s="1" t="s">
         <v>964</v>
       </c>
       <c r="E570" s="1" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="I570" s="5" t="s">
+        <v>1663</v>
+      </c>
+      <c r="J570" s="1" t="s">
         <v>1664</v>
-      </c>
-      <c r="J570" s="1" t="s">
-        <v>1665</v>
       </c>
       <c r="K570" s="1" t="s">
         <v>29</v>
@@ -23437,25 +23437,25 @@
     </row>
     <row r="571" spans="1:11" ht="229.5" x14ac:dyDescent="0.15">
       <c r="A571" s="1" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B571" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C571" s="1" t="s">
         <v>1666</v>
-      </c>
-      <c r="B571" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C571" s="1" t="s">
-        <v>1667</v>
       </c>
       <c r="D571" s="1" t="s">
         <v>964</v>
       </c>
       <c r="E571" s="1" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="I571" s="5" t="s">
+        <v>1667</v>
+      </c>
+      <c r="J571" s="1" t="s">
         <v>1668</v>
-      </c>
-      <c r="J571" s="1" t="s">
-        <v>1669</v>
       </c>
       <c r="K571" s="1" t="s">
         <v>29</v>
@@ -23463,25 +23463,25 @@
     </row>
     <row r="572" spans="1:11" ht="216" x14ac:dyDescent="0.15">
       <c r="A572" s="1" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B572" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C572" s="1" t="s">
         <v>1670</v>
-      </c>
-      <c r="B572" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C572" s="1" t="s">
-        <v>1671</v>
       </c>
       <c r="D572" s="1" t="s">
         <v>964</v>
       </c>
       <c r="E572" s="1" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="I572" s="5" t="s">
+        <v>1671</v>
+      </c>
+      <c r="J572" s="1" t="s">
         <v>1672</v>
-      </c>
-      <c r="J572" s="1" t="s">
-        <v>1673</v>
       </c>
       <c r="K572" s="1" t="s">
         <v>29</v>
@@ -23489,25 +23489,25 @@
     </row>
     <row r="573" spans="1:11" ht="216" x14ac:dyDescent="0.15">
       <c r="A573" s="1" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B573" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C573" s="1" t="s">
         <v>1674</v>
-      </c>
-      <c r="B573" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C573" s="1" t="s">
-        <v>1675</v>
       </c>
       <c r="D573" s="1" t="s">
         <v>964</v>
       </c>
       <c r="E573" s="1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="I573" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="J573" s="1" t="s">
         <v>1676</v>
-      </c>
-      <c r="I573" s="5" t="s">
-        <v>1678</v>
-      </c>
-      <c r="J573" s="1" t="s">
-        <v>1677</v>
       </c>
       <c r="K573" s="1" t="s">
         <v>29</v>
@@ -23515,22 +23515,22 @@
     </row>
     <row r="574" spans="1:11" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A574" s="1" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="B574" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C574" s="1" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="D574" s="1" t="s">
         <v>964</v>
       </c>
       <c r="E574" s="1" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="I574" s="5" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="K574" s="1" t="s">
         <v>29</v>
@@ -23538,22 +23538,22 @@
     </row>
     <row r="575" spans="1:11" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A575" s="1" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B575" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C575" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="B575" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C575" s="1" t="s">
-        <v>1681</v>
       </c>
       <c r="D575" s="1" t="s">
         <v>964</v>
       </c>
       <c r="E575" s="1" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="I575" s="5" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="K575" s="1" t="s">
         <v>29</v>
@@ -23561,25 +23561,25 @@
     </row>
     <row r="576" spans="1:11" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A576" s="1" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B576" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C576" s="1" t="s">
         <v>1686</v>
-      </c>
-      <c r="B576" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C576" s="1" t="s">
-        <v>1687</v>
       </c>
       <c r="D576" s="1" t="s">
         <v>964</v>
       </c>
       <c r="E576" s="1" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="I576" s="5" t="s">
+        <v>1687</v>
+      </c>
+      <c r="J576" s="1" t="s">
         <v>1688</v>
-      </c>
-      <c r="J576" s="1" t="s">
-        <v>1689</v>
       </c>
       <c r="K576" s="1" t="s">
         <v>29</v>
@@ -23587,25 +23587,25 @@
     </row>
     <row r="577" spans="1:11" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A577" s="1" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B577" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C577" s="1" t="s">
         <v>1691</v>
-      </c>
-      <c r="B577" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C577" s="1" t="s">
-        <v>1692</v>
       </c>
       <c r="D577" s="1" t="s">
         <v>964</v>
       </c>
       <c r="E577" s="1" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="I577" s="5" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="J577" s="1" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="K577" s="1" t="s">
         <v>29</v>
@@ -23613,25 +23613,25 @@
     </row>
     <row r="578" spans="1:11" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A578" s="1" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B578" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C578" s="1" t="s">
         <v>1693</v>
-      </c>
-      <c r="B578" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C578" s="1" t="s">
-        <v>1694</v>
       </c>
       <c r="D578" s="1" t="s">
         <v>964</v>
       </c>
       <c r="E578" s="1" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="I578" s="5" t="s">
+        <v>1694</v>
+      </c>
+      <c r="J578" s="1" t="s">
         <v>1695</v>
-      </c>
-      <c r="J578" s="1" t="s">
-        <v>1696</v>
       </c>
       <c r="K578" s="1" t="s">
         <v>29</v>
@@ -23639,25 +23639,25 @@
     </row>
     <row r="579" spans="1:11" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A579" s="1" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B579" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C579" s="1" t="s">
         <v>1698</v>
-      </c>
-      <c r="B579" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C579" s="1" t="s">
-        <v>1699</v>
       </c>
       <c r="D579" s="1" t="s">
         <v>964</v>
       </c>
       <c r="E579" s="1" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="I579" s="5" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="J579" s="1" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="K579" s="1" t="s">
         <v>29</v>
@@ -23665,28 +23665,28 @@
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A580" s="1" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="B580" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C580" s="1" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="D580" s="1" t="s">
+        <v>1704</v>
+      </c>
+      <c r="E580" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="F580" s="6" t="s">
         <v>1705</v>
       </c>
-      <c r="E580" s="1" t="s">
-        <v>1682</v>
-      </c>
-      <c r="F580" s="6" t="s">
+      <c r="G580" s="6" t="s">
         <v>1706</v>
       </c>
-      <c r="G580" s="6" t="s">
-        <v>1707</v>
-      </c>
       <c r="I580" s="1" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="K580" s="1" t="s">
         <v>29</v>
@@ -23694,31 +23694,31 @@
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A581" s="1" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="B581" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C581" s="1" t="s">
+        <v>1703</v>
+      </c>
+      <c r="D581" s="1" t="s">
         <v>1704</v>
       </c>
-      <c r="D581" s="1" t="s">
+      <c r="E581" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="F581" s="6" t="s">
         <v>1705</v>
       </c>
-      <c r="E581" s="1" t="s">
-        <v>1682</v>
-      </c>
-      <c r="F581" s="6" t="s">
-        <v>1706</v>
-      </c>
       <c r="G581" s="6" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="I581" s="1" t="s">
+        <v>1709</v>
+      </c>
+      <c r="J581" s="1" t="s">
         <v>1710</v>
-      </c>
-      <c r="J581" s="1" t="s">
-        <v>1711</v>
       </c>
       <c r="K581" s="1" t="s">
         <v>29</v>
@@ -23726,28 +23726,28 @@
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A582" s="1" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B582" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C582" s="1" t="s">
         <v>1712</v>
       </c>
-      <c r="B582" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C582" s="1" t="s">
+      <c r="D582" s="1" t="s">
+        <v>1704</v>
+      </c>
+      <c r="E582" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="F582" s="6" t="s">
+        <v>1705</v>
+      </c>
+      <c r="I582" s="1" t="s">
         <v>1713</v>
       </c>
-      <c r="D582" s="1" t="s">
-        <v>1705</v>
-      </c>
-      <c r="E582" s="1" t="s">
-        <v>1682</v>
-      </c>
-      <c r="F582" s="6" t="s">
-        <v>1706</v>
-      </c>
-      <c r="I582" s="1" t="s">
+      <c r="J582" s="1" t="s">
         <v>1714</v>
-      </c>
-      <c r="J582" s="1" t="s">
-        <v>1715</v>
       </c>
       <c r="K582" s="1" t="s">
         <v>29</v>
@@ -23755,25 +23755,25 @@
     </row>
     <row r="583" spans="1:11" ht="135" x14ac:dyDescent="0.15">
       <c r="A583" s="1" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="B583" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C583" s="1" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="D583" s="1" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="E583" s="1" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="I583" s="5" t="s">
+        <v>1721</v>
+      </c>
+      <c r="J583" s="1" t="s">
         <v>1722</v>
-      </c>
-      <c r="J583" s="1" t="s">
-        <v>1723</v>
       </c>
       <c r="K583" s="1" t="s">
         <v>29</v>
@@ -23781,25 +23781,25 @@
     </row>
     <row r="584" spans="1:11" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A584" s="1" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="B584" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C584" s="1" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="D584" s="1" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="E584" s="1" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="I584" s="5" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="J584" s="1" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="K584" s="1" t="s">
         <v>29</v>
@@ -23807,28 +23807,28 @@
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A585" s="1" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="B585" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C585" s="1" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="D585" s="1" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="E585" s="1" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F585" s="1" t="s">
+        <v>1730</v>
+      </c>
+      <c r="I585" s="1" t="s">
         <v>1731</v>
       </c>
-      <c r="I585" s="1" t="s">
+      <c r="J585" s="1" t="s">
         <v>1732</v>
-      </c>
-      <c r="J585" s="1" t="s">
-        <v>1733</v>
       </c>
       <c r="K585" s="1" t="s">
         <v>29</v>
@@ -23836,28 +23836,28 @@
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A586" s="1" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="B586" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C586" s="1" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="D586" s="1" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="E586" s="1" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="H586" s="1" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="I586" s="1" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="J586" s="1" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="K586" s="1" t="s">
         <v>29</v>
@@ -23865,28 +23865,28 @@
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A587" s="1" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="B587" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C587" s="1" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="D587" s="1" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="E587" s="1" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="H587" s="1" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="I587" s="1" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="J587" s="1" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="K587" s="1" t="s">
         <v>29</v>
@@ -23894,25 +23894,25 @@
     </row>
     <row r="588" spans="1:11" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A588" s="1" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="B588" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C588" s="1" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="D588" s="1" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="E588" s="1" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="I588" s="5" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="J588" s="1" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="K588" s="1" t="s">
         <v>29</v>
@@ -23920,25 +23920,25 @@
     </row>
     <row r="589" spans="1:11" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A589" s="1" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="B589" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C589" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="D589" s="1" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="E589" s="1" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="I589" s="5" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="J589" s="1" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="K589" s="1" t="s">
         <v>29</v>

--- a/src/test/resources/io.dingodb.test/testdata/cases/negative/sql_negative_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/cases/negative/sql_negative_cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5236" uniqueCount="1761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5362" uniqueCount="1820">
   <si>
     <t>TestID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6553,6 +6553,403 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ERROR 9001 (45000): ivf_pq_parameter vector_index_parameter is illegal, dimension:64 / nsubvector:5 not divisible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $schema1 values(2,'zhangsan',18,23.50,'beijing','1998-04-06','08:10:10','2022-04-08 18:05:07', '0')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $schema1 values(3,'zhangsan',18,23.50,'beijing','1998-04-06','08:10:10','2022-04-08 18:05:07', '1')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $schema1 values(4,'zhangsan',18,23.50,'beijing','1998-04-06','08:10:10','2022-04-08 18:05:07', 'true')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $schema1 values(5,'zhangsan',18,23.50,'beijing','1998-04-06','08:10:10','2022-04-08 18:05:07', 'False')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $schema1 values(6,'zhangsan',18,23.50,'beijing','1998-04-06','08:10:10','2022-04-08 18:05:07', true1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $schema1 values(7,'zhangsan',18,23.50,'beijing','1998-04-06','08:10:10','2022-04-08 18:05:07', isFalse)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $schema1 values(8,'zhangsan',18,23.50,'beijing','1998-04-06','08:10:10','2022-04-08 18:05:07', isTrue)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $schema1 values(9,'zhangsan',18,23.50,'beijing','1998-04-06','08:10:10','2022-04-08 18:05:07', False0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $schema1 values(10,'zhangsan',18,23.50,'beijing','1998-04-06','08:10:10','2022-04-08 18:05:07',-2.5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $schema1 values(11,'zhangsan',18,23.50,'beijing','1998-04-06','08:10:10','2022-04-08 18:05:07',1.4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $schema1 values(12,'zhangsan',18,23.50,'beijing','1998-04-06','08:10:10','2022-04-08 18:05:07', 0.5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $schema1 values(13,'zhangsan',18,23.50,'beijing','1998-04-06','08:10:10','2022-04-08 18:05:07', 0.0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布尔字段类型名称为bool，创建表失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $schema1 values(1,'zhangsan',18,23.50,'beijing','1998-04-06','08:10:10')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $schema1 values(2,'zhangsan',18,23.50,'beijing','1998-04-06','08:10:10','2022-04-08 18:05:07', 1, true)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $schema1 values(3,'zhangsan','abc',23.50,'beijing','1998-04-06','08:10:10','2022-04-08 18:05:07',true)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $schema7 values(2,'Li Si','male','1998-03-15',null,5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $array10 values(407,'zhangsan',18,23.5,array[2.5])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_590</t>
+  </si>
+  <si>
+    <t>negative_591</t>
+  </si>
+  <si>
+    <t>negative_592</t>
+  </si>
+  <si>
+    <t>向量topK查询，K缺失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向量topK查询，K为字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向量topK查询，K为负整数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向量topK查询，K大于1024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector001_value1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select id,feature_id,feature_index$distance from vector($vector001, feature, array[1.2949047088623047, 0.8476371169090271, 0.41010794043540955, 0.9785786271095276, 0.6064758896827698, 0.5890575647354126, 0.4460025131702423, 0.43684643507003784])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR 9001 (45000): Incorrect parameter count for vector function.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_589</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_589</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select id,feature_id,feature_index$distance from vector($vector001, feature, array[1.2949047088623047, 0.8476371169090271, 0.41010794043540955, 0.9785786271095276, 0.6064758896827698, 0.5890575647354126, 0.4460025131702423, 0.43684643507003784], 'a')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR 9001 (45000): Top n not number.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select id,feature_id,feature_index$distance from vector($vector001, feature, array[1.2949047088623047, 0.8476371169090271, 0.41010794043540955, 0.9785786271095276, 0.6064758896827698, 0.5890575647354126, 0.4460025131702423, 0.43684643507003784], -1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR 5001 (45000): io.dingodb.sdk.common.DingoClientException$RequestErrorException: Param top_n 4294967295 is exceed max batch count 1024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select id,feature_id,feature_index$distance from vector($vector001, feature, array[1.2949047088623047, 0.8476371169090271, 0.41010794043540955, 0.9785786271095276, 0.6064758896827698, 0.5890575647354126, 0.4460025131702423, 0.43684643507003784], 1025)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR 5001 (45000): io.dingodb.sdk.common.DingoClientException$RequestErrorException: Param top_n 1025 is exceed max batch count 1024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_593</t>
+  </si>
+  <si>
+    <t>negative_594</t>
+  </si>
+  <si>
+    <t>negative_595</t>
+  </si>
+  <si>
+    <t>创建IVFFlat算法的索引表，缺少ncentroids参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table neg_593 (
+    id bigint auto_increment not null, 
+    name varchar(32),
+    age int,
+    amount double,
+    feature float array not null,
+    feature_id bigint not null,
+    index feature_index vector(feature_id, feature) parameters(type=ivfflat, metricType=L2, dimension=8),
+    primary key(id)
+)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR 9001 (45000): ivf_flat_parameter.ncentroids is illegal : 0  default : 2048</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建IVFFlat算法的索引表，ncentroids参数为0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table neg_594 (
+    id bigint auto_increment not null, 
+    name varchar(32),
+    age int,
+    amount double,
+    feature float array not null,
+    feature_id bigint not null,
+    index feature_index vector(feature_id, feature) parameters(type=ivfflat, metricType=L2, dimension=8, ncentroids=0),
+    primary key(id)
+)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_596</t>
+  </si>
+  <si>
+    <t>创建IVFFlat算法的索引表，ncentroids参数为小数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建IVFFlat算法的索引表，ncentroids参数为负数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table neg_595 (
+    id bigint auto_increment not null, 
+    name varchar(32),
+    age int,
+    amount double,
+    feature float array not null,
+    feature_id bigint not null,
+    index feature_index vector(feature_id, feature) parameters(type=ivfflat, metricType=L2, dimension=8, ncentroids=2.5),
+    primary key(id)
+)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR 3001 (45000): For input string: "2.5"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table neg_596 (
+    id bigint auto_increment not null, 
+    name varchar(32),
+    age int,
+    amount double,
+    feature float array not null,
+    feature_id bigint not null,
+    index feature_index vector(feature_id, feature) parameters(type=ivfflat, metricType=L2, dimension=8, ncentroids=-8),
+    primary key(id)
+)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_597</t>
+  </si>
+  <si>
+    <t>negative_598</t>
+  </si>
+  <si>
+    <t>创建IVFPQ算法的索引表，nbitsPerIdx为0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE TABLE neg_597 (
+    id bigint auto_increment not null, 
+    name varchar(32),
+    age int,
+    amount double,
+    feature float array not null,
+    feature_id bigint not null,
+    index feature_index vector(feature_id, feature) parameters(type=ivfpq, metricType=L2, dimension=16, ncentroids=10, nsubvector=4, nbitsPerIdx=0),
+    primary key(id)
+)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR 9001 (45000): ivf_pq_parameter.nbits_per_idx is illegal : 0 nbits_per_idx valid : (0, 16]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建IVFPQ算法的索引表，nbitsPerIdx大于16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE TABLE neg_598 (
+    id bigint auto_increment not null, 
+    name varchar(32),
+    age int,
+    amount double,
+    feature float array not null,
+    feature_id bigint not null,
+    index feature_index vector(feature_id, feature) parameters(type=ivfpq, metricType=L2, dimension=16, ncentroids=10, nsubvector=4, nbitsPerIdx=17),
+    primary key(id)
+)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR 9001 (45000): ivf_pq_parameter.nbits_per_idx is illegal : 17 nbits_per_idx valid : (0, 16]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_599</t>
+  </si>
+  <si>
+    <t>CREATE TABLE neg_599 (
+    id bigint auto_increment not null, 
+    name varchar(32),
+    age int,
+    amount double,
+    feature float array not null,
+    feature_id bigint not null,
+    index feature_index vector(feature_id, feature) parameters(type=ivfpq, metricType=L2, dimension=16, ncentroids=10, nsubvector=4, nbitsPerIdx=-1),
+    primary key(id)
+)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建IVFPQ算法的索引表，nbitsPerIdx负数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建IVFPQ算法的索引表，nsubvector为0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_600</t>
+  </si>
+  <si>
+    <t>CREATE TABLE neg_600 (
+    id bigint auto_increment not null, 
+    name varchar(32),
+    age int,
+    amount double,
+    feature float array not null,
+    feature_id bigint not null,
+    index feature_index vector(feature_id, feature) parameters(type=ivfpq, metricType=L2, dimension=16, ncentroids=10, nsubvector=0, nbitsPerIdx=4),
+    primary key(id)
+)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR 9001 (45000): ivf_pq_parameter.nsubvector is illegal : 0 default : 64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_601</t>
+  </si>
+  <si>
+    <t>创建IVFPQ算法的索引表，dimension为0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE TABLE neg_601 (
+    id bigint auto_increment not null, 
+    name varchar(32),
+    age int,
+    amount double,
+    feature float array not null,
+    feature_id bigint not null,
+    index feature_index vector(feature_id, feature) parameters(type=ivfpq, metricType=L2, dimension=0, ncentroids=10, nsubvector=4, nbitsPerIdx=4),
+    primary key(id)
+)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR 9001 (45000): ivf_pq_parameter.dimension is illegal 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE TABLE neg_602 (
+    id bigint auto_increment not null, 
+    name varchar(32),
+    age int,
+    amount double,
+    feature float array not null,
+    feature_id bigint not null,
+    index feature_index vector(feature_id, feature) parameters(type=ivfpq, metricType=L2, dimension=0, ncentroids=10, nsubvector=0, nbitsPerIdx=4),
+    primary key(id)
+)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建IVFPQ算法的索引表，dimension为0, nsubvctor也为0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_602</t>
+  </si>
+  <si>
+    <t>negative_603</t>
+  </si>
+  <si>
+    <t>创建IVFPQ算法的索引表，ncentroids为0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE TABLE neg_603 (
+    id bigint auto_increment not null, 
+    name varchar(32),
+    age int,
+    amount double,
+    feature float array not null,
+    feature_id bigint not null,
+    index feature_index vector(feature_id, feature) parameters(type=ivfpq, metricType=L2, dimension=64, ncentroids=0, nsubvector=4, nbitsPerIdx=4),
+    primary key(id)
+)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR 9001 (45000): ivf_pq_parameter.ncentroids is illegal : 0 default : 2048</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>create table neg_587 (
     id bigint auto_increment not null, 
     name varchar(32),
@@ -6560,13 +6957,9 @@
     amount double,
     feature float array not null,
     feature_id bigint not null,
-    index feature_index vector(feature_id, feature) parameters(type=ivfpq, metricType=L2, dimension=8, ncentroids=64, nsubvector=10, nbits_per_idx=8),
+    index feature_index vector(feature_id, feature) parameters(type=ivfpq, metricType=L2, dimension=8, ncentroids=64, nsubvector=10, nbitsPerIdx=8),
     primary key(id)
 )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR 9001 (45000): ivf_pq_parameter vector_index_parameter is illegal, dimension:64 / nsubvector:5 not divisible</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6577,81 +6970,9 @@
     amount double,
     feature float array not null,
     feature_id bigint not null,
-    index feature_index vector(feature_id, feature) parameters(type=ivfpq, metricType=L2, dimension=64, ncentroids=16, nsubvector=5, nbits_per_idx=8),
+    index feature_index vector(feature_id, feature) parameters(type=ivfpq, metricType=L2, dimension=64, ncentroids=16, nsubvector=5, nbitsPerIdx=8),
     primary key(id)
 )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into $schema1 values(2,'zhangsan',18,23.50,'beijing','1998-04-06','08:10:10','2022-04-08 18:05:07', '0')</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into $schema1 values(3,'zhangsan',18,23.50,'beijing','1998-04-06','08:10:10','2022-04-08 18:05:07', '1')</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into $schema1 values(4,'zhangsan',18,23.50,'beijing','1998-04-06','08:10:10','2022-04-08 18:05:07', 'true')</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into $schema1 values(5,'zhangsan',18,23.50,'beijing','1998-04-06','08:10:10','2022-04-08 18:05:07', 'False')</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into $schema1 values(6,'zhangsan',18,23.50,'beijing','1998-04-06','08:10:10','2022-04-08 18:05:07', true1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into $schema1 values(7,'zhangsan',18,23.50,'beijing','1998-04-06','08:10:10','2022-04-08 18:05:07', isFalse)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into $schema1 values(8,'zhangsan',18,23.50,'beijing','1998-04-06','08:10:10','2022-04-08 18:05:07', isTrue)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into $schema1 values(9,'zhangsan',18,23.50,'beijing','1998-04-06','08:10:10','2022-04-08 18:05:07', False0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into $schema1 values(10,'zhangsan',18,23.50,'beijing','1998-04-06','08:10:10','2022-04-08 18:05:07',-2.5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into $schema1 values(11,'zhangsan',18,23.50,'beijing','1998-04-06','08:10:10','2022-04-08 18:05:07',1.4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into $schema1 values(12,'zhangsan',18,23.50,'beijing','1998-04-06','08:10:10','2022-04-08 18:05:07', 0.5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into $schema1 values(13,'zhangsan',18,23.50,'beijing','1998-04-06','08:10:10','2022-04-08 18:05:07', 0.0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>布尔字段类型名称为bool，创建表失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into $schema1 values(1,'zhangsan',18,23.50,'beijing','1998-04-06','08:10:10')</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into $schema1 values(2,'zhangsan',18,23.50,'beijing','1998-04-06','08:10:10','2022-04-08 18:05:07', 1, true)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into $schema1 values(3,'zhangsan','abc',23.50,'beijing','1998-04-06','08:10:10','2022-04-08 18:05:07',true)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into $schema7 values(2,'Li Si','male','1998-03-15',null,5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into $array10 values(407,'zhangsan',18,23.5,array[2.5])</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7036,10 +7357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K589"/>
+  <dimension ref="A1:K604"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A389" workbookViewId="0">
-      <selection activeCell="G508" sqref="G508"/>
+    <sheetView tabSelected="1" topLeftCell="D597" workbookViewId="0">
+      <selection activeCell="I598" sqref="I598"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12919,7 +13240,7 @@
         <v>1015</v>
       </c>
       <c r="I226" s="1" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>666</v>
@@ -12948,7 +13269,7 @@
         <v>1015</v>
       </c>
       <c r="I227" s="1" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>666</v>
@@ -12977,7 +13298,7 @@
         <v>1015</v>
       </c>
       <c r="I228" s="1" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>666</v>
@@ -13006,7 +13327,7 @@
         <v>1015</v>
       </c>
       <c r="I229" s="1" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>666</v>
@@ -13035,7 +13356,7 @@
         <v>1015</v>
       </c>
       <c r="I230" s="1" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>675</v>
@@ -13064,7 +13385,7 @@
         <v>1015</v>
       </c>
       <c r="I231" s="1" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>676</v>
@@ -13093,7 +13414,7 @@
         <v>1015</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>677</v>
@@ -13122,7 +13443,7 @@
         <v>1015</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>678</v>
@@ -13151,7 +13472,7 @@
         <v>1015</v>
       </c>
       <c r="I234" s="1" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>679</v>
@@ -13180,7 +13501,7 @@
         <v>1015</v>
       </c>
       <c r="I235" s="1" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>679</v>
@@ -13209,7 +13530,7 @@
         <v>1015</v>
       </c>
       <c r="I236" s="1" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>679</v>
@@ -13238,7 +13559,7 @@
         <v>1015</v>
       </c>
       <c r="I237" s="1" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>679</v>
@@ -13255,7 +13576,7 @@
         <v>25</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>663</v>
@@ -15771,7 +16092,7 @@
         <v>1015</v>
       </c>
       <c r="I311" s="1" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="J311" s="1" t="s">
         <v>928</v>
@@ -15800,7 +16121,7 @@
         <v>1015</v>
       </c>
       <c r="I312" s="1" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="J312" s="1" t="s">
         <v>929</v>
@@ -15829,7 +16150,7 @@
         <v>1015</v>
       </c>
       <c r="I313" s="1" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="J313" s="1" t="s">
         <v>931</v>
@@ -15913,7 +16234,7 @@
         <v>1017</v>
       </c>
       <c r="I316" s="1" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="J316" s="1" t="s">
         <v>958</v>
@@ -18710,7 +19031,7 @@
         <v>1109</v>
       </c>
       <c r="I408" s="1" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="J408" s="1" t="s">
         <v>1261</v>
@@ -23909,7 +24230,7 @@
         <v>1681</v>
       </c>
       <c r="I588" s="5" t="s">
-        <v>1740</v>
+        <v>1818</v>
       </c>
       <c r="J588" s="1" t="s">
         <v>1739</v>
@@ -23935,12 +24256,420 @@
         <v>1681</v>
       </c>
       <c r="I589" s="5" t="s">
-        <v>1742</v>
+        <v>1819</v>
       </c>
       <c r="J589" s="1" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="K589" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="590" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A590" s="1" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B590" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C590" s="1" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D590" s="1" t="s">
+        <v>1704</v>
+      </c>
+      <c r="E590" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="F590" s="6" t="s">
+        <v>1767</v>
+      </c>
+      <c r="G590" s="6" t="s">
+        <v>1766</v>
+      </c>
+      <c r="I590" s="1" t="s">
+        <v>1768</v>
+      </c>
+      <c r="J590" s="1" t="s">
+        <v>1769</v>
+      </c>
+      <c r="K590" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="591" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A591" s="1" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B591" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C591" s="1" t="s">
+        <v>1763</v>
+      </c>
+      <c r="D591" s="1" t="s">
+        <v>1704</v>
+      </c>
+      <c r="E591" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="F591" s="6" t="s">
+        <v>1767</v>
+      </c>
+      <c r="H591" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="I591" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="J591" s="1" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K591" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="592" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A592" s="1" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B592" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C592" s="1" t="s">
+        <v>1764</v>
+      </c>
+      <c r="D592" s="1" t="s">
+        <v>1704</v>
+      </c>
+      <c r="E592" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="F592" s="6" t="s">
+        <v>1767</v>
+      </c>
+      <c r="H592" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="I592" s="1" t="s">
+        <v>1774</v>
+      </c>
+      <c r="J592" s="1" t="s">
+        <v>1775</v>
+      </c>
+      <c r="K592" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="593" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A593" s="1" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B593" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C593" s="1" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D593" s="1" t="s">
+        <v>1704</v>
+      </c>
+      <c r="E593" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="F593" s="6" t="s">
+        <v>1767</v>
+      </c>
+      <c r="H593" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="I593" s="1" t="s">
+        <v>1776</v>
+      </c>
+      <c r="J593" s="1" t="s">
+        <v>1777</v>
+      </c>
+      <c r="K593" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="594" spans="1:11" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A594" s="1" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B594" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C594" s="1" t="s">
+        <v>1781</v>
+      </c>
+      <c r="D594" s="1" t="s">
+        <v>1704</v>
+      </c>
+      <c r="E594" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="I594" s="5" t="s">
+        <v>1782</v>
+      </c>
+      <c r="J594" s="1" t="s">
+        <v>1783</v>
+      </c>
+      <c r="K594" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="595" spans="1:11" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A595" s="1" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B595" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C595" s="1" t="s">
+        <v>1784</v>
+      </c>
+      <c r="D595" s="1" t="s">
+        <v>1704</v>
+      </c>
+      <c r="E595" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="I595" s="5" t="s">
+        <v>1785</v>
+      </c>
+      <c r="J595" s="1" t="s">
+        <v>1783</v>
+      </c>
+      <c r="K595" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="596" spans="1:11" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A596" s="1" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B596" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C596" s="1" t="s">
+        <v>1787</v>
+      </c>
+      <c r="D596" s="1" t="s">
+        <v>1704</v>
+      </c>
+      <c r="E596" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="I596" s="5" t="s">
+        <v>1789</v>
+      </c>
+      <c r="J596" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="K596" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="597" spans="1:11" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A597" s="1" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B597" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C597" s="1" t="s">
+        <v>1788</v>
+      </c>
+      <c r="D597" s="1" t="s">
+        <v>1704</v>
+      </c>
+      <c r="E597" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="I597" s="5" t="s">
+        <v>1791</v>
+      </c>
+      <c r="K597" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="598" spans="1:11" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A598" s="1" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B598" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C598" s="1" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D598" s="1" t="s">
+        <v>1704</v>
+      </c>
+      <c r="E598" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="I598" s="5" t="s">
+        <v>1795</v>
+      </c>
+      <c r="J598" s="1" t="s">
+        <v>1796</v>
+      </c>
+      <c r="K598" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="599" spans="1:11" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A599" s="1" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B599" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C599" s="1" t="s">
+        <v>1797</v>
+      </c>
+      <c r="D599" s="1" t="s">
+        <v>1704</v>
+      </c>
+      <c r="E599" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="I599" s="5" t="s">
+        <v>1798</v>
+      </c>
+      <c r="J599" s="1" t="s">
+        <v>1799</v>
+      </c>
+      <c r="K599" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="600" spans="1:11" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A600" s="1" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B600" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C600" s="1" t="s">
+        <v>1802</v>
+      </c>
+      <c r="D600" s="1" t="s">
+        <v>1704</v>
+      </c>
+      <c r="E600" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="I600" s="5" t="s">
+        <v>1801</v>
+      </c>
+      <c r="K600" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="601" spans="1:11" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A601" s="1" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B601" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C601" s="1" t="s">
+        <v>1803</v>
+      </c>
+      <c r="D601" s="1" t="s">
+        <v>1704</v>
+      </c>
+      <c r="E601" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="I601" s="5" t="s">
+        <v>1805</v>
+      </c>
+      <c r="J601" s="1" t="s">
+        <v>1806</v>
+      </c>
+      <c r="K601" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="602" spans="1:11" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A602" s="1" t="s">
+        <v>1807</v>
+      </c>
+      <c r="B602" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C602" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D602" s="1" t="s">
+        <v>1704</v>
+      </c>
+      <c r="E602" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="I602" s="5" t="s">
+        <v>1809</v>
+      </c>
+      <c r="J602" s="1" t="s">
+        <v>1810</v>
+      </c>
+      <c r="K602" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="603" spans="1:11" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A603" s="1" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B603" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C603" s="1" t="s">
+        <v>1812</v>
+      </c>
+      <c r="D603" s="1" t="s">
+        <v>1704</v>
+      </c>
+      <c r="E603" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="I603" s="5" t="s">
+        <v>1811</v>
+      </c>
+      <c r="J603" s="1" t="s">
+        <v>1810</v>
+      </c>
+      <c r="K603" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="604" spans="1:11" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A604" s="1" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B604" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C604" s="1" t="s">
+        <v>1815</v>
+      </c>
+      <c r="D604" s="1" t="s">
+        <v>1704</v>
+      </c>
+      <c r="E604" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="I604" s="5" t="s">
+        <v>1816</v>
+      </c>
+      <c r="J604" s="1" t="s">
+        <v>1817</v>
+      </c>
+      <c r="K604" s="1" t="s">
         <v>29</v>
       </c>
     </row>

--- a/src/test/resources/io.dingodb.test/testdata/cases/negative/sql_negative_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/cases/negative/sql_negative_cases.xlsx
@@ -7359,8 +7359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K604"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D597" workbookViewId="0">
-      <selection activeCell="I598" sqref="I598"/>
+    <sheetView tabSelected="1" topLeftCell="A588" workbookViewId="0">
+      <selection activeCell="G589" sqref="G589"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/src/test/resources/io.dingodb.test/testdata/cases/negative/sql_negative_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/cases/negative/sql_negative_cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5370" uniqueCount="1826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5386" uniqueCount="1834">
   <si>
     <t>TestID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6996,6 +6996,36 @@
   </si>
   <si>
     <t>Database</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_605</t>
+  </si>
+  <si>
+    <t>schema已存在，再次创建同名schema</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create database neg_schema_605;create database neg_schema_605</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schema_name is exist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_606</t>
+  </si>
+  <si>
+    <t>创建同名表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table already exists</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table dingo.neg_606(id int, name varchar(20), primary key(id));create table dingo.neg_606(id int, name varchar(20), primary key(id))</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7380,10 +7410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K605"/>
+  <dimension ref="A1:K607"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A603" workbookViewId="0">
-      <selection activeCell="E609" sqref="E609"/>
+    <sheetView tabSelected="1" topLeftCell="A604" workbookViewId="0">
+      <selection activeCell="I619" sqref="I619"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -24719,6 +24749,58 @@
         <v>1823</v>
       </c>
       <c r="K605" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="606" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A606" s="1" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B606" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C606" s="1" t="s">
+        <v>1827</v>
+      </c>
+      <c r="D606" s="1" t="s">
+        <v>1821</v>
+      </c>
+      <c r="E606" s="1" t="s">
+        <v>1825</v>
+      </c>
+      <c r="I606" s="1" t="s">
+        <v>1828</v>
+      </c>
+      <c r="J606" s="1" t="s">
+        <v>1829</v>
+      </c>
+      <c r="K606" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="607" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A607" s="1" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B607" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C607" s="1" t="s">
+        <v>1831</v>
+      </c>
+      <c r="D607" s="1" t="s">
+        <v>1821</v>
+      </c>
+      <c r="E607" s="1" t="s">
+        <v>1825</v>
+      </c>
+      <c r="I607" s="1" t="s">
+        <v>1833</v>
+      </c>
+      <c r="J607" s="1" t="s">
+        <v>1832</v>
+      </c>
+      <c r="K607" s="1" t="s">
         <v>28</v>
       </c>
     </row>
